--- a/src/extraResources/qcs项目目录.xlsx
+++ b/src/extraResources/qcs项目目录.xlsx
@@ -796,10 +796,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -825,14 +825,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,6 +862,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -861,19 +884,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -886,14 +900,31 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,38 +938,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -953,18 +953,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1045,7 +1045,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,19 +1165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,37 +1183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,85 +1195,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,17 +1326,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1352,35 +1352,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,22 +1375,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,10 +1431,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1443,133 +1443,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2154,10 +2154,10 @@
   <sheetPr/>
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="31" customHeight="1"/>
@@ -3563,7 +3563,9 @@
         <v>148</v>
       </c>
       <c r="I26" s="66"/>
-      <c r="J26" s="67"/>
+      <c r="J26" s="67">
+        <v>1</v>
+      </c>
       <c r="K26" s="67"/>
       <c r="L26" s="63" t="s">
         <v>118</v>
@@ -3728,7 +3730,9 @@
       <c r="I29" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="J29" s="69"/>
+      <c r="J29" s="69">
+        <v>1</v>
+      </c>
       <c r="K29" s="69"/>
       <c r="L29" s="70" t="s">
         <v>158</v>
@@ -3779,7 +3783,9 @@
       <c r="I30" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="J30" s="69"/>
+      <c r="J30" s="69">
+        <v>1</v>
+      </c>
       <c r="K30" s="69"/>
       <c r="L30" s="70" t="s">
         <v>163</v>
@@ -3832,7 +3838,9 @@
       <c r="I31" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="J31" s="73"/>
+      <c r="J31" s="73">
+        <v>1</v>
+      </c>
       <c r="K31" s="73"/>
       <c r="L31" s="74" t="s">
         <v>118</v>
@@ -3885,7 +3893,9 @@
       <c r="I32" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="73"/>
+      <c r="J32" s="73">
+        <v>1</v>
+      </c>
       <c r="K32" s="73"/>
       <c r="L32" s="74" t="s">
         <v>118</v>
@@ -3938,7 +3948,9 @@
       <c r="I33" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="J33" s="73"/>
+      <c r="J33" s="73">
+        <v>1</v>
+      </c>
       <c r="K33" s="73"/>
       <c r="L33" s="74" t="s">
         <v>118</v>
@@ -3991,7 +4003,9 @@
       <c r="I34" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="J34" s="3"/>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="38" t="s">
         <v>118</v>
@@ -4046,7 +4060,9 @@
       <c r="I35" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="J35" s="3"/>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="38" t="s">
         <v>118</v>
@@ -4101,7 +4117,9 @@
       <c r="I36" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="J36" s="3"/>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
       <c r="K36" s="3"/>
       <c r="L36" s="38" t="s">
         <v>118</v>
@@ -4156,7 +4174,9 @@
       <c r="I37" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="J37" s="3"/>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
       <c r="K37" s="3"/>
       <c r="L37" s="38" t="s">
         <v>118</v>

--- a/src/extraResources/qcs项目目录.xlsx
+++ b/src/extraResources/qcs项目目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25185" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="189">
   <si>
     <t>ID</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>WS674标准</t>
+  </si>
+  <si>
+    <t>WS674标准图片路径</t>
   </si>
   <si>
     <t>等中心的指示（激光灯）</t>
@@ -164,6 +167,12 @@
   </si>
   <si>
     <t>能替代角度尺或水平尺</t>
+  </si>
+  <si>
+    <t>用角度尺或水平尺测量治疗床前后方向与水平面形成的角度。如下图轴7。</t>
+  </si>
+  <si>
+    <t>src\extraResources\project\6.6.3.01.png</t>
   </si>
   <si>
     <t>治疗床面横向转动轴</t>
@@ -796,12 +805,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,8 +833,104 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,36 +946,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,29 +954,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,45 +965,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1045,19 +1060,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,109 +1084,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,7 +1108,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,7 +1138,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,6 +1341,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1356,17 +1380,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,11 +1413,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1414,15 +1438,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1431,149 +1446,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1814,6 +1829,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2152,12 +2170,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="31" customHeight="1"/>
@@ -2180,11 +2198,12 @@
     <col min="18" max="18" width="23.5" style="4" customWidth="1"/>
     <col min="19" max="19" width="8.375" style="4" customWidth="1"/>
     <col min="20" max="20" width="14" style="6" customWidth="1"/>
-    <col min="21" max="16378" width="10.625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="18.625" style="6" customWidth="1"/>
+    <col min="22" max="16378" width="10.625" style="6" customWidth="1"/>
     <col min="16379" max="16384" width="10.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:20">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2244,6 +2263,9 @@
       </c>
       <c r="T1" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:20">
@@ -2251,12 +2273,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -2265,54 +2287,54 @@
         <v>5</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
       <c r="L2" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" s="43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R2" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" s="6">
         <v>122</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:20">
+    <row r="3" customHeight="1" spans="1:21">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11">
         <v>0</v>
@@ -2321,39 +2343,42 @@
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" s="45"/>
       <c r="K3" s="45"/>
       <c r="L3" s="42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" s="42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" s="42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O3" s="42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R3" s="79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="6">
-        <v>3333</v>
+        <v>32</v>
+      </c>
+      <c r="T3" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:20">
@@ -2361,14 +2386,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
@@ -2377,34 +2402,34 @@
         <v>1</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" s="45"/>
       <c r="K4" s="45"/>
       <c r="L4" s="42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" s="42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R4" s="79"/>
       <c r="S4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T4" s="6">
         <v>121221</v>
@@ -2415,14 +2440,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F5" s="11">
         <v>0</v>
@@ -2431,36 +2456,36 @@
         <v>1</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" s="45"/>
       <c r="K5" s="45"/>
       <c r="L5" s="42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O5" s="42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5" s="43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="80" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="R5" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:19">
@@ -2468,14 +2493,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F6" s="11">
         <v>0</v>
@@ -2484,36 +2509,36 @@
         <v>1</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O6" s="42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P6" s="43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="80" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="R6" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:19">
@@ -2521,7 +2546,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
@@ -2535,34 +2560,34 @@
         <v>2</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="47"/>
       <c r="K7" s="47"/>
       <c r="L7" s="48" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M7" s="48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N7" s="47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O7" s="47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P7" s="49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R7" s="48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:19">
@@ -2570,14 +2595,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F8" s="11">
         <v>0</v>
@@ -2586,36 +2611,36 @@
         <v>1</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8" s="51"/>
       <c r="K8" s="51"/>
       <c r="L8" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>52</v>
-      </c>
       <c r="P8" s="49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="R8" s="81" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="R8" s="82" t="s">
+        <v>53</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:19">
@@ -2623,14 +2648,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F9" s="11">
         <v>0</v>
@@ -2639,36 +2664,36 @@
         <v>1</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
       <c r="L9" s="19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" s="54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R9" s="58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:19">
@@ -2676,14 +2701,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F10" s="11">
         <v>0</v>
@@ -2692,34 +2717,34 @@
         <v>5</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
       <c r="L10" s="19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P10" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" s="83"/>
+        <v>73</v>
+      </c>
+      <c r="Q10" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="84"/>
       <c r="S10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:19">
@@ -2727,14 +2752,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F11" s="11">
         <v>2</v>
@@ -2743,34 +2768,34 @@
         <v>3</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J11" s="53"/>
       <c r="K11" s="53"/>
       <c r="L11" s="19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P11" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="83"/>
+        <v>73</v>
+      </c>
+      <c r="Q11" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="84"/>
       <c r="S11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:19">
@@ -2778,16 +2803,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F12" s="11">
         <v>4</v>
@@ -2796,34 +2821,34 @@
         <v>5</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
       <c r="L12" s="19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P12" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="R12" s="83"/>
+        <v>73</v>
+      </c>
+      <c r="Q12" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="84"/>
       <c r="S12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:19">
@@ -2831,16 +2856,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F13" s="11">
         <v>4</v>
@@ -2849,34 +2874,34 @@
         <v>5</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
       <c r="L13" s="19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P13" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="R13" s="83"/>
+        <v>73</v>
+      </c>
+      <c r="Q13" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="84"/>
       <c r="S13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:19">
@@ -2884,14 +2909,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F14" s="11">
         <v>3</v>
@@ -2900,34 +2925,34 @@
         <v>3</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I14" s="52" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J14" s="53"/>
       <c r="K14" s="53"/>
       <c r="L14" s="19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P14" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="R14" s="83"/>
+        <v>73</v>
+      </c>
+      <c r="Q14" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" s="84"/>
       <c r="S14" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:19">
@@ -2935,14 +2960,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F15" s="11">
         <v>0</v>
@@ -2951,36 +2976,36 @@
         <v>1</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J15" s="53"/>
       <c r="K15" s="53"/>
       <c r="L15" s="19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O15" s="57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:19">
@@ -2988,14 +3013,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F16" s="11">
         <v>0</v>
@@ -3004,36 +3029,36 @@
         <v>1</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
       <c r="L16" s="19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O16" s="57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:19">
@@ -3041,16 +3066,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F17" s="11">
         <v>4</v>
@@ -3059,34 +3084,34 @@
         <v>3</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J17" s="60"/>
       <c r="K17" s="60"/>
       <c r="L17" s="23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P17" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q17" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="R17" s="84"/>
+        <v>73</v>
+      </c>
+      <c r="Q17" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" s="85"/>
       <c r="S17" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:19">
@@ -3094,16 +3119,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F18" s="11">
         <v>4</v>
@@ -3112,34 +3137,34 @@
         <v>3</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J18" s="60"/>
       <c r="K18" s="60"/>
       <c r="L18" s="23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R18" s="23"/>
       <c r="S18" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:19">
@@ -3147,14 +3172,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
@@ -3163,38 +3188,38 @@
         <v>0</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I19" s="62" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J19" s="63">
         <v>1</v>
       </c>
       <c r="K19" s="64" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L19" s="63" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M19" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N19" s="63" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O19" s="63" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P19" s="63" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="R19" s="84"/>
+      <c r="S19" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="R19" s="83"/>
-      <c r="S19" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:19">
@@ -3202,16 +3227,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F20" s="11">
         <v>0</v>
@@ -3220,38 +3245,38 @@
         <v>0</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J20" s="63">
         <v>1</v>
       </c>
       <c r="K20" s="64" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L20" s="63" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M20" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N20" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q20" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="O20" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="P20" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="63" t="s">
+      <c r="R20" s="84"/>
+      <c r="S20" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="R20" s="83"/>
-      <c r="S20" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:19">
@@ -3259,16 +3284,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F21" s="11">
         <v>0</v>
@@ -3277,38 +3302,38 @@
         <v>0</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J21" s="63">
         <v>1</v>
       </c>
       <c r="K21" s="64" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L21" s="63" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M21" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N21" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="O21" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="P21" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q21" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="O21" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="P21" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q21" s="63" t="s">
+      <c r="R21" s="84"/>
+      <c r="S21" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="R21" s="83"/>
-      <c r="S21" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:19">
@@ -3316,14 +3341,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F22" s="11">
         <v>0</v>
@@ -3332,38 +3357,38 @@
         <v>0</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I22" s="62" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J22" s="63">
         <v>1</v>
       </c>
       <c r="K22" s="64" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M22" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N22" s="63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O22" s="63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P22" s="63" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="R22" s="84"/>
+      <c r="S22" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="R22" s="83"/>
-      <c r="S22" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:19">
@@ -3371,56 +3396,56 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E23" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="62" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="62" t="s">
-        <v>131</v>
       </c>
       <c r="J23" s="63">
         <v>1</v>
       </c>
       <c r="K23" s="64" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L23" s="63" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M23" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N23" s="63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O23" s="63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P23" s="63" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="R23" s="84"/>
+      <c r="S23" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="R23" s="83"/>
-      <c r="S23" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:19">
@@ -3428,16 +3453,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F24" s="11">
         <v>0</v>
@@ -3446,38 +3471,38 @@
         <v>0</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J24" s="63">
         <v>1</v>
       </c>
       <c r="K24" s="64" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L24" s="63" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M24" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N24" s="63" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O24" s="63" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P24" s="63" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="R24" s="84"/>
+      <c r="S24" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="R24" s="83"/>
-      <c r="S24" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:19">
@@ -3485,16 +3510,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F25" s="11">
         <v>0</v>
@@ -3503,38 +3528,38 @@
         <v>0</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J25" s="63">
         <v>1</v>
       </c>
       <c r="K25" s="64" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L25" s="63" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M25" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N25" s="63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O25" s="65" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P25" s="63" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="R25" s="84"/>
+      <c r="S25" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="R25" s="83"/>
-      <c r="S25" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:19">
@@ -3542,17 +3567,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D26" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>144</v>
-      </c>
       <c r="F26" s="11">
         <v>0</v>
       </c>
@@ -3560,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I26" s="66"/>
       <c r="J26" s="67">
@@ -3568,26 +3593,26 @@
       </c>
       <c r="K26" s="67"/>
       <c r="L26" s="63" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M26" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N26" s="63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O26" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P26" s="63" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="R26" s="84"/>
+      <c r="S26" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="R26" s="83"/>
-      <c r="S26" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:19">
@@ -3595,16 +3620,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F27" s="11">
         <v>0</v>
@@ -3613,38 +3638,38 @@
         <v>0</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I27" s="66" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J27" s="63">
         <v>1</v>
       </c>
       <c r="K27" s="64" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L27" s="63" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M27" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N27" s="63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O27" s="63" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P27" s="63" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q27" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="R27" s="84"/>
+      <c r="S27" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="R27" s="83"/>
-      <c r="S27" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:19">
@@ -3652,16 +3677,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F28" s="11">
         <v>0</v>
@@ -3670,38 +3695,38 @@
         <v>0</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I28" s="66" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J28" s="63">
         <v>1</v>
       </c>
       <c r="K28" s="64" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L28" s="63" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M28" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N28" s="63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O28" s="65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P28" s="63" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q28" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="R28" s="84"/>
+      <c r="S28" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="R28" s="83"/>
-      <c r="S28" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:19">
@@ -3709,14 +3734,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F29" s="11">
         <v>0</v>
@@ -3725,38 +3750,38 @@
         <v>0</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I29" s="68" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J29" s="69">
         <v>1</v>
       </c>
       <c r="K29" s="69"/>
       <c r="L29" s="70" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M29" s="70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N29" s="70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O29" s="70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P29" s="71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q29" s="71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R29" s="69" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:19">
@@ -3764,12 +3789,12 @@
         <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F30" s="11">
         <v>0</v>
@@ -3778,38 +3803,38 @@
         <v>0</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I30" s="68" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J30" s="69">
         <v>1</v>
       </c>
       <c r="K30" s="69"/>
       <c r="L30" s="70" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M30" s="70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N30" s="70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O30" s="70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P30" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q30" s="85" t="s">
         <v>29</v>
       </c>
+      <c r="Q30" s="86" t="s">
+        <v>30</v>
+      </c>
       <c r="R30" s="69" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:19">
@@ -3817,14 +3842,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="31" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F31" s="11">
         <v>0</v>
@@ -3833,38 +3858,38 @@
         <v>0</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I31" s="72" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J31" s="73">
         <v>1</v>
       </c>
       <c r="K31" s="73"/>
       <c r="L31" s="74" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M31" s="74" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N31" s="74" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O31" s="74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P31" s="75" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="R31" s="80" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="R31" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:19">
@@ -3872,14 +3897,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="31" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F32" s="11">
         <v>0</v>
@@ -3888,38 +3913,38 @@
         <v>0</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I32" s="72" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J32" s="73">
         <v>1</v>
       </c>
       <c r="K32" s="73"/>
       <c r="L32" s="74" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M32" s="74" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N32" s="74" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O32" s="74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P32" s="75" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q32" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="R32" s="80" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="R32" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:19">
@@ -3927,54 +3952,54 @@
         <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="26">
+        <v>0</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="72" t="s">
         <v>171</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="26">
-        <v>0</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="I33" s="72" t="s">
-        <v>168</v>
       </c>
       <c r="J33" s="73">
         <v>1</v>
       </c>
       <c r="K33" s="73"/>
       <c r="L33" s="74" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M33" s="74" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N33" s="74" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O33" s="74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P33" s="75" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="R33" s="80" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="R33" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:19">
@@ -3982,14 +4007,14 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F34" s="11">
         <v>0</v>
@@ -3998,38 +4023,38 @@
         <v>0</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I34" s="76" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M34" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N34" s="38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O34" s="38" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P34" s="38" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q34" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="R34" s="80" t="s">
-        <v>178</v>
+        <v>110</v>
+      </c>
+      <c r="R34" s="81" t="s">
+        <v>181</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:19">
@@ -4037,56 +4062,56 @@
         <v>34</v>
       </c>
       <c r="B35" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="26">
+        <v>0</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="I35" s="76" t="s">
         <v>179</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="26">
-        <v>0</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="I35" s="76" t="s">
-        <v>176</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M35" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N35" s="38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O35" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="P35" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q35" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="R35" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="P35" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q35" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="R35" s="80" t="s">
-        <v>178</v>
-      </c>
       <c r="S35" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:19">
@@ -4094,56 +4119,56 @@
         <v>35</v>
       </c>
       <c r="B36" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="26">
+        <v>0</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="I36" s="76" t="s">
         <v>179</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F36" s="11">
-        <v>0</v>
-      </c>
-      <c r="G36" s="26">
-        <v>0</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="I36" s="76" t="s">
-        <v>176</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M36" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N36" s="38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O36" s="38" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P36" s="38" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q36" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="R36" s="80" t="s">
-        <v>178</v>
+        <v>110</v>
+      </c>
+      <c r="R36" s="81" t="s">
+        <v>181</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:19">
@@ -4151,56 +4176,56 @@
         <v>36</v>
       </c>
       <c r="B37" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="26">
+        <v>0</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="I37" s="77" t="s">
         <v>179</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="26">
-        <v>0</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="I37" s="77" t="s">
-        <v>176</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N37" s="38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O37" s="38" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P37" s="38" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q37" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="R37" s="80" t="s">
-        <v>178</v>
+        <v>110</v>
+      </c>
+      <c r="R37" s="81" t="s">
+        <v>181</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="8:8">

--- a/src/extraResources/qcs项目目录.xlsx
+++ b/src/extraResources/qcs项目目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="191">
   <si>
     <t>ID</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>治疗床面横向转动轴</t>
+  </si>
+  <si>
+    <t>用角度尺或水平尺测量治疗床左右方向与水平面形成的角度。如下图轴8。</t>
+  </si>
+  <si>
+    <t>src\extraResources\project\6.6.3.02.png</t>
   </si>
   <si>
     <t>治疗床的刚度</t>
@@ -806,9 +812,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -839,8 +845,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -848,7 +868,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,30 +920,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,22 +937,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,46 +983,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1060,7 +1066,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,43 +1132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,19 +1150,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,49 +1198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,13 +1222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,6 +1357,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1365,35 +1386,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1413,6 +1412,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1427,17 +1444,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1446,10 +1452,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1458,137 +1464,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1832,6 +1838,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2175,7 +2184,7 @@
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="31" customHeight="1"/>
@@ -2381,7 +2390,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:20">
+    <row r="4" customHeight="1" spans="1:21">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2431,8 +2440,11 @@
       <c r="S4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="6">
-        <v>121221</v>
+      <c r="T4" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:19">
@@ -2440,14 +2452,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5" s="11">
         <v>0</v>
@@ -2467,10 +2479,10 @@
         <v>38</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O5" s="42" t="s">
         <v>41</v>
@@ -2481,8 +2493,8 @@
       <c r="Q5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="81" t="s">
-        <v>53</v>
+      <c r="R5" s="82" t="s">
+        <v>55</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>32</v>
@@ -2493,14 +2505,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6" s="11">
         <v>0</v>
@@ -2520,13 +2532,13 @@
         <v>38</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O6" s="42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P6" s="43" t="s">
         <v>42</v>
@@ -2534,8 +2546,8 @@
       <c r="Q6" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="81" t="s">
-        <v>53</v>
+      <c r="R6" s="82" t="s">
+        <v>55</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>32</v>
@@ -2546,7 +2558,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
@@ -2560,16 +2572,16 @@
         <v>2</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="47"/>
       <c r="K7" s="47"/>
       <c r="L7" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M7" s="48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N7" s="47" t="s">
         <v>40</v>
@@ -2584,7 +2596,7 @@
         <v>30</v>
       </c>
       <c r="R7" s="48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>32</v>
@@ -2595,14 +2607,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" s="11">
         <v>0</v>
@@ -2619,25 +2631,25 @@
       <c r="J8" s="51"/>
       <c r="K8" s="51"/>
       <c r="L8" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N8" s="47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O8" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="83" t="s">
         <v>55</v>
-      </c>
-      <c r="P8" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="82" t="s">
-        <v>53</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>32</v>
@@ -2648,14 +2660,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F9" s="11">
         <v>0</v>
@@ -2664,33 +2676,33 @@
         <v>1</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
       <c r="L9" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>39</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P9" s="54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R9" s="58" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>32</v>
@@ -2701,14 +2713,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F10" s="11">
         <v>0</v>
@@ -2717,32 +2729,32 @@
         <v>5</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
       <c r="L10" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>39</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P10" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="84"/>
+        <v>75</v>
+      </c>
+      <c r="Q10" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="85"/>
       <c r="S10" s="4" t="s">
         <v>32</v>
       </c>
@@ -2752,14 +2764,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F11" s="11">
         <v>2</v>
@@ -2768,32 +2780,32 @@
         <v>3</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J11" s="53"/>
       <c r="K11" s="53"/>
       <c r="L11" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>39</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P11" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="84"/>
+        <v>75</v>
+      </c>
+      <c r="Q11" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="85"/>
       <c r="S11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2803,16 +2815,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F12" s="11">
         <v>4</v>
@@ -2821,32 +2833,32 @@
         <v>5</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
       <c r="L12" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>39</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P12" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="84"/>
+        <v>75</v>
+      </c>
+      <c r="Q12" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="85"/>
       <c r="S12" s="4" t="s">
         <v>32</v>
       </c>
@@ -2856,16 +2868,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F13" s="11">
         <v>4</v>
@@ -2874,32 +2886,32 @@
         <v>5</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
       <c r="L13" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>39</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P13" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="R13" s="84"/>
+        <v>75</v>
+      </c>
+      <c r="Q13" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="85"/>
       <c r="S13" s="4" t="s">
         <v>32</v>
       </c>
@@ -2909,14 +2921,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="11">
         <v>3</v>
@@ -2925,32 +2937,32 @@
         <v>3</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I14" s="52" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J14" s="53"/>
       <c r="K14" s="53"/>
       <c r="L14" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>39</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P14" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="R14" s="84"/>
+        <v>75</v>
+      </c>
+      <c r="Q14" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="85"/>
       <c r="S14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2960,14 +2972,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F15" s="11">
         <v>0</v>
@@ -2976,24 +2988,24 @@
         <v>1</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J15" s="53"/>
       <c r="K15" s="53"/>
       <c r="L15" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>39</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O15" s="57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P15" s="19" t="s">
         <v>42</v>
@@ -3002,7 +3014,7 @@
         <v>43</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>32</v>
@@ -3013,14 +3025,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F16" s="11">
         <v>0</v>
@@ -3029,33 +3041,33 @@
         <v>1</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
       <c r="L16" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>39</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O16" s="57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>32</v>
@@ -3066,16 +3078,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="11">
         <v>4</v>
@@ -3084,32 +3096,32 @@
         <v>3</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J17" s="60"/>
       <c r="K17" s="60"/>
       <c r="L17" s="23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M17" s="23" t="s">
         <v>39</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P17" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="R17" s="85"/>
+        <v>75</v>
+      </c>
+      <c r="Q17" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="86"/>
       <c r="S17" s="4" t="s">
         <v>32</v>
       </c>
@@ -3119,16 +3131,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="11">
         <v>4</v>
@@ -3137,30 +3149,30 @@
         <v>3</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J18" s="60"/>
       <c r="K18" s="60"/>
       <c r="L18" s="23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M18" s="23" t="s">
         <v>39</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R18" s="23"/>
       <c r="S18" s="4" t="s">
@@ -3172,14 +3184,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
@@ -3188,38 +3200,38 @@
         <v>0</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I19" s="62" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J19" s="63">
         <v>1</v>
       </c>
       <c r="K19" s="64" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L19" s="63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M19" s="63" t="s">
         <v>39</v>
       </c>
       <c r="N19" s="63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O19" s="63" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P19" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="R19" s="85"/>
+      <c r="S19" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="Q19" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="R19" s="84"/>
-      <c r="S19" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:19">
@@ -3227,16 +3239,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F20" s="11">
         <v>0</v>
@@ -3245,38 +3257,38 @@
         <v>0</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J20" s="63">
         <v>1</v>
       </c>
       <c r="K20" s="64" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L20" s="63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M20" s="63" t="s">
         <v>39</v>
       </c>
       <c r="N20" s="63" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O20" s="63" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P20" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q20" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="R20" s="85"/>
+      <c r="S20" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="Q20" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="R20" s="84"/>
-      <c r="S20" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:19">
@@ -3284,16 +3296,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F21" s="11">
         <v>0</v>
@@ -3302,38 +3314,38 @@
         <v>0</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J21" s="63">
         <v>1</v>
       </c>
       <c r="K21" s="64" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L21" s="63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M21" s="63" t="s">
         <v>39</v>
       </c>
       <c r="N21" s="63" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O21" s="63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P21" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q21" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="R21" s="85"/>
+      <c r="S21" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="Q21" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="R21" s="84"/>
-      <c r="S21" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:19">
@@ -3341,14 +3353,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F22" s="11">
         <v>0</v>
@@ -3357,19 +3369,19 @@
         <v>0</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I22" s="62" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J22" s="63">
         <v>1</v>
       </c>
       <c r="K22" s="64" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M22" s="63" t="s">
         <v>39</v>
@@ -3381,14 +3393,14 @@
         <v>28</v>
       </c>
       <c r="P22" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="R22" s="85"/>
+      <c r="S22" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="Q22" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="R22" s="84"/>
-      <c r="S22" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:19">
@@ -3399,34 +3411,34 @@
         <v>33</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="62" t="s">
         <v>136</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" s="62" t="s">
-        <v>134</v>
       </c>
       <c r="J23" s="63">
         <v>1</v>
       </c>
       <c r="K23" s="64" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M23" s="63" t="s">
         <v>39</v>
@@ -3438,14 +3450,14 @@
         <v>41</v>
       </c>
       <c r="P23" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q23" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="R23" s="85"/>
+      <c r="S23" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="Q23" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="R23" s="84"/>
-      <c r="S23" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:19">
@@ -3453,16 +3465,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F24" s="11">
         <v>0</v>
@@ -3471,38 +3483,38 @@
         <v>0</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J24" s="63">
         <v>1</v>
       </c>
       <c r="K24" s="64" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L24" s="63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M24" s="63" t="s">
         <v>39</v>
       </c>
       <c r="N24" s="63" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O24" s="63" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P24" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q24" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="R24" s="85"/>
+      <c r="S24" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="Q24" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="R24" s="84"/>
-      <c r="S24" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:19">
@@ -3510,16 +3522,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F25" s="11">
         <v>0</v>
@@ -3528,19 +3540,19 @@
         <v>0</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J25" s="63">
         <v>1</v>
       </c>
       <c r="K25" s="64" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L25" s="63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M25" s="63" t="s">
         <v>39</v>
@@ -3549,17 +3561,17 @@
         <v>40</v>
       </c>
       <c r="O25" s="65" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P25" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q25" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="R25" s="85"/>
+      <c r="S25" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="Q25" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="R25" s="84"/>
-      <c r="S25" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:19">
@@ -3567,16 +3579,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F26" s="11">
         <v>0</v>
@@ -3585,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I26" s="66"/>
       <c r="J26" s="67">
@@ -3593,7 +3605,7 @@
       </c>
       <c r="K26" s="67"/>
       <c r="L26" s="63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M26" s="63" t="s">
         <v>39</v>
@@ -3602,17 +3614,17 @@
         <v>40</v>
       </c>
       <c r="O26" s="65" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P26" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q26" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="R26" s="85"/>
+      <c r="S26" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="Q26" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="R26" s="84"/>
-      <c r="S26" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:19">
@@ -3620,16 +3632,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F27" s="11">
         <v>0</v>
@@ -3638,19 +3650,19 @@
         <v>0</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I27" s="66" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J27" s="63">
         <v>1</v>
       </c>
       <c r="K27" s="64" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L27" s="63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M27" s="63" t="s">
         <v>39</v>
@@ -3659,17 +3671,17 @@
         <v>40</v>
       </c>
       <c r="O27" s="63" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P27" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q27" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="R27" s="85"/>
+      <c r="S27" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="Q27" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="R27" s="84"/>
-      <c r="S27" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:19">
@@ -3677,37 +3689,37 @@
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D28" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="G28" s="26">
+        <v>0</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="66" t="s">
         <v>156</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="11">
-        <v>0</v>
-      </c>
-      <c r="G28" s="26">
-        <v>0</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I28" s="66" t="s">
-        <v>154</v>
       </c>
       <c r="J28" s="63">
         <v>1</v>
       </c>
       <c r="K28" s="64" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L28" s="63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M28" s="63" t="s">
         <v>39</v>
@@ -3716,17 +3728,17 @@
         <v>40</v>
       </c>
       <c r="O28" s="65" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P28" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q28" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="R28" s="85"/>
+      <c r="S28" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="Q28" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="R28" s="84"/>
-      <c r="S28" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:19">
@@ -3738,10 +3750,10 @@
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F29" s="11">
         <v>0</v>
@@ -3750,17 +3762,17 @@
         <v>0</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I29" s="68" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J29" s="69">
         <v>1</v>
       </c>
       <c r="K29" s="69"/>
       <c r="L29" s="70" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M29" s="70" t="s">
         <v>26</v>
@@ -3778,10 +3790,10 @@
         <v>30</v>
       </c>
       <c r="R29" s="69" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:19">
@@ -3789,12 +3801,12 @@
         <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F30" s="11">
         <v>0</v>
@@ -3803,17 +3815,17 @@
         <v>0</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I30" s="68" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J30" s="69">
         <v>1</v>
       </c>
       <c r="K30" s="69"/>
       <c r="L30" s="70" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M30" s="70" t="s">
         <v>26</v>
@@ -3827,14 +3839,14 @@
       <c r="P30" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="Q30" s="86" t="s">
+      <c r="Q30" s="87" t="s">
         <v>30</v>
       </c>
       <c r="R30" s="69" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:19">
@@ -3842,14 +3854,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F31" s="11">
         <v>0</v>
@@ -3858,38 +3870,38 @@
         <v>0</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I31" s="72" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J31" s="73">
         <v>1</v>
       </c>
       <c r="K31" s="73"/>
       <c r="L31" s="74" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M31" s="74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N31" s="74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O31" s="74" t="s">
         <v>28</v>
       </c>
       <c r="P31" s="75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="R31" s="81" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="R31" s="82" t="s">
+        <v>55</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:19">
@@ -3897,54 +3909,54 @@
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E32" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="26">
+        <v>0</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" s="72" t="s">
         <v>173</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0</v>
-      </c>
-      <c r="G32" s="26">
-        <v>0</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="I32" s="72" t="s">
-        <v>171</v>
       </c>
       <c r="J32" s="73">
         <v>1</v>
       </c>
       <c r="K32" s="73"/>
       <c r="L32" s="74" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M32" s="74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N32" s="74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O32" s="74" t="s">
         <v>28</v>
       </c>
       <c r="P32" s="75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q32" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="R32" s="81" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="R32" s="82" t="s">
+        <v>55</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:19">
@@ -3952,14 +3964,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F33" s="11">
         <v>0</v>
@@ -3968,38 +3980,38 @@
         <v>0</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I33" s="72" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J33" s="73">
         <v>1</v>
       </c>
       <c r="K33" s="73"/>
       <c r="L33" s="74" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M33" s="74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N33" s="74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O33" s="74" t="s">
         <v>28</v>
       </c>
       <c r="P33" s="75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q33" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="R33" s="81" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="R33" s="82" t="s">
+        <v>55</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:19">
@@ -4007,14 +4019,14 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F34" s="11">
         <v>0</v>
@@ -4023,38 +4035,38 @@
         <v>0</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I34" s="76" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M34" s="38" t="s">
         <v>39</v>
       </c>
       <c r="N34" s="38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O34" s="38" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P34" s="38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q34" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="R34" s="81" t="s">
-        <v>181</v>
+        <v>112</v>
+      </c>
+      <c r="R34" s="82" t="s">
+        <v>183</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:19">
@@ -4062,16 +4074,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F35" s="11">
         <v>0</v>
@@ -4080,38 +4092,38 @@
         <v>0</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I35" s="76" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M35" s="38" t="s">
         <v>39</v>
       </c>
       <c r="N35" s="38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O35" s="38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P35" s="38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q35" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="R35" s="81" t="s">
-        <v>181</v>
+        <v>112</v>
+      </c>
+      <c r="R35" s="82" t="s">
+        <v>183</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:19">
@@ -4119,16 +4131,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F36" s="11">
         <v>0</v>
@@ -4137,38 +4149,38 @@
         <v>0</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I36" s="76" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M36" s="38" t="s">
         <v>39</v>
       </c>
       <c r="N36" s="38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O36" s="38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P36" s="38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q36" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="R36" s="81" t="s">
-        <v>181</v>
+        <v>112</v>
+      </c>
+      <c r="R36" s="82" t="s">
+        <v>183</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:19">
@@ -4176,16 +4188,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F37" s="11">
         <v>0</v>
@@ -4194,38 +4206,38 @@
         <v>0</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I37" s="77" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M37" s="38" t="s">
         <v>39</v>
       </c>
       <c r="N37" s="38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O37" s="38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P37" s="38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q37" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="R37" s="81" t="s">
-        <v>181</v>
+        <v>112</v>
+      </c>
+      <c r="R37" s="82" t="s">
+        <v>183</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="8:8">

--- a/src/extraResources/qcs项目目录.xlsx
+++ b/src/extraResources/qcs项目目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25185" windowHeight="12375"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="231">
   <si>
     <t>ID</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>WS674标准图片路径</t>
+  </si>
+  <si>
+    <t>输入值单位</t>
+  </si>
+  <si>
+    <t>输入备注</t>
   </si>
   <si>
     <t>等中心的指示（激光灯）</t>
@@ -133,6 +139,15 @@
     <t>数值分析</t>
   </si>
   <si>
+    <t xml:space="preserve">    找出装配在墙壁上和屋顶上光野指示器光束的交点，测量该点相对于6.5.1中所述（注：先机械校准后射野校准）参考指针所确定的等中心之间的偏移。                                                         对于安装在机架上的等中心指示器，在各组检测条件，测量指示点相对于参考指示针所确定的等中心点之间的偏移。</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>每个输入框中有个提示，将“请输入”分别改为“左水平，左竖直，体中线，右水平，右竖直”</t>
+  </si>
+  <si>
     <t>旋转运动标尺的零刻度位置</t>
   </si>
   <si>
@@ -175,6 +190,9 @@
     <t>src\extraResources\project\6.6.3.01.png</t>
   </si>
   <si>
+    <t>度</t>
+  </si>
+  <si>
     <t>治疗床面横向转动轴</t>
   </si>
   <si>
@@ -202,12 +220,18 @@
     <t>模体总重70kg，能平摊成2.0m，同床板宽</t>
   </si>
   <si>
+    <t>当70kg 负载均布在治疗床2m长度范围内，并且重心作用在等中心点时，在治疗床垂直升降的全部高度范围内：测量治疗床床面相对于水平面的侧向倾斜角度。</t>
+  </si>
+  <si>
     <t>横向（高度的变化）</t>
   </si>
   <si>
     <t>≤5 mm</t>
   </si>
   <si>
+    <t>当70kg 负载均布在治疗床2m长度范围内，并且重心作用在等中心点时，治疗床床面作最大横向位移时，治疗床床面在等中心附近的高度的变化。</t>
+  </si>
+  <si>
     <t>治疗床的等中心旋转</t>
   </si>
   <si>
@@ -223,6 +247,9 @@
     <t>能指示等中心位置，在EPID上呈现清晰的小点，总重为70kg</t>
   </si>
   <si>
+    <t>将 70 kg 负载置于治疗床面，在床面支撑起一个平面并使其处于等中心高度（注：模体表面位于等中心平面），同时使治疗床在其整个旋转范围内旋转并记录等中心点，在该平面的位置测出跟踪等中心点位置的曲线的最大偏差。</t>
+  </si>
+  <si>
     <t>纵向（高度的变化）</t>
   </si>
   <si>
@@ -233,6 +260,9 @@
   </si>
   <si>
     <t>简单模体</t>
+  </si>
+  <si>
+    <t>将机架角位调至 0°，床面处于等中心高度，将床面的一端置于光野中心。治疗床在 70 kg 负载承载情况（负载重心均作用于等中心点），分别测出床面缩回和伸出情况下床面上光野中心处的高度。</t>
   </si>
   <si>
     <t>剂量偏差</t>
@@ -286,6 +316,15 @@
     <t>在中轴线上，模体要能替代10cm及5cm水，能支持0.6cc电离室</t>
   </si>
   <si>
+    <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率（注：治疗时的剂量率），分别对 X 射线和电子线，在临床常用标称能量档等条件下（注：治疗用的能量），预置大约2Gy的吸收剂量（注：200MU）进行照射和测量。</t>
+  </si>
+  <si>
+    <t>Gy</t>
+  </si>
+  <si>
+    <t>输入框上方写“对应能量, 10cm*10cm”，左侧写“200MU”</t>
+  </si>
+  <si>
     <t>重复性（剂量）</t>
   </si>
   <si>
@@ -322,6 +361,12 @@
     <t>≤0.5%</t>
   </si>
   <si>
+    <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率（注：治疗时的剂量率），分别对 X 射线和电子线，在临床常用标称能量档等条件下（注：治疗用的能量），预置大约2Gy的吸收剂量（注：200MU），一般进行连续 5 次照射，记录每次测量的 Ri（注：剂量计读数），由系统计算变异系数。</t>
+  </si>
+  <si>
+    <t>输入框上方写“对应能量, 10cm*10cm,””，左侧写“200MU”</t>
+  </si>
+  <si>
     <t>日稳定性（剂量）</t>
   </si>
   <si>
@@ -355,6 +400,14 @@
     <t>≤2%</t>
   </si>
   <si>
+    <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率（治疗时的剂量率），使用 X 射线，在临床常用标称能量档等条件下，按以下检测程序进行检测：
+a: 每次以不低于 2 Gy 的吸收剂量照射后，按常规间停时间进行间停后再进行下次照射，按此方法至少照射 10 次以上；
+b: 当设备进入准备状态后，以大约 2 Gy 的吸收剂量照射 3 次，测得 3 个 D 值，计算出平均值 。 在即将结束时再次以大约 2 Gy 的吸收剂量照射 3 次，测量并计算得到其平均值。两次检测的时间间隔，应不小于 4 h。</t>
+  </si>
+  <si>
+    <t>输入框左侧一列为“50MU，100MU, 150MU, 200MU”上方写“对应能量, 10cm*10cm”</t>
+  </si>
+  <si>
     <t>线性</t>
   </si>
   <si>
@@ -391,10 +444,22 @@
     <t>验收</t>
   </si>
   <si>
+    <t>对于某一剂量率档，设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，分别对 X 射线和电子线，在临床常用标称能量档等条件下，在标称吸收剂量范围内，以近似相等的间隔选取4个不同吸收剂量预置值，进行 5 次辐照并测量。</t>
+  </si>
+  <si>
+    <t>输入框左侧一列为“20%，40%, 60%, 80%”上方写“对应能量, 10cm*10cm”</t>
+  </si>
+  <si>
     <t>剂量率</t>
   </si>
   <si>
     <t>6.1.3.3</t>
+  </si>
+  <si>
+    <t>对于某一（固定）剂量档，设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射 野大小为 10 cm×10 cm，分别对 X 射线和电子线，在临床常用标称能量档等条件下，在常用剂量率档，如果吸收剂量率是连续可调的，则从 20%到最大吸收剂量率的范围内取 4个不同的吸收剂 量率值，在不同吸收剂量率下进行 5 次辐照并测量。</t>
+  </si>
+  <si>
+    <t>输入框左侧一列为“0°，180°, 270°”上方写“对应能量，10cm*10cm, 200MU”</t>
   </si>
   <si>
     <t>随设备角度位置的变化（剂量）</t>
@@ -428,6 +493,12 @@
   </si>
   <si>
     <t>推荐</t>
+  </si>
+  <si>
+    <t>设置机架角度分别为 0°、180°和 270°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率，分别对 X 射线和电子线，在临床常用标称能量档等条件下，以 2 Gy 的吸收剂量照射，进行 3 次测量，确定其中最大值最小值，并求其平均值。</t>
+  </si>
+  <si>
+    <t>输入框左侧一列为“0°-45°，45°-90°，90°-135°，135°-180°”上方写“对应能量, 10cm*10cm”</t>
   </si>
   <si>
     <t>X射线深度吸收剂量特性</t>
@@ -485,6 +556,9 @@
     <t>能替代10cm及5cm水，能支持0.6cc电离室</t>
   </si>
   <si>
+    <t>设置机架角度分别为 0°、180°和 270°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率，在临床常用标称能量档等条件下，以 2 Gy 的吸收剂量照射，进行 3 次测量，确定其中最大值和最小值，并求其平均值</t>
+  </si>
+  <si>
     <t>电子线深度吸收剂量特性</t>
   </si>
   <si>
@@ -501,6 +575,12 @@
   </si>
   <si>
     <t>替代1.5cm、2cm、3cm的水，能支持0.6cc电离室</t>
+  </si>
+  <si>
+    <t>设置机架角度为 0°或 90°，限束系统为 0°，在正常治疗距离条件照射野大小为 10 cm×10 cm， 典型放射治疗条件的吸收剂量率，在临床常用标称能量档等条件下，将体模表面置于正常治疗距离处，用辐射探测器沿辐射束轴方向逐点测量剂量值，并转换成吸收剂量对深度的函数。</t>
+  </si>
+  <si>
+    <t>输入框左侧一列为“第一次，第二次”上方写“对应能量, 10cm*10cm”</t>
   </si>
   <si>
     <t>随机架旋转的变化（剂量）</t>
@@ -533,6 +613,21 @@
     </r>
   </si>
   <si>
+    <t>设置机架角度分别为 0°～90°和 90°～180°，限束系统为 0°，在正常治疗距离条件照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率，在临床常用标称能量档等条 件下，在机架旋转的整个范围内，选择 4 个不同的 45°扇区，对每个扇区进行 3 次测量，确定其中最大值和最小值，并求其平均值。</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>上方写“对应能量, 10cm*10cm，标准检测深度”</t>
+  </si>
+  <si>
+    <t>设置机架角度分别为 0°～90°和 90°～180°，限束系统为 0°，在正常治疗距离条件照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率，在临床常用标称能量档等条 件下，在机架旋转的整个范围内，选择 4 个不同的 45°扇区，对每个扇区进行 3 次测量，确定其中最大值和最小值，并求其平均值 D。</t>
+  </si>
+  <si>
+    <t>上方写“对应能量, 10cm*10cm”</t>
+  </si>
+  <si>
     <t>X射线方形照射野的对称性</t>
   </si>
   <si>
@@ -560,6 +655,9 @@
     <t>设计射野直接开发</t>
   </si>
   <si>
+    <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件照射野大小分别为 10 cm×10 cm 和临床常用照射野，典型放射治疗条件的吸收剂量率，分别在最大和最小标称能量档等条件下， 将辐射探测器置于体模内的标准检测深度为 10 cm 上（能量小于 6 MV 时可在 5 cm 上），并位于正常治疗距离处，沿照射野的两条主轴线方向连续或逐点测量。</t>
+  </si>
+  <si>
     <t>X射线方形照射野的均整度</t>
   </si>
   <si>
@@ -572,12 +670,18 @@
     <t>≤106%</t>
   </si>
   <si>
+    <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件照射野大小分别为 10 cm×10 cm 和临 床常用照射野，典型放射治疗条件的吸收剂量率，分别在最大和最小标称能量档等条件下， 将辐射探测器置于体模内的标准检测深度为 10 cm 上（能量小于 6 MV 时可在 5 cm 上），并位于正常治 疗距离处，沿照射野的两条主轴线方向连续或逐点测量。</t>
+  </si>
+  <si>
     <t>大于30 cm×30 cm</t>
   </si>
   <si>
     <t>≤110%</t>
   </si>
   <si>
+    <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件照射野大小分别为 10 cm×10 cm 和临 床常用照射野，典型放射治疗条件的吸收剂量率，分别在最大和最小标称能量档等条件下， 将辐射探测器置于体模内的标准检测深度为 10 cm 上（能量小于 6 MV 时可在 5 cm 上），并位于正常治疗距离处，沿照射野的两条主轴线方向连续或逐点测量。</t>
+  </si>
+  <si>
     <t>辐射束轴在患者入射表面上的位置指示</t>
   </si>
   <si>
@@ -593,6 +697,9 @@
     <t>10*10,10*10</t>
   </si>
   <si>
+    <t>设置机架角度为 0°，限束系统为 0°，使用 X 射线典型放射治疗条件的吸收剂量率条件下，将照射野的指示值固定在 20 cm×20 cm，分别从大于和小于 20 cm×20 cm 的位置交替六次设置 到 20 cm×20 cm，并按 6.4.1.3 的方法检测照射野尺寸之间的偏差以及照射野与光野之间的偏差。</t>
+  </si>
+  <si>
     <t>限束系统旋转轴</t>
   </si>
   <si>
@@ -602,6 +709,9 @@
     <t>不含模体的影像，分别分析两张图</t>
   </si>
   <si>
+    <t>在检测预置条件下，将限束系统角位置零。将一张半透明的纸置于包含机架轴线的垂直平面内，比较机架位于 90°和 270°角度时照射野边缘的角度。</t>
+  </si>
+  <si>
     <t>照射野的半影</t>
   </si>
   <si>
@@ -617,7 +727,7 @@
     <t>10*10</t>
   </si>
   <si>
-    <t>mm</t>
+    <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件照射野大小分别为 10 cm×10 cm 和最 大照射野，典型放射治疗条件的吸收剂量率，分别对 X 射线和电子线，分别在最大和最小标称能量档 等条件下，基于 6.3.1 和 6.3.2 测得的吸收剂量分布曲线，在标准检测深度上测出辐射束轴处吸收剂量 80%和 20%点之间的距离，该距离即为半影区的宽度。</t>
   </si>
   <si>
     <t>照射野的数字指示（单元限束）</t>
@@ -725,6 +835,21 @@
     <t>组合后的模体，0-90-270-180四向同性</t>
   </si>
   <si>
+    <t>设置机架角度分别为 0°、45°、135°和 270°（状态检测只测 0°），限束系统分别为 0°、90°、 180°和 270°（状态检测只测 0°），在正常治疗距离条件照射野大小为 10 cm×10 cm，使用常用标称 能量档 X 射线在典型放射治疗条件的吸收剂量率条件下，按以下方法进行检测：
+a) 等中心位置由一系列近似点决定；
+b) 如果设备没有与限束系统一起旋转的前指针，则须在限束系统上固定一个适当的指针完成这一 检测； 
+c) 当机架角位为 0°，并且前指针尖端位于正常治疗距离时，水平地放置一张坐标纸与前指针尖 端相接触； 
+d) 当限束系统全范围旋转时，调节前指针使其在限束系统的旋转中，具有最小位移； 
+e) 检查机架位于 0°、90°、180°、270°时的情况，以保证前指针尖端在限束系统的旋转中保持较 小位移； 
+f) 当机架角位为 0°、45°、135°、270°时，固定参考指针使其位于前指针尖端的平均位置处，移 走前指针； 
+g) 将慢感光胶片，放在与辐射束轴相垂直的位置； 
+h) 在参考指针与胶片之间放置一定厚度的体模材料以便产生足够的建成，使参考指针投影在胶片 上； 
+i) 以 10 cm×10 cm 的照射野，在机架位于 90°或者 270°时对一张胶片进行照射，机架位于 0°时对 另一张胶片照射，顺时针或逆时针旋转到位。同样地，机架位于 180°时也照射一张胶片，顺 时针或逆时针旋转到位（一共照射三张胶片）； 
+j) 用黑度计对胶片进行分析后，参考指针再调到确定辐射束轴的所有中心线交点的平均位置处， 该点即等中心点的近似位置；
+k) 参考指针的尖端确定进一步检测的参考点； 
+l) 分析胶片可得到辐射束轴与参考点间的最大偏移；</t>
+  </si>
+  <si>
     <t>治疗床的运动精度</t>
   </si>
   <si>
@@ -755,16 +880,25 @@
     </r>
   </si>
   <si>
+    <t>将慢感光胶片置于治疗床面，用建成材料覆盖其上。将 70 kg 负载均匀分布在床面上，重心作用在等中心点上。照射野调至 10 cm×10 cm，治疗床面调至近似于等中心高度时，对慢感光胶片进行照射。然后将床面降低 20 cm 并再次照射，测出两个照射野中心的位移。</t>
+  </si>
+  <si>
     <t>横向</t>
   </si>
   <si>
     <t>6.7.2</t>
   </si>
   <si>
+    <t>将慢感光胶片置于治疗床面，用建成材料覆盖其上。将 70 kg 负载均匀分布在床面上，重心作用在等中心点上。照射野调至 10 cm×10 cm，治疗床面调至近似于等中心高度时，对慢感光胶片进行照射。然后将床面横向移动 20 cm 并再次照射，测出两个照射野中心的位移。</t>
+  </si>
+  <si>
     <t>前后</t>
   </si>
   <si>
     <t>6.7.3</t>
+  </si>
+  <si>
+    <t>将慢感光胶片置于治疗床面，用建成材料覆盖其上。将 70 kg 负载均匀分布在床面上，重心作用在等中心点上。照射野调至 10 cm×10 cm，治疗床面调至近似于等中心高度时，对慢感光胶片进行照射。然后将床面前后移动 20 cm 并再次照射，测出两个照射野中心的位移。</t>
   </si>
   <si>
     <t>电子线照射野的对称性</t>
@@ -812,9 +946,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -845,22 +979,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -868,7 +988,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,7 +1003,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,63 +1077,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,13 +1102,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -983,7 +1110,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,7 +1200,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,13 +1266,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,13 +1314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,103 +1338,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,11 +1522,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1415,32 +1562,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1452,10 +1586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1464,137 +1598,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1616,6 +1750,9 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1830,8 +1967,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1845,6 +1992,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1857,8 +2007,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2179,12 +2338,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W$1:W$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="31" customHeight="1"/>
@@ -2206,2042 +2365,2252 @@
     <col min="17" max="17" width="9" style="4"/>
     <col min="18" max="18" width="23.5" style="4" customWidth="1"/>
     <col min="19" max="19" width="8.375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="14" style="6" customWidth="1"/>
+    <col min="20" max="20" width="18.8166666666667" style="6" customWidth="1"/>
     <col min="21" max="21" width="18.625" style="6" customWidth="1"/>
-    <col min="22" max="16378" width="10.625" style="6" customWidth="1"/>
-    <col min="16379" max="16384" width="10.625" style="6"/>
+    <col min="22" max="22" width="22.875" style="7" customWidth="1"/>
+    <col min="23" max="23" width="31" style="7" customWidth="1"/>
+    <col min="24" max="16379" width="10.625" style="6" customWidth="1"/>
+    <col min="16380" max="16384" width="10.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:23">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="39" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="39" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="79" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:20">
+    <row r="2" customHeight="1" spans="1:23">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="B2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42" t="s">
+      <c r="H2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="I2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="M2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="N2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="78" t="s">
+      <c r="O2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="P2" s="44" t="s">
         <v>31</v>
       </c>
+      <c r="Q2" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="42" t="s">
+        <v>33</v>
+      </c>
       <c r="S2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="6">
-        <v>122</v>
+        <v>34</v>
+      </c>
+      <c r="T2" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="82" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:21">
+    <row r="3" customHeight="1" spans="1:23">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="T3" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="12"/>
     </row>
-    <row r="4" customHeight="1" spans="1:21">
+    <row r="4" customHeight="1" spans="1:23">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="79"/>
+      <c r="Q4" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="83"/>
       <c r="S4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="T4" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="12"/>
     </row>
-    <row r="5" customHeight="1" spans="1:19">
+    <row r="5" customHeight="1" spans="1:23">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="B5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
         <v>1</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="W5" s="14"/>
     </row>
-    <row r="6" customHeight="1" spans="1:19">
+    <row r="6" customHeight="1" spans="1:23">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="V6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="W6" s="12"/>
     </row>
-    <row r="7" customHeight="1" spans="1:19">
+    <row r="7" customHeight="1" spans="1:23">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13">
+      <c r="B7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14">
         <v>6.9</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
         <v>2</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="49" t="s">
+      <c r="H7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="48" t="s">
-        <v>62</v>
+      <c r="P7" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="49" t="s">
+        <v>70</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="T7" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="87"/>
     </row>
-    <row r="8" customHeight="1" spans="1:19">
+    <row r="8" customHeight="1" spans="1:23">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q8" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" s="83" t="s">
-        <v>55</v>
+      <c r="P8" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="88" t="s">
+        <v>61</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="T8" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="W8" s="14"/>
     </row>
-    <row r="9" customHeight="1" spans="1:19">
+    <row r="9" customHeight="1" spans="1:23">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="B9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
         <v>1</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" s="58" t="s">
-        <v>77</v>
+      <c r="H9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="59" t="s">
+        <v>87</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="T9" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="V9" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="W9" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:19">
+    <row r="10" customHeight="1" spans="1:23">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
         <v>5</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="19" t="s">
+      <c r="H10" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="P10" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="R10" s="85"/>
+      <c r="M10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="90"/>
       <c r="S10" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="T10" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="V10" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="W10" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:19">
+    <row r="11" customHeight="1" spans="1:23">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
+      <c r="B11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2</v>
+      </c>
+      <c r="G11" s="17">
+        <v>3</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="16">
-        <v>3</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="Q11" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="P11" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="R11" s="85"/>
+      <c r="R11" s="90"/>
       <c r="S11" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="T11" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="V11" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="W11" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:19">
+    <row r="12" customHeight="1" spans="1:23">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4</v>
+      </c>
+      <c r="G12" s="17">
+        <v>5</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="90"/>
+      <c r="S12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="U12" s="81"/>
+      <c r="V12" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="11">
-        <v>4</v>
-      </c>
-      <c r="G12" s="16">
-        <v>5</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="P12" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12" s="85"/>
-      <c r="S12" s="4" t="s">
-        <v>32</v>
+      <c r="W12" s="18" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:19">
+    <row r="13" customHeight="1" spans="1:23">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="12">
+        <v>4</v>
+      </c>
+      <c r="G13" s="17">
+        <v>5</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" s="90"/>
+      <c r="S13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="V13" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="11">
-        <v>4</v>
-      </c>
-      <c r="G13" s="16">
-        <v>5</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="P13" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="R13" s="85"/>
-      <c r="S13" s="4" t="s">
-        <v>32</v>
+      <c r="W13" s="18" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:19">
+    <row r="14" customHeight="1" spans="1:23">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="B14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="12">
         <v>3</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="17">
         <v>3</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="R14" s="85"/>
+      <c r="H14" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="R14" s="90"/>
       <c r="S14" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="T14" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="V14" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14" s="23" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:19">
+    <row r="15" customHeight="1" spans="1:23">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="B15" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
         <v>1</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="19" t="s">
+      <c r="H15" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O15" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>107</v>
+      <c r="M15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="T15" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="V15" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="W15" s="23" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:19">
+    <row r="16" customHeight="1" spans="1:23">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="B16" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
         <v>1</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="19" t="s">
+      <c r="H16" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O16" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="R16" s="19" t="s">
-        <v>113</v>
+      <c r="M16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="O16" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="R16" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="T16" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:19">
+    <row r="17" customHeight="1" spans="1:23">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="B17" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="12">
         <v>4</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="22">
         <v>3</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="O17" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q17" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="R17" s="86"/>
+      <c r="H17" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="R17" s="91"/>
       <c r="S17" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="T17" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="U17" s="81"/>
+      <c r="V17" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="W17" s="17" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:19">
+    <row r="18" customHeight="1" spans="1:23">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="B18" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="12">
         <v>4</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="24">
         <v>3</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="O18" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="P18" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="R18" s="23"/>
+      <c r="H18" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="R18" s="24"/>
       <c r="S18" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="T18" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="V18" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="W18" s="17" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:19">
+    <row r="19" customHeight="1" spans="1:23">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="26">
-        <v>0</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="J19" s="63">
+      <c r="B19" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="27">
+        <v>0</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" s="64">
         <v>1</v>
       </c>
-      <c r="K19" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="P19" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q19" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="R19" s="85"/>
+      <c r="K19" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="P19" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q19" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="R19" s="90"/>
       <c r="S19" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="T19" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
     </row>
-    <row r="20" customHeight="1" spans="1:19">
+    <row r="20" customHeight="1" spans="1:23">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="26">
-        <v>0</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I20" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="J20" s="63">
+      <c r="B20" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="27">
+        <v>0</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" s="64">
         <v>1</v>
       </c>
-      <c r="K20" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="L20" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="O20" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q20" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="R20" s="85"/>
+      <c r="K20" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="P20" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q20" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="R20" s="90"/>
       <c r="S20" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="T20" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
     </row>
-    <row r="21" customHeight="1" spans="1:19">
+    <row r="21" customHeight="1" spans="1:23">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" s="63">
+      <c r="B21" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="27">
+        <v>0</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="64">
         <v>1</v>
       </c>
-      <c r="K21" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="L21" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="M21" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="O21" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="P21" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q21" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="R21" s="85"/>
+      <c r="K21" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="L21" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="M21" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="O21" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="P21" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q21" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="R21" s="90"/>
       <c r="S21" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="T21" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
     </row>
-    <row r="22" customHeight="1" spans="1:19">
+    <row r="22" customHeight="1" spans="1:23">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="J22" s="63">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="27">
+        <v>0</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" s="64">
         <v>1</v>
       </c>
-      <c r="K22" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="L22" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="M22" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q22" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="R22" s="85"/>
+      <c r="K22" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="M22" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="R22" s="90"/>
       <c r="S22" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="T22" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
     </row>
-    <row r="23" customHeight="1" spans="1:19">
+    <row r="23" customHeight="1" spans="1:23">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" s="63">
+      <c r="B23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="27">
+        <v>0</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23" s="64">
         <v>1</v>
       </c>
-      <c r="K23" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="M23" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="P23" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q23" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="R23" s="85"/>
+      <c r="K23" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="M23" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q23" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="R23" s="90"/>
       <c r="S23" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="T23" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
     </row>
-    <row r="24" customHeight="1" spans="1:19">
+    <row r="24" customHeight="1" spans="1:23">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="11">
-        <v>0</v>
-      </c>
-      <c r="G24" s="26">
-        <v>0</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I24" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="J24" s="63">
+      <c r="B24" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="27">
+        <v>0</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="64">
         <v>1</v>
       </c>
-      <c r="K24" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="L24" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="M24" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="O24" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="P24" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q24" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="R24" s="85"/>
+      <c r="K24" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="M24" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="O24" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="R24" s="90"/>
       <c r="S24" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="T24" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
     </row>
-    <row r="25" customHeight="1" spans="1:19">
+    <row r="25" customHeight="1" spans="1:23">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="26">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" s="63">
+      <c r="B25" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="27">
+        <v>0</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="I25" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" s="64">
         <v>1</v>
       </c>
-      <c r="K25" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="L25" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="M25" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="P25" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q25" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="R25" s="85"/>
+      <c r="K25" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="P25" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q25" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="R25" s="90"/>
       <c r="S25" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
     </row>
-    <row r="26" customHeight="1" spans="1:19">
+    <row r="26" customHeight="1" spans="1:23">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="11">
-        <v>0</v>
-      </c>
-      <c r="G26" s="26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="I26" s="66"/>
-      <c r="J26" s="67">
+      <c r="B26" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="27">
+        <v>0</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68">
         <v>1</v>
       </c>
-      <c r="K26" s="67"/>
-      <c r="L26" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="M26" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="O26" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="P26" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q26" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="R26" s="85"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="R26" s="90"/>
       <c r="S26" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
     </row>
-    <row r="27" customHeight="1" spans="1:19">
+    <row r="27" customHeight="1" spans="1:23">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" s="64">
+        <v>1</v>
+      </c>
+      <c r="K27" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="26">
-        <v>0</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="66" t="s">
+      <c r="M27" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="63">
-        <v>1</v>
-      </c>
-      <c r="K27" s="64" t="s">
+      <c r="Q27" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="L27" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="M27" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="O27" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="P27" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q27" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="R27" s="85"/>
+      <c r="R27" s="90"/>
       <c r="S27" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
     </row>
-    <row r="28" customHeight="1" spans="1:19">
+    <row r="28" customHeight="1" spans="1:23">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="27">
+        <v>0</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="J28" s="64">
+        <v>1</v>
+      </c>
+      <c r="K28" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="L28" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="11">
-        <v>0</v>
-      </c>
-      <c r="G28" s="26">
-        <v>0</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="66" t="s">
+      <c r="M28" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="J28" s="63">
-        <v>1</v>
-      </c>
-      <c r="K28" s="64" t="s">
+      <c r="Q28" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="L28" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="M28" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="O28" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="P28" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q28" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="R28" s="85"/>
+      <c r="R28" s="90"/>
       <c r="S28" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
     </row>
-    <row r="29" customHeight="1" spans="1:19">
+    <row r="29" customHeight="1" spans="1:23">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="26">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="I29" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="J29" s="69">
+      <c r="B29" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+      <c r="G29" s="27">
+        <v>0</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="I29" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="J29" s="70">
         <v>1</v>
       </c>
-      <c r="K29" s="69"/>
-      <c r="L29" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="M29" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="O29" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="P29" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q29" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="R29" s="69" t="s">
-        <v>164</v>
+      <c r="K29" s="70"/>
+      <c r="L29" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="M29" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" s="70" t="s">
+        <v>200</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
     </row>
-    <row r="30" customHeight="1" spans="1:19">
+    <row r="30" customHeight="1" spans="1:23">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0</v>
-      </c>
-      <c r="G30" s="26">
-        <v>0</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="I30" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="J30" s="69">
+      <c r="B30" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="27">
+        <v>0</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="I30" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="J30" s="70">
         <v>1</v>
       </c>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="M30" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="O30" s="70" t="s">
+      <c r="K30" s="70"/>
+      <c r="L30" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="M30" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="P30" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q30" s="87" t="s">
+      <c r="N30" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="R30" s="69" t="s">
-        <v>169</v>
+      <c r="P30" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" s="70" t="s">
+        <v>205</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="T30" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
     </row>
-    <row r="31" customHeight="1" spans="1:19">
+    <row r="31" customHeight="1" spans="1:23">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" s="11">
-        <v>0</v>
-      </c>
-      <c r="G31" s="26">
-        <v>0</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="I31" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="J31" s="73">
+      <c r="B31" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
+      <c r="G31" s="27">
+        <v>0</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I31" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="J31" s="74">
         <v>1</v>
       </c>
-      <c r="K31" s="73"/>
-      <c r="L31" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="M31" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="N31" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="O31" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="P31" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q31" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="R31" s="82" t="s">
-        <v>55</v>
+      <c r="K31" s="74"/>
+      <c r="L31" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="M31" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="O31" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q31" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="R31" s="86" t="s">
+        <v>61</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="T31" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
     </row>
-    <row r="32" customHeight="1" spans="1:19">
+    <row r="32" customHeight="1" spans="1:23">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0</v>
-      </c>
-      <c r="G32" s="26">
-        <v>0</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="I32" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="J32" s="73">
+      <c r="B32" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I32" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="J32" s="74">
         <v>1</v>
       </c>
-      <c r="K32" s="73"/>
-      <c r="L32" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="M32" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="N32" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="O32" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="P32" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q32" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="R32" s="82" t="s">
-        <v>55</v>
+      <c r="K32" s="74"/>
+      <c r="L32" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="M32" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="O32" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" s="86" t="s">
+        <v>61</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="T32" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
     </row>
-    <row r="33" customHeight="1" spans="1:19">
+    <row r="33" customHeight="1" spans="1:23">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="26">
-        <v>0</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="I33" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="J33" s="73">
+      <c r="B33" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
+      <c r="G33" s="27">
+        <v>0</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I33" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="J33" s="74">
         <v>1</v>
       </c>
-      <c r="K33" s="73"/>
-      <c r="L33" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="M33" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="O33" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="P33" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q33" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="R33" s="82" t="s">
-        <v>55</v>
+      <c r="K33" s="74"/>
+      <c r="L33" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="M33" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="O33" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q33" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="R33" s="86" t="s">
+        <v>61</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="T33" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
     </row>
-    <row r="34" customHeight="1" spans="1:19">
+    <row r="34" customHeight="1" spans="1:23">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0</v>
-      </c>
-      <c r="G34" s="26">
-        <v>0</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="I34" s="76" t="s">
-        <v>181</v>
+      <c r="B34" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+      <c r="G34" s="27">
+        <v>0</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" s="77" t="s">
+        <v>221</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="3"/>
-      <c r="L34" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="M34" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="O34" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="P34" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q34" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="R34" s="82" t="s">
-        <v>183</v>
+      <c r="L34" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="O34" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q34" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="R34" s="86" t="s">
+        <v>223</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
     </row>
-    <row r="35" customHeight="1" spans="1:19">
+    <row r="35" customHeight="1" spans="1:23">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="26">
-        <v>0</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="I35" s="76" t="s">
-        <v>181</v>
+      <c r="B35" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+      <c r="G35" s="27">
+        <v>0</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="I35" s="77" t="s">
+        <v>221</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="3"/>
-      <c r="L35" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="M35" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N35" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="O35" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="P35" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q35" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="R35" s="82" t="s">
-        <v>183</v>
+      <c r="L35" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q35" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="R35" s="86" t="s">
+        <v>223</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="V35" s="95"/>
+      <c r="W35" s="95"/>
     </row>
-    <row r="36" customHeight="1" spans="1:19">
+    <row r="36" customHeight="1" spans="1:23">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="11">
-        <v>0</v>
-      </c>
-      <c r="G36" s="26">
-        <v>0</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="I36" s="76" t="s">
-        <v>181</v>
+      <c r="B36" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="27">
+        <v>0</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="I36" s="77" t="s">
+        <v>221</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="3"/>
-      <c r="L36" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="M36" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N36" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="O36" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="P36" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q36" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="R36" s="82" t="s">
-        <v>183</v>
+      <c r="L36" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="O36" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q36" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="R36" s="86" t="s">
+        <v>223</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
     </row>
-    <row r="37" customHeight="1" spans="1:19">
+    <row r="37" customHeight="1" spans="1:23">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="26">
-        <v>0</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="I37" s="77" t="s">
-        <v>181</v>
+      <c r="B37" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="27">
+        <v>0</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="I37" s="78" t="s">
+        <v>221</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
       </c>
       <c r="K37" s="3"/>
-      <c r="L37" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="M37" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N37" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="O37" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="P37" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q37" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="R37" s="82" t="s">
-        <v>183</v>
+      <c r="L37" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="O37" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="P37" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q37" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="R37" s="86" t="s">
+        <v>223</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="V37" s="95"/>
+      <c r="W37" s="95"/>
     </row>
     <row r="38" customHeight="1" spans="8:8">
-      <c r="H38" s="38"/>
+      <c r="H38" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/extraResources/qcs项目目录.xlsx
+++ b/src/extraResources/qcs项目目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="247">
   <si>
     <t>ID</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>输入备注</t>
+  </si>
+  <si>
+    <t>输入框左侧提示</t>
+  </si>
+  <si>
+    <t>影像分析接口名字</t>
+  </si>
+  <si>
+    <t>RTPLAN文件</t>
+  </si>
+  <si>
+    <t>检测值单位</t>
   </si>
   <si>
     <t>等中心的指示（激光灯）</t>
@@ -193,6 +205,9 @@
     <t>度</t>
   </si>
   <si>
+    <t>°</t>
+  </si>
+  <si>
     <t>治疗床面横向转动轴</t>
   </si>
   <si>
@@ -325,6 +340,12 @@
     <t>输入框上方写“对应能量, 10cm*10cm”，左侧写“200MU”</t>
   </si>
   <si>
+    <t>200MU</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>重复性（剂量）</t>
   </si>
   <si>
@@ -405,7 +426,10 @@
 b: 当设备进入准备状态后，以大约 2 Gy 的吸收剂量照射 3 次，测得 3 个 D 值，计算出平均值 。 在即将结束时再次以大约 2 Gy 的吸收剂量照射 3 次，测量并计算得到其平均值。两次检测的时间间隔，应不小于 4 h。</t>
   </si>
   <si>
-    <t>输入框左侧一列为“50MU，100MU, 150MU, 200MU”上方写“对应能量, 10cm*10cm”</t>
+    <t>输入框左侧一列为“第一次，第二次”上方写“对应能量, 10cm*10cm”</t>
+  </si>
+  <si>
+    <t>第一次，第二次</t>
   </si>
   <si>
     <t>线性</t>
@@ -450,6 +474,9 @@
     <t>输入框左侧一列为“20%，40%, 60%, 80%”上方写“对应能量, 10cm*10cm”</t>
   </si>
   <si>
+    <t>20%，40%，60%，80%</t>
+  </si>
+  <si>
     <t>剂量率</t>
   </si>
   <si>
@@ -460,6 +487,9 @@
   </si>
   <si>
     <t>输入框左侧一列为“0°，180°, 270°”上方写“对应能量，10cm*10cm, 200MU”</t>
+  </si>
+  <si>
+    <t>0°，180°， 270°</t>
   </si>
   <si>
     <t>随设备角度位置的变化（剂量）</t>
@@ -498,7 +528,7 @@
     <t>设置机架角度分别为 0°、180°和 270°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率，分别对 X 射线和电子线，在临床常用标称能量档等条件下，以 2 Gy 的吸收剂量照射，进行 3 次测量，确定其中最大值最小值，并求其平均值。</t>
   </si>
   <si>
-    <t>输入框左侧一列为“0°-45°，45°-90°，90°-135°，135°-180°”上方写“对应能量, 10cm*10cm”</t>
+    <t>0°，180°，270°</t>
   </si>
   <si>
     <t>X射线深度吸收剂量特性</t>
@@ -559,6 +589,9 @@
     <t>设置机架角度分别为 0°、180°和 270°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率，在临床常用标称能量档等条件下，以 2 Gy 的吸收剂量照射，进行 3 次测量，确定其中最大值和最小值，并求其平均值</t>
   </si>
   <si>
+    <t>上方写“对应能量, 10cm*10cm，标准检测深度”</t>
+  </si>
+  <si>
     <t>电子线深度吸收剂量特性</t>
   </si>
   <si>
@@ -580,7 +613,7 @@
     <t>设置机架角度为 0°或 90°，限束系统为 0°，在正常治疗距离条件照射野大小为 10 cm×10 cm， 典型放射治疗条件的吸收剂量率，在临床常用标称能量档等条件下，将体模表面置于正常治疗距离处，用辐射探测器沿辐射束轴方向逐点测量剂量值，并转换成吸收剂量对深度的函数。</t>
   </si>
   <si>
-    <t>输入框左侧一列为“第一次，第二次”上方写“对应能量, 10cm*10cm”</t>
+    <t>上方写“对应能量, 10cm*10cm”</t>
   </si>
   <si>
     <t>随机架旋转的变化（剂量）</t>
@@ -616,16 +649,13 @@
     <t>设置机架角度分别为 0°～90°和 90°～180°，限束系统为 0°，在正常治疗距离条件照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率，在临床常用标称能量档等条 件下，在机架旋转的整个范围内，选择 4 个不同的 45°扇区，对每个扇区进行 3 次测量，确定其中最大值和最小值，并求其平均值。</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>上方写“对应能量, 10cm*10cm，标准检测深度”</t>
-  </si>
-  <si>
     <t>设置机架角度分别为 0°～90°和 90°～180°，限束系统为 0°，在正常治疗距离条件照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率，在临床常用标称能量档等条 件下，在机架旋转的整个范围内，选择 4 个不同的 45°扇区，对每个扇区进行 3 次测量，确定其中最大值和最小值，并求其平均值 D。</t>
   </si>
   <si>
-    <t>上方写“对应能量, 10cm*10cm”</t>
+    <t>输入框左侧一列为“0°-45°，45°-90°，90°-135°，135°-180°”上方写“对应能量, 10cm*10cm”</t>
+  </si>
+  <si>
+    <t>0°-45°，45°-90°，90°-135°，135°-180°</t>
   </si>
   <si>
     <t>X射线方形照射野的对称性</t>
@@ -658,6 +688,12 @@
     <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件照射野大小分别为 10 cm×10 cm 和临床常用照射野，典型放射治疗条件的吸收剂量率，分别在最大和最小标称能量档等条件下， 将辐射探测器置于体模内的标准检测深度为 10 cm 上（能量小于 6 MV 时可在 5 cm 上），并位于正常治疗距离处，沿照射野的两条主轴线方向连续或逐点测量。</t>
   </si>
   <si>
+    <t>get_symmetry</t>
+  </si>
+  <si>
+    <t>RP.2.16.840.1.113669.2.931128.451974557.20201201095105.425311.dcm</t>
+  </si>
+  <si>
     <t>X射线方形照射野的均整度</t>
   </si>
   <si>
@@ -673,6 +709,9 @@
     <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件照射野大小分别为 10 cm×10 cm 和临 床常用照射野，典型放射治疗条件的吸收剂量率，分别在最大和最小标称能量档等条件下， 将辐射探测器置于体模内的标准检测深度为 10 cm 上（能量小于 6 MV 时可在 5 cm 上），并位于正常治 疗距离处，沿照射野的两条主轴线方向连续或逐点测量。</t>
   </si>
   <si>
+    <t>get_flatness</t>
+  </si>
+  <si>
     <t>大于30 cm×30 cm</t>
   </si>
   <si>
@@ -730,6 +769,12 @@
     <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件照射野大小分别为 10 cm×10 cm 和最 大照射野，典型放射治疗条件的吸收剂量率，分别对 X 射线和电子线，分别在最大和最小标称能量档 等条件下，基于 6.3.1 和 6.3.2 测得的吸收剂量分布曲线，在标准检测深度上测出辐射束轴处吸收剂量 80%和 20%点之间的距离，该距离即为半影区的宽度。</t>
   </si>
   <si>
+    <t>get_penumbra</t>
+  </si>
+  <si>
+    <t>RP.2.16.840.1.113669.2.931128.451974557.20201201095149.699646.dcm</t>
+  </si>
+  <si>
     <t>照射野的数字指示（单元限束）</t>
   </si>
   <si>
@@ -743,6 +788,9 @@
   </si>
   <si>
     <t>≤3 mm</t>
+  </si>
+  <si>
+    <t>RP.2.16.840.1.113669.2.931128.451974557.20201201095218.513101.dcm</t>
   </si>
   <si>
     <t>大于20 cm×20 cm</t>
@@ -945,10 +993,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -973,6 +1021,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -980,7 +1034,37 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -988,7 +1072,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,29 +1115,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1039,7 +1139,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1047,38 +1147,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1087,7 +1163,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,34 +1175,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1158,6 +1206,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1165,12 +1219,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,7 +1248,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,13 +1308,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,7 +1332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,31 +1356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,7 +1380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,67 +1398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,6 +1415,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1395,21 +1458,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1506,6 +1554,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1523,23 +1586,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,26 +1626,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1586,10 +1634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1598,137 +1646,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1750,166 +1798,163 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1937,7 +1982,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1961,44 +2006,44 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2014,9 +2059,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2338,12 +2380,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W$1:W$1048576"/>
+      <selection pane="bottomLeft" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="31" customHeight="1"/>
@@ -2360,20 +2402,24 @@
     <col min="12" max="12" width="26.25" style="3" customWidth="1"/>
     <col min="13" max="13" width="19" style="3" customWidth="1"/>
     <col min="14" max="14" width="9" style="5"/>
-    <col min="15" max="15" width="17.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.7333333333333" style="4" customWidth="1"/>
     <col min="16" max="16" width="14.25" style="4" customWidth="1"/>
     <col min="17" max="17" width="9" style="4"/>
     <col min="18" max="18" width="23.5" style="4" customWidth="1"/>
     <col min="19" max="19" width="8.375" style="4" customWidth="1"/>
     <col min="20" max="20" width="18.8166666666667" style="6" customWidth="1"/>
-    <col min="21" max="21" width="18.625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="22.875" style="7" customWidth="1"/>
-    <col min="23" max="23" width="31" style="7" customWidth="1"/>
-    <col min="24" max="16379" width="10.625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="13.0833333333333" style="6" customWidth="1"/>
+    <col min="22" max="22" width="13.375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="31" style="3" customWidth="1"/>
+    <col min="24" max="24" width="16.7583333333333" style="3" customWidth="1"/>
+    <col min="25" max="25" width="14.55" style="3" customWidth="1"/>
+    <col min="26" max="26" width="31" style="3" customWidth="1"/>
+    <col min="27" max="27" width="14.1083333333333" style="7" customWidth="1"/>
+    <col min="28" max="16379" width="10.625" style="6" customWidth="1"/>
     <col min="16380" max="16384" width="10.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:23">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2398,34 +2444,34 @@
       <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="38" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="38" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="5" t="s">
@@ -2437,24 +2483,36 @@
       <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="79" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="79" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:23">
+    <row r="2" customHeight="1" spans="1:27">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F2" s="12">
         <v>0</v>
@@ -2463,60 +2521,66 @@
         <v>5</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="I2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="M2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="N2" s="42" t="s">
         <v>33</v>
       </c>
+      <c r="O2" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="S2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="81" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="T2" s="80" t="s">
+        <v>39</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="82" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="W2" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:23">
+    <row r="3" customHeight="1" spans="1:27">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F3" s="12">
         <v>0</v>
@@ -2525,61 +2589,67 @@
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="I3" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="80" t="s">
+      <c r="M3" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="83" t="s">
+      <c r="N3" s="42" t="s">
         <v>49</v>
       </c>
+      <c r="O3" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="82" t="s">
+        <v>53</v>
+      </c>
       <c r="S3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="81" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="T3" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="80" t="s">
+        <v>55</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:23">
+    <row r="4" customHeight="1" spans="1:27">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F4" s="12">
         <v>0</v>
@@ -2588,59 +2658,65 @@
         <v>1</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="I4" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="M4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="83"/>
+      <c r="N4" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="82"/>
       <c r="S4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="81" t="s">
-        <v>55</v>
+        <v>38</v>
+      </c>
+      <c r="T4" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="80" t="s">
+        <v>60</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:23">
+    <row r="5" customHeight="1" spans="1:27">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F5" s="12">
         <v>0</v>
@@ -2649,58 +2725,64 @@
         <v>1</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="86" t="s">
-        <v>61</v>
+      <c r="M5" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="85" t="s">
+        <v>66</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="81" t="s">
-        <v>62</v>
+        <v>38</v>
+      </c>
+      <c r="T5" s="80" t="s">
+        <v>67</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:23">
+    <row r="6" customHeight="1" spans="1:27">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="F6" s="12">
         <v>0</v>
@@ -2709,51 +2791,57 @@
         <v>1</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="86" t="s">
-        <v>61</v>
+      <c r="N6" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="85" t="s">
+        <v>66</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="81" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="T6" s="80" t="s">
+        <v>70</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:23">
+    <row r="7" customHeight="1" spans="1:27">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -2767,56 +2855,62 @@
         <v>2</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="49" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="48" t="s">
+        <v>75</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" s="81" t="s">
-        <v>71</v>
+        <v>38</v>
+      </c>
+      <c r="T7" s="80" t="s">
+        <v>76</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="87"/>
+        <v>56</v>
+      </c>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:23">
+    <row r="8" customHeight="1" spans="1:27">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F8" s="12">
         <v>0</v>
@@ -2825,1792 +2919,2034 @@
         <v>1</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="88" t="s">
-        <v>61</v>
+      <c r="N8" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="87" t="s">
+        <v>66</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="81" t="s">
-        <v>76</v>
+        <v>38</v>
+      </c>
+      <c r="T8" s="80" t="s">
+        <v>81</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" customHeight="1" spans="1:23">
+    <row r="9" customHeight="1" spans="1:27">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="F9" s="12">
         <v>0</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="P9" s="55" t="s">
+      <c r="H9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="I9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="19" t="s">
         <v>87</v>
       </c>
+      <c r="M9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="58" t="s">
+        <v>92</v>
+      </c>
       <c r="S9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="V9" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="W9" s="17" t="s">
-        <v>90</v>
+        <v>38</v>
+      </c>
+      <c r="T9" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:23">
+    <row r="10" customHeight="1" spans="1:27">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="7">
         <v>5</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="53" t="s">
+      <c r="H10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="89"/>
+      <c r="S10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="V10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="W10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q10" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="R10" s="90"/>
-      <c r="S10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T10" s="81" t="s">
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="V10" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>98</v>
-      </c>
     </row>
-    <row r="11" customHeight="1" spans="1:23">
+    <row r="11" customHeight="1" spans="1:27">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
-        <v>100</v>
+        <v>83</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F11" s="12">
         <v>2</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="7">
         <v>3</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="53" t="s">
+      <c r="H11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="P11" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q11" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="R11" s="90"/>
+      <c r="O11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" s="89"/>
       <c r="S11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T11" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="V11" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="W11" s="18" t="s">
-        <v>105</v>
+        <v>38</v>
+      </c>
+      <c r="T11" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:23">
+    <row r="12" customHeight="1" spans="1:27">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>108</v>
+        <v>83</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="F12" s="12">
         <v>4</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="7">
         <v>5</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="56" t="s">
+      <c r="H12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="P12" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="R12" s="90"/>
+      <c r="P12" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="R12" s="89"/>
       <c r="S12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T12" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="U12" s="81"/>
-      <c r="V12" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="W12" s="18" t="s">
-        <v>113</v>
+        <v>38</v>
+      </c>
+      <c r="T12" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="U12" s="80"/>
+      <c r="V12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:23">
+    <row r="13" customHeight="1" spans="1:27">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>115</v>
+        <v>83</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="F13" s="12">
         <v>4</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="7">
         <v>5</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="56" t="s">
+      <c r="H13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="P13" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="R13" s="90"/>
+      <c r="P13" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="R13" s="89"/>
       <c r="S13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T13" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="V13" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="W13" s="18" t="s">
-        <v>117</v>
+        <v>38</v>
+      </c>
+      <c r="T13" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W13" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="X13" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:23">
+    <row r="14" customHeight="1" spans="1:27">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
-        <v>119</v>
+        <v>83</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="F14" s="12">
         <v>3</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="7">
         <v>3</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="R14" s="90"/>
+      <c r="H14" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="R14" s="89"/>
       <c r="S14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T14" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="V14" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="W14" s="23" t="s">
-        <v>124</v>
+        <v>38</v>
+      </c>
+      <c r="T14" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W14" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="X14" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:23">
+    <row r="15" customHeight="1" spans="1:27">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20" t="s">
-        <v>127</v>
+      <c r="B15" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="F15" s="12">
         <v>0</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <v>1</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="O15" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q15" s="20" t="s">
+      <c r="H15" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R15" s="20" t="s">
-        <v>130</v>
+      <c r="N15" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T15" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="V15" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="W15" s="23" t="s">
-        <v>124</v>
+        <v>38</v>
+      </c>
+      <c r="T15" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="W15" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:23">
+    <row r="16" customHeight="1" spans="1:27">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20" t="s">
-        <v>134</v>
+      <c r="B16" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="F16" s="12">
         <v>0</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <v>1</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="O16" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q16" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="R16" s="20" t="s">
-        <v>137</v>
+      <c r="H16" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T16" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="V16" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="W16" s="18" t="s">
-        <v>139</v>
+        <v>38</v>
+      </c>
+      <c r="T16" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="W16" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:23">
+    <row r="17" customHeight="1" spans="1:27">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>141</v>
+      <c r="B17" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="F17" s="12">
         <v>4</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <v>3</v>
       </c>
-      <c r="H17" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O17" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="P17" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="R17" s="91"/>
+      <c r="H17" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="R17" s="90"/>
       <c r="S17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T17" s="81" t="s">
-        <v>144</v>
-      </c>
-      <c r="U17" s="81"/>
-      <c r="V17" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="W17" s="17" t="s">
-        <v>146</v>
+        <v>38</v>
+      </c>
+      <c r="T17" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="U17" s="80"/>
+      <c r="V17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:23">
+    <row r="18" customHeight="1" spans="1:27">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>141</v>
+      <c r="B18" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="F18" s="12">
         <v>4</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <v>3</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O18" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="P18" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q18" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="R18" s="24"/>
+      <c r="H18" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="R18" s="23"/>
       <c r="S18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T18" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>148</v>
+        <v>38</v>
+      </c>
+      <c r="T18" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:23">
+    <row r="19" customHeight="1" spans="1:27">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27" t="s">
-        <v>150</v>
+      <c r="B19" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26" t="s">
+        <v>160</v>
       </c>
       <c r="F19" s="12">
         <v>0</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="26">
         <v>0</v>
       </c>
-      <c r="H19" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="J19" s="64">
+      <c r="H19" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="63">
         <v>1</v>
       </c>
-      <c r="K19" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="L19" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="M19" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="O19" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="P19" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q19" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="R19" s="90"/>
+      <c r="K19" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="O19" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="P19" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q19" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="R19" s="89"/>
       <c r="S19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="T19" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="T19" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z19" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="20" customHeight="1" spans="1:23">
+    <row r="20" customHeight="1" spans="1:27">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="27" t="s">
+      <c r="B20" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>150</v>
       </c>
       <c r="F20" s="12">
         <v>0</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="26">
         <v>0</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I20" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="J20" s="64">
+      <c r="H20" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I20" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" s="63">
         <v>1</v>
       </c>
-      <c r="K20" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="L20" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="M20" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="O20" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="P20" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q20" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="R20" s="90"/>
+      <c r="K20" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="P20" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q20" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="R20" s="89"/>
       <c r="S20" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="T20" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="T20" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z20" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA20" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="21" customHeight="1" spans="1:23">
+    <row r="21" customHeight="1" spans="1:27">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>150</v>
+      <c r="B21" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>160</v>
       </c>
       <c r="F21" s="12">
         <v>0</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="26">
         <v>0</v>
       </c>
-      <c r="H21" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I21" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="J21" s="64">
+      <c r="H21" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" s="63">
         <v>1</v>
       </c>
-      <c r="K21" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="L21" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="M21" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="O21" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="P21" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q21" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="R21" s="90"/>
+      <c r="K21" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="P21" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q21" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="R21" s="89"/>
       <c r="S21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="T21" s="85" t="s">
-        <v>166</v>
-      </c>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
+        <v>164</v>
+      </c>
+      <c r="T21" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z21" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="22" customHeight="1" spans="1:23">
+    <row r="22" customHeight="1" spans="1:27">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27" t="s">
-        <v>168</v>
+      <c r="B22" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="F22" s="12">
         <v>0</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="26">
         <v>0</v>
       </c>
-      <c r="H22" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="I22" s="63" t="s">
+      <c r="H22" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" s="63">
+        <v>1</v>
+      </c>
+      <c r="K22" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M22" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q22" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="R22" s="89"/>
+      <c r="S22" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="T22" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="J22" s="64">
-        <v>1</v>
-      </c>
-      <c r="K22" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="L22" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="M22" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="O22" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q22" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="R22" s="90"/>
-      <c r="S22" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="T22" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
+      <c r="AA22" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="23" customHeight="1" spans="1:23">
+    <row r="23" customHeight="1" spans="1:27">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>174</v>
+      <c r="B23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>187</v>
       </c>
       <c r="F23" s="12">
         <v>0</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="26">
         <v>0</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="I23" s="63" t="s">
+      <c r="H23" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I23" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" s="63">
+        <v>1</v>
+      </c>
+      <c r="K23" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M23" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="R23" s="89"/>
+      <c r="S23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="T23" s="84" t="s">
+        <v>189</v>
+      </c>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="J23" s="64">
-        <v>1</v>
-      </c>
-      <c r="K23" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="L23" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="M23" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q23" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="R23" s="90"/>
-      <c r="S23" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="T23" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
+      <c r="AA23" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="24" customHeight="1" spans="1:23">
+    <row r="24" customHeight="1" spans="1:27">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>179</v>
+      <c r="B24" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="F24" s="12">
         <v>0</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="26">
         <v>0</v>
       </c>
-      <c r="H24" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="J24" s="64">
+      <c r="H24" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" s="63">
         <v>1</v>
       </c>
-      <c r="K24" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="L24" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="M24" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="O24" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q24" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="R24" s="90"/>
+      <c r="K24" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="O24" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="R24" s="89"/>
       <c r="S24" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="T24" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="T24" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z24" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA24" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="25" customHeight="1" spans="1:23">
+    <row r="25" customHeight="1" spans="1:27">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>185</v>
+      <c r="B25" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="F25" s="12">
         <v>0</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="26">
         <v>0</v>
       </c>
-      <c r="H25" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I25" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="J25" s="64">
+      <c r="H25" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" s="63">
         <v>1</v>
       </c>
-      <c r="K25" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="M25" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="N25" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="O25" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="P25" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q25" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="R25" s="90"/>
+      <c r="K25" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M25" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="P25" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q25" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="R25" s="89"/>
       <c r="S25" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA25" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="26" customHeight="1" spans="1:23">
+    <row r="26" customHeight="1" spans="1:27">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>185</v>
+      <c r="B26" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="F26" s="12">
         <v>0</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="26">
         <v>0</v>
       </c>
-      <c r="H26" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68">
+      <c r="H26" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" s="66"/>
+      <c r="J26" s="67">
         <v>1</v>
       </c>
-      <c r="K26" s="68"/>
-      <c r="L26" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="M26" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="O26" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="P26" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q26" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="R26" s="90"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q26" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="R26" s="89"/>
       <c r="S26" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA26" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="27" customHeight="1" spans="1:23">
+    <row r="27" customHeight="1" spans="1:27">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>185</v>
+      <c r="B27" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="F27" s="12">
         <v>0</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="26">
         <v>0</v>
       </c>
-      <c r="H27" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I27" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="J27" s="64">
+      <c r="H27" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" s="63">
         <v>1</v>
       </c>
-      <c r="K27" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="L27" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="M27" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="O27" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="P27" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q27" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="R27" s="90"/>
+      <c r="K27" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M27" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="P27" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q27" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="R27" s="89"/>
       <c r="S27" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="28" customHeight="1" spans="1:23">
+    <row r="28" customHeight="1" spans="1:27">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>185</v>
+      <c r="B28" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="F28" s="12">
         <v>0</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="26">
         <v>0</v>
       </c>
-      <c r="H28" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="J28" s="64">
+      <c r="H28" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" s="63">
         <v>1</v>
       </c>
-      <c r="K28" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="L28" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="M28" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="O28" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="P28" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q28" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="R28" s="90"/>
+      <c r="K28" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M28" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q28" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="R28" s="89"/>
       <c r="S28" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
+        <v>164</v>
+      </c>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA28" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="29" customHeight="1" spans="1:23">
+    <row r="29" customHeight="1" spans="1:27">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>196</v>
+      <c r="B29" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="F29" s="12">
         <v>0</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="26">
         <v>0</v>
       </c>
-      <c r="H29" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="I29" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="J29" s="70">
+      <c r="H29" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" s="69">
         <v>1</v>
       </c>
-      <c r="K29" s="70"/>
-      <c r="L29" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="M29" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="O29" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="P29" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q29" s="72" t="s">
+      <c r="K29" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="L29" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="M29" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="R29" s="70" t="s">
-        <v>200</v>
+      <c r="N29" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="P29" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" s="69" t="s">
+        <v>216</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
+        <v>164</v>
+      </c>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="30" customHeight="1" spans="1:23">
+    <row r="30" customHeight="1" spans="1:27">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30" t="s">
-        <v>202</v>
+      <c r="B30" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29" t="s">
+        <v>218</v>
       </c>
       <c r="F30" s="12">
         <v>0</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="26">
         <v>0</v>
       </c>
-      <c r="H30" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="I30" s="69" t="s">
-        <v>203</v>
-      </c>
-      <c r="J30" s="70">
+      <c r="H30" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="J30" s="69">
         <v>1</v>
       </c>
-      <c r="K30" s="70"/>
-      <c r="L30" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="M30" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="N30" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="O30" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="P30" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q30" s="93" t="s">
+      <c r="K30" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="L30" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="R30" s="70" t="s">
-        <v>205</v>
+      <c r="N30" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="O30" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" s="69" t="s">
+        <v>221</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="T30" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
+        <v>164</v>
+      </c>
+      <c r="T30" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="31" customHeight="1" spans="1:23">
+    <row r="31" customHeight="1" spans="1:27">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>209</v>
+      <c r="B31" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>225</v>
       </c>
       <c r="F31" s="12">
         <v>0</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="26">
         <v>0</v>
       </c>
-      <c r="H31" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="I31" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="J31" s="74">
+      <c r="H31" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="I31" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" s="73">
         <v>1</v>
       </c>
-      <c r="K31" s="74"/>
-      <c r="L31" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="M31" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="N31" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="O31" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="P31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q31" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="R31" s="86" t="s">
-        <v>61</v>
+      <c r="K31" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="L31" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="M31" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="O31" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q31" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="R31" s="85" t="s">
+        <v>66</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="T31" s="81" t="s">
-        <v>211</v>
-      </c>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
+        <v>164</v>
+      </c>
+      <c r="T31" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="32" customHeight="1" spans="1:23">
+    <row r="32" customHeight="1" spans="1:27">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>213</v>
+      <c r="B32" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="F32" s="12">
         <v>0</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="26">
         <v>0</v>
       </c>
-      <c r="H32" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="I32" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="J32" s="74">
+      <c r="H32" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="J32" s="73">
         <v>1</v>
       </c>
-      <c r="K32" s="74"/>
-      <c r="L32" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="M32" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="N32" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="O32" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="P32" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q32" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="R32" s="86" t="s">
-        <v>61</v>
+      <c r="K32" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="L32" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="M32" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="N32" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="O32" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q32" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="R32" s="85" t="s">
+        <v>66</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="T32" s="81" t="s">
-        <v>214</v>
-      </c>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
+        <v>164</v>
+      </c>
+      <c r="T32" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="33" customHeight="1" spans="1:23">
+    <row r="33" customHeight="1" spans="1:27">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>216</v>
+      <c r="B33" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>232</v>
       </c>
       <c r="F33" s="12">
         <v>0</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="26">
         <v>0</v>
       </c>
-      <c r="H33" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="I33" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="J33" s="74">
+      <c r="H33" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="I33" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="J33" s="73">
         <v>1</v>
       </c>
-      <c r="K33" s="74"/>
-      <c r="L33" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="M33" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="N33" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="O33" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="P33" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q33" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="R33" s="86" t="s">
-        <v>61</v>
+      <c r="K33" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="L33" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="M33" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="N33" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="O33" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q33" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="R33" s="85" t="s">
+        <v>66</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="T33" s="85" t="s">
-        <v>217</v>
-      </c>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
+        <v>164</v>
+      </c>
+      <c r="T33" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="34" customHeight="1" spans="1:23">
+    <row r="34" customHeight="1" spans="1:27">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34" t="s">
-        <v>219</v>
+      <c r="B34" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33" t="s">
+        <v>235</v>
       </c>
       <c r="F34" s="12">
         <v>0</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="26">
         <v>0</v>
       </c>
-      <c r="H34" s="35" t="s">
-        <v>220</v>
+      <c r="H34" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="I34" s="77" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="M34" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="O34" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="P34" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q34" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="R34" s="86" t="s">
-        <v>223</v>
+      <c r="K34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L34" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="M34" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="O34" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="P34" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q34" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="R34" s="85" t="s">
+        <v>239</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
+        <v>164</v>
+      </c>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="35" customHeight="1" spans="1:23">
+    <row r="35" customHeight="1" spans="1:27">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>219</v>
+      <c r="B35" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>235</v>
       </c>
       <c r="F35" s="12">
         <v>0</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="26">
         <v>0</v>
       </c>
-      <c r="H35" s="35" t="s">
-        <v>220</v>
+      <c r="H35" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="I35" s="77" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="M35" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="N35" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="O35" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="P35" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q35" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="R35" s="86" t="s">
-        <v>223</v>
+      <c r="K35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L35" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="M35" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="N35" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="O35" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="P35" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q35" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="R35" s="85" t="s">
+        <v>239</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="V35" s="95"/>
-      <c r="W35" s="95"/>
+        <v>164</v>
+      </c>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="36" customHeight="1" spans="1:23">
+    <row r="36" customHeight="1" spans="1:27">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>219</v>
+      <c r="B36" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>235</v>
       </c>
       <c r="F36" s="12">
         <v>0</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="26">
         <v>0</v>
       </c>
-      <c r="H36" s="35" t="s">
-        <v>220</v>
+      <c r="H36" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="I36" s="77" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="M36" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="O36" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="P36" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q36" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="R36" s="86" t="s">
-        <v>223</v>
+      <c r="K36" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L36" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="M36" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="N36" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="O36" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="P36" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q36" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="R36" s="85" t="s">
+        <v>239</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
+        <v>164</v>
+      </c>
+      <c r="V36" s="93"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="37" customHeight="1" spans="1:23">
+    <row r="37" customHeight="1" spans="1:27">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>219</v>
+      <c r="B37" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>235</v>
       </c>
       <c r="F37" s="12">
         <v>0</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="26">
         <v>0</v>
       </c>
-      <c r="H37" s="38" t="s">
-        <v>220</v>
+      <c r="H37" s="37" t="s">
+        <v>236</v>
       </c>
       <c r="I37" s="78" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
       </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="M37" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="O37" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="P37" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q37" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="R37" s="86" t="s">
-        <v>223</v>
+      <c r="K37" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L37" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="M37" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="N37" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="O37" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="P37" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q37" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="R37" s="85" t="s">
+        <v>239</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
+        <v>164</v>
+      </c>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" customHeight="1" spans="8:8">
-      <c r="H38" s="39"/>
+      <c r="H38" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/extraResources/qcs项目目录.xlsx
+++ b/src/extraResources/qcs项目目录.xlsx
@@ -474,22 +474,22 @@
     <t>输入框左侧一列为“20%，40%, 60%, 80%”上方写“对应能量, 10cm*10cm”</t>
   </si>
   <si>
+    <t>50MU，100MU，150MU，200MU</t>
+  </si>
+  <si>
+    <t>剂量率</t>
+  </si>
+  <si>
+    <t>6.1.3.3</t>
+  </si>
+  <si>
+    <t>对于某一（固定）剂量档，设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射 野大小为 10 cm×10 cm，分别对 X 射线和电子线，在临床常用标称能量档等条件下，在常用剂量率档，如果吸收剂量率是连续可调的，则从 20%到最大吸收剂量率的范围内取 4个不同的吸收剂 量率值，在不同吸收剂量率下进行 5 次辐照并测量。</t>
+  </si>
+  <si>
+    <t>输入框左侧一列为“0°，180°, 270°”上方写“对应能量，10cm*10cm, 200MU”</t>
+  </si>
+  <si>
     <t>20%，40%，60%，80%</t>
-  </si>
-  <si>
-    <t>剂量率</t>
-  </si>
-  <si>
-    <t>6.1.3.3</t>
-  </si>
-  <si>
-    <t>对于某一（固定）剂量档，设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射 野大小为 10 cm×10 cm，分别对 X 射线和电子线，在临床常用标称能量档等条件下，在常用剂量率档，如果吸收剂量率是连续可调的，则从 20%到最大吸收剂量率的范围内取 4个不同的吸收剂 量率值，在不同吸收剂量率下进行 5 次辐照并测量。</t>
-  </si>
-  <si>
-    <t>输入框左侧一列为“0°，180°, 270°”上方写“对应能量，10cm*10cm, 200MU”</t>
-  </si>
-  <si>
-    <t>0°，180°， 270°</t>
   </si>
   <si>
     <t>随设备角度位置的变化（剂量）</t>
@@ -649,13 +649,13 @@
     <t>设置机架角度分别为 0°～90°和 90°～180°，限束系统为 0°，在正常治疗距离条件照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率，在临床常用标称能量档等条 件下，在机架旋转的整个范围内，选择 4 个不同的 45°扇区，对每个扇区进行 3 次测量，确定其中最大值和最小值，并求其平均值。</t>
   </si>
   <si>
+    <t>0°-45°，45°-90°，90°-135°，135°-180°</t>
+  </si>
+  <si>
     <t>设置机架角度分别为 0°～90°和 90°～180°，限束系统为 0°，在正常治疗距离条件照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率，在临床常用标称能量档等条 件下，在机架旋转的整个范围内，选择 4 个不同的 45°扇区，对每个扇区进行 3 次测量，确定其中最大值和最小值，并求其平均值 D。</t>
   </si>
   <si>
     <t>输入框左侧一列为“0°-45°，45°-90°，90°-135°，135°-180°”上方写“对应能量, 10cm*10cm”</t>
-  </si>
-  <si>
-    <t>0°-45°，45°-90°，90°-135°，135°-180°</t>
   </si>
   <si>
     <t>X射线方形照射野的对称性</t>
@@ -993,10 +993,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1033,24 +1033,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,7 +1055,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1079,37 +1086,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,6 +1100,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1130,16 +1123,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1154,16 +1154,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,7 +1163,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1248,13 +1248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,37 +1266,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,7 +1302,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,19 +1380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,55 +1398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,6 +1529,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1549,21 +1564,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1601,17 +1601,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1626,6 +1615,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1634,10 +1634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1646,133 +1646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2382,10 +2382,10 @@
   <sheetPr/>
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AA11" sqref="AA11"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="31" customHeight="1"/>
@@ -3578,7 +3578,7 @@
         <v>126</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
@@ -3639,16 +3639,16 @@
         <v>38</v>
       </c>
       <c r="T18" s="80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>94</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>

--- a/src/extraResources/qcs项目目录.xlsx
+++ b/src/extraResources/qcs项目目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="251">
   <si>
     <t>ID</t>
   </si>
@@ -790,6 +790,10 @@
     <t>≤3 mm</t>
   </si>
   <si>
+    <t>设置机架角度为0°，限束系统为0°，使用X射线典型放射治疗条件的吸收剂量率条件下，对应于机架角位0°，使用电子射野影像装置（EPID）检测。使用数字野指示分别确定10cm×10cm与20cm×20cm的X射线照射野，沿两个主轴对辐射束测出吸收剂量等于辐射束轴上吸收剂量的50%的点的位置。
+对于多元限束装置（多叶光栅，MLC），使用数字野指示确定10cm×40cm的照射野，使用电子射野影像装置（EPID）分别拍摄枪侧及靶侧的照射野影像，沿每对限束装置中心轴测出吸收剂量等于辐射束轴上吸收剂量的50%的点的位置距离。</t>
+  </si>
+  <si>
     <t>RP.2.16.840.1.113669.2.931128.451974557.20201201095218.513101.dcm</t>
   </si>
   <si>
@@ -797,6 +801,9 @@
   </si>
   <si>
     <t>不测</t>
+  </si>
+  <si>
+    <t>在相应的检测预置条件下，将机架旋转，轴1刻度置于零位，从等中心处向地面悬挂一铅锤，并在地面上放置慢感光胶片。在胶片上标注处铅锤的中心，使用小X射线照射野对胶片进行照射。根据标注的铅锤中心和照射野中心之间的距离，计算架角度的误差。</t>
   </si>
   <si>
     <t>照射野的数字指示（多元限束）</t>
@@ -967,6 +974,302 @@
     <t>要能插入自显影胶片，同时替代1.5cm、2cm、3cm的水，能支持0.6cc电离室</t>
   </si>
   <si>
+    <r>
+      <t>设置机架角度为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>90°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，限束系统为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，在正常治疗距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SSD=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条件照射野大小为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10 cm×10 cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，典型放射治疗条件的吸收剂量率，分别在最大和最小标称能量档等条件下，使用辐射探测器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EBT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胶片）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和体模，在标准检测深度为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10 cm×10 cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>照射野时所规定的穿透性值的一半处和基准检测深度处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（注：最大剂量点深度处）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沿照射野的两条主轴和对角线方向上连续或逐点检测。根据相对剂量的分布曲线，参照附</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图的方法计算给出的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的值（均整度），按照式（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）计算出每组检测条件下的对称性。</t>
+    </r>
+  </si>
+  <si>
+    <t>src\extraResources\project\6.3.2.png</t>
+  </si>
+  <si>
     <t>电子线照射野的均整度</t>
   </si>
   <si>
@@ -994,11 +1297,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,16 +1330,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1048,23 +1352,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1085,6 +1373,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1100,11 +1396,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1124,7 +1436,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1138,32 +1458,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,6 +1468,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,6 +1491,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1248,31 +1557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,19 +1581,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,97 +1701,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,21 +1838,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1583,24 +1877,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1616,6 +1892,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1626,6 +1926,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1634,10 +1943,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1646,130 +1955,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2028,35 +2337,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2383,9 +2693,9 @@
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="31" customHeight="1"/>
@@ -2620,7 +2930,7 @@
       <c r="S3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="83" t="s">
+      <c r="T3" s="80" t="s">
         <v>54</v>
       </c>
       <c r="U3" s="80" t="s">
@@ -2687,7 +2997,7 @@
       <c r="S4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="84" t="s">
+      <c r="T4" s="80" t="s">
         <v>59</v>
       </c>
       <c r="U4" s="80" t="s">
@@ -2750,7 +3060,7 @@
       <c r="Q5" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="85" t="s">
+      <c r="R5" s="83" t="s">
         <v>66</v>
       </c>
       <c r="S5" s="4" t="s">
@@ -2816,7 +3126,7 @@
       <c r="Q6" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="85" t="s">
+      <c r="R6" s="83" t="s">
         <v>66</v>
       </c>
       <c r="S6" s="4" t="s">
@@ -2890,10 +3200,10 @@
       <c r="V7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
       <c r="AA7" s="7" t="s">
         <v>40</v>
       </c>
@@ -2944,7 +3254,7 @@
       <c r="Q8" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="R8" s="87" t="s">
+      <c r="R8" s="85" t="s">
         <v>66</v>
       </c>
       <c r="S8" s="4" t="s">
@@ -3077,10 +3387,10 @@
       <c r="P10" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="Q10" s="88" t="s">
+      <c r="Q10" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="R10" s="89"/>
+      <c r="R10" s="87"/>
       <c r="S10" s="4" t="s">
         <v>38</v>
       </c>
@@ -3145,10 +3455,10 @@
       <c r="P11" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" s="88" t="s">
+      <c r="Q11" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="R11" s="89"/>
+      <c r="R11" s="87"/>
       <c r="S11" s="4" t="s">
         <v>38</v>
       </c>
@@ -3215,10 +3525,10 @@
       <c r="P12" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="Q12" s="88" t="s">
+      <c r="Q12" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="R12" s="89"/>
+      <c r="R12" s="87"/>
       <c r="S12" s="4" t="s">
         <v>38</v>
       </c>
@@ -3286,10 +3596,10 @@
       <c r="P13" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="Q13" s="88" t="s">
+      <c r="Q13" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="R13" s="89"/>
+      <c r="R13" s="87"/>
       <c r="S13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3354,10 +3664,10 @@
       <c r="P14" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="Q14" s="88" t="s">
+      <c r="Q14" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="R14" s="89"/>
+      <c r="R14" s="87"/>
       <c r="S14" s="4" t="s">
         <v>38</v>
       </c>
@@ -3560,10 +3870,10 @@
       <c r="P17" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" s="90" t="s">
+      <c r="Q17" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="R17" s="90"/>
+      <c r="R17" s="88"/>
       <c r="S17" s="4" t="s">
         <v>38</v>
       </c>
@@ -3706,11 +4016,11 @@
       <c r="Q19" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="R19" s="89"/>
+      <c r="R19" s="87"/>
       <c r="S19" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="T19" s="84" t="s">
+      <c r="T19" s="80" t="s">
         <v>168</v>
       </c>
       <c r="V19" s="26"/>
@@ -3778,7 +4088,7 @@
       <c r="Q20" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="R20" s="89"/>
+      <c r="R20" s="87"/>
       <c r="S20" s="4" t="s">
         <v>164</v>
       </c>
@@ -3850,20 +4160,20 @@
       <c r="Q21" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="R21" s="89"/>
+      <c r="R21" s="87"/>
       <c r="S21" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="T21" s="84" t="s">
+      <c r="T21" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="91" t="s">
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="Z21" s="91" t="s">
+      <c r="Z21" s="89" t="s">
         <v>170</v>
       </c>
       <c r="AA21" s="7" t="s">
@@ -3920,11 +4230,11 @@
       <c r="Q22" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="R22" s="89"/>
+      <c r="R22" s="87"/>
       <c r="S22" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="T22" s="84" t="s">
+      <c r="T22" s="80" t="s">
         <v>185</v>
       </c>
       <c r="V22" s="26"/>
@@ -3990,11 +4300,11 @@
       <c r="Q23" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="R23" s="89"/>
+      <c r="R23" s="87"/>
       <c r="S23" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="T23" s="84" t="s">
+      <c r="T23" s="80" t="s">
         <v>189</v>
       </c>
       <c r="V23" s="26"/>
@@ -4060,11 +4370,11 @@
       <c r="Q24" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="R24" s="89"/>
+      <c r="R24" s="87"/>
       <c r="S24" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="T24" s="84" t="s">
+      <c r="T24" s="80" t="s">
         <v>195</v>
       </c>
       <c r="V24" s="26"/>
@@ -4132,16 +4442,19 @@
       <c r="Q25" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="R25" s="89"/>
+      <c r="R25" s="87"/>
       <c r="S25" s="4" t="s">
         <v>164</v>
+      </c>
+      <c r="T25" s="90" t="s">
+        <v>203</v>
       </c>
       <c r="V25" s="26"/>
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>40</v>
@@ -4158,7 +4471,7 @@
         <v>144</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>200</v>
@@ -4170,9 +4483,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="I26" s="66"/>
+        <v>206</v>
+      </c>
+      <c r="I26" s="66" t="s">
+        <v>207</v>
+      </c>
       <c r="J26" s="67">
         <v>1</v>
       </c>
@@ -4195,16 +4510,19 @@
       <c r="Q26" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="R26" s="89"/>
+      <c r="R26" s="87"/>
       <c r="S26" s="4" t="s">
         <v>164</v>
+      </c>
+      <c r="T26" s="90" t="s">
+        <v>203</v>
       </c>
       <c r="V26" s="26"/>
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
       <c r="Z26" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA26" s="7" t="s">
         <v>40</v>
@@ -4215,13 +4533,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>200</v>
@@ -4236,13 +4554,13 @@
         <v>161</v>
       </c>
       <c r="I27" s="66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J27" s="63">
         <v>1</v>
       </c>
       <c r="K27" s="64" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L27" s="63" t="s">
         <v>164</v>
@@ -4262,9 +4580,12 @@
       <c r="Q27" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="R27" s="89"/>
+      <c r="R27" s="87"/>
       <c r="S27" s="4" t="s">
         <v>164</v>
+      </c>
+      <c r="T27" s="90" t="s">
+        <v>203</v>
       </c>
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
@@ -4282,13 +4603,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>200</v>
@@ -4303,13 +4624,13 @@
         <v>188</v>
       </c>
       <c r="I28" s="66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J28" s="63">
         <v>1</v>
       </c>
       <c r="K28" s="64" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L28" s="63" t="s">
         <v>164</v>
@@ -4329,16 +4650,19 @@
       <c r="Q28" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="R28" s="89"/>
+      <c r="R28" s="87"/>
       <c r="S28" s="4" t="s">
         <v>164</v>
+      </c>
+      <c r="T28" s="90" t="s">
+        <v>203</v>
       </c>
       <c r="V28" s="26"/>
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="26"/>
       <c r="Z28" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA28" s="7" t="s">
         <v>40</v>
@@ -4353,10 +4677,10 @@
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F29" s="12">
         <v>0</v>
@@ -4365,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I29" s="68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J29" s="69">
         <v>1</v>
@@ -4377,7 +4701,7 @@
         <v>194</v>
       </c>
       <c r="L29" s="70" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M29" s="70" t="s">
         <v>32</v>
@@ -4395,7 +4719,7 @@
         <v>36</v>
       </c>
       <c r="R29" s="69" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="S29" s="4" t="s">
         <v>164</v>
@@ -4414,12 +4738,12 @@
         <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F30" s="12">
         <v>0</v>
@@ -4428,10 +4752,10 @@
         <v>0</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I30" s="68" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J30" s="69">
         <v>1</v>
@@ -4440,7 +4764,7 @@
         <v>194</v>
       </c>
       <c r="L30" s="70" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M30" s="70" t="s">
         <v>32</v>
@@ -4454,17 +4778,17 @@
       <c r="P30" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="Q30" s="92" t="s">
+      <c r="Q30" s="91" t="s">
         <v>36</v>
       </c>
       <c r="R30" s="69" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>164</v>
       </c>
       <c r="T30" s="80" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="V30" s="29"/>
       <c r="W30" s="29"/>
@@ -4480,14 +4804,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F31" s="12">
         <v>0</v>
@@ -4496,10 +4820,10 @@
         <v>0</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I31" s="72" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J31" s="73">
         <v>1</v>
@@ -4525,14 +4849,14 @@
       <c r="Q31" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="R31" s="85" t="s">
+      <c r="R31" s="83" t="s">
         <v>66</v>
       </c>
       <c r="S31" s="4" t="s">
         <v>164</v>
       </c>
       <c r="T31" s="80" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="V31" s="31"/>
       <c r="W31" s="31"/>
@@ -4548,14 +4872,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="31" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F32" s="12">
         <v>0</v>
@@ -4564,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I32" s="76" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J32" s="73">
         <v>1</v>
@@ -4593,14 +4917,14 @@
       <c r="Q32" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="R32" s="85" t="s">
+      <c r="R32" s="83" t="s">
         <v>66</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>164</v>
       </c>
       <c r="T32" s="80" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="V32" s="31"/>
       <c r="W32" s="31"/>
@@ -4616,14 +4940,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F33" s="12">
         <v>0</v>
@@ -4632,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I33" s="72" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J33" s="73">
         <v>1</v>
@@ -4661,14 +4985,14 @@
       <c r="Q33" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="R33" s="85" t="s">
+      <c r="R33" s="83" t="s">
         <v>66</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="T33" s="84" t="s">
-        <v>233</v>
+      <c r="T33" s="80" t="s">
+        <v>235</v>
       </c>
       <c r="V33" s="31"/>
       <c r="W33" s="31"/>
@@ -4684,14 +5008,14 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>144</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F34" s="12">
         <v>0</v>
@@ -4700,10 +5024,10 @@
         <v>0</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I34" s="77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
@@ -4721,7 +5045,7 @@
         <v>173</v>
       </c>
       <c r="O34" s="38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P34" s="38" t="s">
         <v>146</v>
@@ -4729,11 +5053,17 @@
       <c r="Q34" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="R34" s="85" t="s">
-        <v>239</v>
+      <c r="R34" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>164</v>
+      </c>
+      <c r="T34" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="U34" s="80" t="s">
+        <v>243</v>
       </c>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -4749,16 +5079,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>144</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F35" s="12">
         <v>0</v>
@@ -4767,10 +5097,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I35" s="77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
@@ -4788,7 +5118,7 @@
         <v>173</v>
       </c>
       <c r="O35" s="38" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P35" s="38" t="s">
         <v>146</v>
@@ -4796,11 +5126,17 @@
       <c r="Q35" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="R35" s="85" t="s">
-        <v>239</v>
+      <c r="R35" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="S35" s="4" t="s">
         <v>164</v>
+      </c>
+      <c r="T35" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="U35" s="80" t="s">
+        <v>243</v>
       </c>
       <c r="V35" s="33"/>
       <c r="W35" s="33"/>
@@ -4816,16 +5152,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>144</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F36" s="12">
         <v>0</v>
@@ -4834,10 +5170,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I36" s="77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
@@ -4855,7 +5191,7 @@
         <v>173</v>
       </c>
       <c r="O36" s="38" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P36" s="38" t="s">
         <v>146</v>
@@ -4863,11 +5199,17 @@
       <c r="Q36" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="R36" s="85" t="s">
-        <v>239</v>
+      <c r="R36" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="S36" s="4" t="s">
         <v>164</v>
+      </c>
+      <c r="T36" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="U36" s="80" t="s">
+        <v>243</v>
       </c>
       <c r="V36" s="93"/>
       <c r="W36" s="93"/>
@@ -4883,16 +5225,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C37" s="35" t="s">
         <v>144</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F37" s="12">
         <v>0</v>
@@ -4901,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I37" s="78" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
@@ -4922,7 +5264,7 @@
         <v>173</v>
       </c>
       <c r="O37" s="38" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P37" s="38" t="s">
         <v>146</v>
@@ -4930,11 +5272,17 @@
       <c r="Q37" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="R37" s="85" t="s">
-        <v>239</v>
+      <c r="R37" s="83" t="s">
+        <v>241</v>
       </c>
       <c r="S37" s="4" t="s">
         <v>164</v>
+      </c>
+      <c r="T37" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="U37" s="80" t="s">
+        <v>243</v>
       </c>
       <c r="V37" s="33"/>
       <c r="W37" s="33"/>

--- a/src/extraResources/qcs项目目录.xlsx
+++ b/src/extraResources/qcs项目目录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="252">
   <si>
     <t>ID</t>
   </si>
@@ -111,6 +111,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要计算矢量位移，</t>
@@ -121,6 +122,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要显示直观的输入界面</t>
@@ -297,6 +299,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要设置</t>
@@ -307,6 +310,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>并显示测量条件及标准对应值2Gy</t>
@@ -360,6 +364,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要统计输入值的数量，并代入公式，</t>
@@ -370,6 +375,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要显示测量条件</t>
@@ -402,6 +408,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要统计出每个检查点上的平均输入值，并代入公式，</t>
@@ -412,6 +419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要显示测量条件及标准对应值2Gy</t>
@@ -449,6 +457,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要统计每个检测点下输入值的数量，并代入公式，</t>
@@ -459,6 +468,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要显示每个检查点对应的剂量或者剂量率</t>
@@ -506,6 +516,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要统计每个检查点下的检测值的最大最小值平均值并代入公式，</t>
@@ -516,6 +527,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要显示测量条件及标准对应值2Gy</t>
@@ -548,6 +560,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要将输入值直接与</t>
@@ -558,6 +571,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>设置值</t>
@@ -567,6 +581,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>运算比较，</t>
@@ -577,6 +592,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要显示测量条件</t>
@@ -630,6 +646,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要统计每个检查点下的检测值的最大最小值平均值并代入公式，</t>
@@ -640,6 +657,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需要设计为每台加速器及TPS个性化RT_plan文件，需要显示测量条件</t>
@@ -688,13 +706,7 @@
     <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件照射野大小分别为 10 cm×10 cm 和临床常用照射野，典型放射治疗条件的吸收剂量率，分别在最大和最小标称能量档等条件下， 将辐射探测器置于体模内的标准检测深度为 10 cm 上（能量小于 6 MV 时可在 5 cm 上），并位于正常治疗距离处，沿照射野的两条主轴线方向连续或逐点测量。</t>
   </si>
   <si>
-    <t>get_symmetry</t>
-  </si>
-  <si>
     <t>RP.2.16.840.1.113669.2.931128.451974557.20201201095105.425311.dcm</t>
-  </si>
-  <si>
-    <t>X射线方形照射野的均整度</t>
   </si>
   <si>
     <t>5 cm×5 cm ~30 cm×30 cm</t>
@@ -815,9 +827,6 @@
     <t>单个能量，首选X线检测能量，两张图10*40（MLC）</t>
   </si>
   <si>
-    <t>10*40,10*40</t>
-  </si>
-  <si>
     <t>最大照射野</t>
   </si>
   <si>
@@ -835,6 +844,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>单个能量，首选X线检测能量，单张图10*10，</t>
@@ -845,6 +855,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>提示拍片条件</t>
@@ -868,6 +879,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>单个能量，首选X线检测能量，分析3张图10*10，</t>
@@ -878,6 +890,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>提示拍片条件，尤其机架角的设置</t>
@@ -919,6 +932,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>单个能量，首选X线检测能量，两张图10*10比较，</t>
@@ -929,6 +943,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>提示第二次拍片前移动床，提示加模体负重</t>
@@ -982,17 +997,249 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 0°</t>
+      <t xml:space="preserve">或 </t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>90°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">，限束系统为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，在正常治疗距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SSD=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条件照射野大小为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10 cm×10 cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，典型放射治疗条件的吸收剂量率，分别在最大和最小标称能量档等条件下，使用辐射探测器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>EBT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胶片）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和体模，在标准检测深度为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10 cm×10 cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>照射野时所规定的穿透性值的一半处和基准检测深度处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（注：最大剂量点深度处）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沿照射野的两条主轴和对角线方向上连续或逐点检测。根据相对剂量的分布曲线，参照附</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图的方法计算给出的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">或 </t>
     </r>
     <r>
@@ -1000,308 +1247,118 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>90°</t>
+      <t xml:space="preserve">或 </t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">，限束系统为 </t>
+      <t>的值（均整度），按照式（</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>0°</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t>）计算出每组检测条件下的对称性。</t>
+    </r>
+  </si>
+  <si>
+    <t>src\extraResources\project\6.3.2.png</t>
+  </si>
+  <si>
+    <t>电子线照射野的均整度</t>
+  </si>
+  <si>
+    <t>沿两主轴方向上80%等剂量线</t>
+  </si>
+  <si>
+    <t>≤15 mm</t>
+  </si>
+  <si>
+    <t>沿两主轴方向上90%等剂量线</t>
+  </si>
+  <si>
+    <t>≤10 mm</t>
+  </si>
+  <si>
+    <t>两对角线上90%等剂量线</t>
+  </si>
+  <si>
+    <t>≤20 mm</t>
+  </si>
+  <si>
+    <t>X射线方形照射野的均整度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>，在正常治疗距离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（注：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SSD=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>条件照射野大小为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 10 cm×10 cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，典型放射治疗条件的吸收剂量率，分别在最大和最小标称能量档等条件下，使用辐射探测器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（注：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EBT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>胶片）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和体模，在标准检测深度为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 10 cm×10 cm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>照射野时所规定的穿透性值的一半处和基准检测深度处</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（注：最大剂量点深度处）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>沿照射野的两条主轴和对角线方向上连续或逐点检测。根据相对剂量的分布曲线，参照附</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图的方法计算给出的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">或 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">B </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">或 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">C </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的值（均整度），按照式（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）计算出每组检测条件下的对称性。</t>
-    </r>
-  </si>
-  <si>
-    <t>src\extraResources\project\6.3.2.png</t>
-  </si>
-  <si>
-    <t>电子线照射野的均整度</t>
-  </si>
-  <si>
-    <t>沿两主轴方向上80%等剂量线</t>
-  </si>
-  <si>
-    <t>≤15 mm</t>
-  </si>
-  <si>
-    <t>沿两主轴方向上90%等剂量线</t>
-  </si>
-  <si>
-    <t>≤10 mm</t>
-  </si>
-  <si>
-    <t>两对角线上90%等剂量线</t>
-  </si>
-  <si>
-    <t>≤20 mm</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*20,10*20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*10,10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1314,6 +1371,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1321,169 +1379,29 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1491,16 +1409,32 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1515,7 +1449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,7 +1467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,180 +1479,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1837,255 +1609,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2371,58 +1901,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2684,21 +2173,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="31" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="3" customWidth="1"/>
@@ -2712,24 +2200,24 @@
     <col min="12" max="12" width="26.25" style="3" customWidth="1"/>
     <col min="13" max="13" width="19" style="3" customWidth="1"/>
     <col min="14" max="14" width="9" style="5"/>
-    <col min="15" max="15" width="10.7333333333333" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.75" style="4" customWidth="1"/>
     <col min="16" max="16" width="14.25" style="4" customWidth="1"/>
     <col min="17" max="17" width="9" style="4"/>
     <col min="18" max="18" width="23.5" style="4" customWidth="1"/>
     <col min="19" max="19" width="8.375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="18.8166666666667" style="6" customWidth="1"/>
-    <col min="21" max="21" width="13.0833333333333" style="6" customWidth="1"/>
+    <col min="20" max="20" width="18.875" style="6" customWidth="1"/>
+    <col min="21" max="21" width="13.125" style="6" customWidth="1"/>
     <col min="22" max="22" width="13.375" style="3" customWidth="1"/>
     <col min="23" max="23" width="31" style="3" customWidth="1"/>
-    <col min="24" max="24" width="16.7583333333333" style="3" customWidth="1"/>
-    <col min="25" max="25" width="14.55" style="3" customWidth="1"/>
+    <col min="24" max="24" width="16.75" style="3" customWidth="1"/>
+    <col min="25" max="25" width="14.5" style="3" customWidth="1"/>
     <col min="26" max="26" width="31" style="3" customWidth="1"/>
-    <col min="27" max="27" width="14.1083333333333" style="7" customWidth="1"/>
+    <col min="27" max="27" width="14.125" style="7" customWidth="1"/>
     <col min="28" max="16379" width="10.625" style="6" customWidth="1"/>
     <col min="16380" max="16384" width="10.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:27">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +2300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:27">
+    <row r="2" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2878,7 +2366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:27">
+    <row r="3" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2947,7 +2435,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:27">
+    <row r="4" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3014,7 +2502,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:27">
+    <row r="5" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3080,7 +2568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:27">
+    <row r="6" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3146,7 +2634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:27">
+    <row r="7" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3208,7 +2696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:27">
+    <row r="8" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3274,7 +2762,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:27">
+    <row r="9" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3344,7 +2832,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:27">
+    <row r="10" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3412,7 +2900,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:27">
+    <row r="11" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3480,7 +2968,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:27">
+    <row r="12" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3551,7 +3039,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:27">
+    <row r="13" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3621,7 +3109,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:27">
+    <row r="14" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3689,7 +3177,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:27">
+    <row r="15" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3757,7 +3245,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:27">
+    <row r="16" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3825,7 +3313,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:27">
+    <row r="17" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3896,7 +3384,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:27">
+    <row r="18" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3966,7 +3454,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:27">
+    <row r="19" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4026,28 +3514,26 @@
       <c r="V19" s="26"/>
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
-      <c r="Y19" s="26" t="s">
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26" t="s">
         <v>169</v>
-      </c>
-      <c r="Z19" s="26" t="s">
-        <v>170</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:27">
+    <row r="20" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>160</v>
@@ -4077,10 +3563,10 @@
         <v>48</v>
       </c>
       <c r="N20" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O20" s="63" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P20" s="63" t="s">
         <v>166</v>
@@ -4093,33 +3579,31 @@
         <v>164</v>
       </c>
       <c r="T20" s="80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V20" s="26"/>
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
-      <c r="Y20" s="26" t="s">
-        <v>176</v>
-      </c>
+      <c r="Y20" s="26"/>
       <c r="Z20" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA20" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:27">
+    <row r="21" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>160</v>
@@ -4149,10 +3633,10 @@
         <v>48</v>
       </c>
       <c r="N21" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O21" s="63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P21" s="63" t="s">
         <v>166</v>
@@ -4165,52 +3649,52 @@
         <v>164</v>
       </c>
       <c r="T21" s="80" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V21" s="89"/>
       <c r="W21" s="89"/>
       <c r="X21" s="89"/>
       <c r="Y21" s="89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Z21" s="89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:27">
+    <row r="22" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" s="62" t="s">
         <v>181</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="I22" s="62" t="s">
-        <v>183</v>
       </c>
       <c r="J22" s="63">
         <v>1</v>
       </c>
       <c r="K22" s="64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L22" s="63" t="s">
         <v>164</v>
@@ -4235,20 +3719,20 @@
         <v>164</v>
       </c>
       <c r="T22" s="80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="V22" s="26"/>
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
       <c r="Z22" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA22" s="7" t="s">
-        <v>97</v>
+        <v>169</v>
+      </c>
+      <c r="AA22" s="94" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:27">
+    <row r="23" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4259,28 +3743,28 @@
         <v>144</v>
       </c>
       <c r="D23" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>188</v>
-      </c>
       <c r="I23" s="62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J23" s="63">
         <v>1</v>
       </c>
       <c r="K23" s="64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L23" s="63" t="s">
         <v>164</v>
@@ -4305,34 +3789,34 @@
         <v>164</v>
       </c>
       <c r="T23" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:27">
+    <row r="24" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F24" s="12">
         <v>0</v>
@@ -4344,13 +3828,13 @@
         <v>161</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J24" s="63">
         <v>1</v>
       </c>
       <c r="K24" s="64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L24" s="63" t="s">
         <v>164</v>
@@ -4375,36 +3859,36 @@
         <v>164</v>
       </c>
       <c r="T24" s="80" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V24" s="26"/>
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z24" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA24" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:27">
+    <row r="25" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F25" s="12">
         <v>0</v>
@@ -4416,13 +3900,13 @@
         <v>161</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J25" s="63">
         <v>1</v>
       </c>
       <c r="K25" s="64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L25" s="63" t="s">
         <v>164</v>
@@ -4434,7 +3918,7 @@
         <v>49</v>
       </c>
       <c r="O25" s="65" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P25" s="63" t="s">
         <v>166</v>
@@ -4447,46 +3931,46 @@
         <v>164</v>
       </c>
       <c r="T25" s="90" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="V25" s="26"/>
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:27">
+    <row r="26" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D26" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I26" s="66" t="s">
         <v>205</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0</v>
-      </c>
-      <c r="G26" s="26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="I26" s="66" t="s">
-        <v>207</v>
       </c>
       <c r="J26" s="67">
         <v>1</v>
@@ -4515,34 +3999,34 @@
         <v>164</v>
       </c>
       <c r="T26" s="90" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="V26" s="26"/>
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
       <c r="Z26" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA26" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:27">
+    <row r="27" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F27" s="12">
         <v>0</v>
@@ -4554,13 +4038,13 @@
         <v>161</v>
       </c>
       <c r="I27" s="66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J27" s="63">
         <v>1</v>
       </c>
-      <c r="K27" s="64" t="s">
-        <v>211</v>
+      <c r="K27" s="95" t="s">
+        <v>251</v>
       </c>
       <c r="L27" s="63" t="s">
         <v>164</v>
@@ -4572,7 +4056,7 @@
         <v>49</v>
       </c>
       <c r="O27" s="63" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P27" s="63" t="s">
         <v>166</v>
@@ -4585,34 +4069,34 @@
         <v>164</v>
       </c>
       <c r="T27" s="90" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
       <c r="Z27" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:27">
+    <row r="28" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F28" s="12">
         <v>0</v>
@@ -4621,16 +4105,16 @@
         <v>0</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I28" s="66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J28" s="63">
         <v>1</v>
       </c>
-      <c r="K28" s="64" t="s">
-        <v>211</v>
+      <c r="K28" s="95" t="s">
+        <v>250</v>
       </c>
       <c r="L28" s="63" t="s">
         <v>164</v>
@@ -4655,20 +4139,20 @@
         <v>164</v>
       </c>
       <c r="T28" s="90" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="V28" s="26"/>
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="26"/>
       <c r="Z28" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA28" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:27">
+    <row r="29" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4677,31 +4161,31 @@
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+      <c r="G29" s="26">
+        <v>0</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="I29" s="68" t="s">
         <v>213</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="F29" s="12">
-        <v>0</v>
-      </c>
-      <c r="G29" s="26">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="I29" s="68" t="s">
-        <v>216</v>
       </c>
       <c r="J29" s="69">
         <v>1</v>
       </c>
       <c r="K29" s="69" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L29" s="70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M29" s="70" t="s">
         <v>32</v>
@@ -4719,7 +4203,7 @@
         <v>36</v>
       </c>
       <c r="R29" s="69" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S29" s="4" t="s">
         <v>164</v>
@@ -4733,17 +4217,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:27">
+    <row r="30" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F30" s="12">
         <v>0</v>
@@ -4752,19 +4236,19 @@
         <v>0</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I30" s="68" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J30" s="69">
         <v>1</v>
       </c>
       <c r="K30" s="69" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L30" s="70" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M30" s="70" t="s">
         <v>32</v>
@@ -4782,13 +4266,13 @@
         <v>36</v>
       </c>
       <c r="R30" s="69" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>164</v>
       </c>
       <c r="T30" s="80" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="V30" s="29"/>
       <c r="W30" s="29"/>
@@ -4799,19 +4283,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:27">
+    <row r="31" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F31" s="12">
         <v>0</v>
@@ -4820,16 +4304,16 @@
         <v>0</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I31" s="72" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J31" s="73">
         <v>1</v>
       </c>
       <c r="K31" s="73" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L31" s="74" t="s">
         <v>164</v>
@@ -4856,7 +4340,7 @@
         <v>164</v>
       </c>
       <c r="T31" s="80" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="V31" s="31"/>
       <c r="W31" s="31"/>
@@ -4867,19 +4351,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:27">
+    <row r="32" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F32" s="12">
         <v>0</v>
@@ -4888,16 +4372,16 @@
         <v>0</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I32" s="76" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J32" s="73">
         <v>1</v>
       </c>
       <c r="K32" s="73" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L32" s="74" t="s">
         <v>164</v>
@@ -4924,7 +4408,7 @@
         <v>164</v>
       </c>
       <c r="T32" s="80" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="V32" s="31"/>
       <c r="W32" s="31"/>
@@ -4935,19 +4419,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:27">
+    <row r="33" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F33" s="12">
         <v>0</v>
@@ -4956,16 +4440,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I33" s="72" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J33" s="73">
         <v>1</v>
       </c>
       <c r="K33" s="73" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L33" s="74" t="s">
         <v>164</v>
@@ -4992,7 +4476,7 @@
         <v>164</v>
       </c>
       <c r="T33" s="80" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V33" s="31"/>
       <c r="W33" s="31"/>
@@ -5003,19 +4487,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:27">
+    <row r="34" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>144</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F34" s="12">
         <v>0</v>
@@ -5024,16 +4508,16 @@
         <v>0</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I34" s="77" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L34" s="38" t="s">
         <v>164</v>
@@ -5042,10 +4526,10 @@
         <v>48</v>
       </c>
       <c r="N34" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O34" s="38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P34" s="38" t="s">
         <v>146</v>
@@ -5054,16 +4538,16 @@
         <v>147</v>
       </c>
       <c r="R34" s="83" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>164</v>
       </c>
       <c r="T34" s="92" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="U34" s="80" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
@@ -5074,21 +4558,21 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:27">
+    <row r="35" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>144</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F35" s="12">
         <v>0</v>
@@ -5097,16 +4581,16 @@
         <v>0</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I35" s="77" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L35" s="38" t="s">
         <v>164</v>
@@ -5115,10 +4599,10 @@
         <v>48</v>
       </c>
       <c r="N35" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O35" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P35" s="38" t="s">
         <v>146</v>
@@ -5127,16 +4611,16 @@
         <v>147</v>
       </c>
       <c r="R35" s="83" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S35" s="4" t="s">
         <v>164</v>
       </c>
       <c r="T35" s="92" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="U35" s="80" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V35" s="33"/>
       <c r="W35" s="33"/>
@@ -5147,21 +4631,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:27">
+    <row r="36" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>144</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F36" s="12">
         <v>0</v>
@@ -5170,16 +4654,16 @@
         <v>0</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I36" s="77" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L36" s="38" t="s">
         <v>164</v>
@@ -5188,10 +4672,10 @@
         <v>48</v>
       </c>
       <c r="N36" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O36" s="38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P36" s="38" t="s">
         <v>146</v>
@@ -5200,16 +4684,16 @@
         <v>147</v>
       </c>
       <c r="R36" s="83" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S36" s="4" t="s">
         <v>164</v>
       </c>
       <c r="T36" s="92" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="U36" s="80" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V36" s="93"/>
       <c r="W36" s="93"/>
@@ -5220,21 +4704,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:27">
+    <row r="37" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="35" t="s">
         <v>144</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F37" s="12">
         <v>0</v>
@@ -5243,16 +4727,16 @@
         <v>0</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I37" s="78" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L37" s="38" t="s">
         <v>164</v>
@@ -5261,10 +4745,10 @@
         <v>48</v>
       </c>
       <c r="N37" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O37" s="38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P37" s="38" t="s">
         <v>146</v>
@@ -5273,16 +4757,16 @@
         <v>147</v>
       </c>
       <c r="R37" s="83" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S37" s="4" t="s">
         <v>164</v>
       </c>
       <c r="T37" s="92" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="U37" s="80" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V37" s="33"/>
       <c r="W37" s="33"/>
@@ -5293,11 +4777,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="8:8">
+    <row r="38" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H38" s="38"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/extraResources/qcs项目目录.xlsx
+++ b/src/extraResources/qcs项目目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="251">
   <si>
     <t>ID</t>
   </si>
@@ -685,9 +685,6 @@
     <t>不含模体的影像</t>
   </si>
   <si>
-    <t>两个能量，最大和最小，每个能量两张图，10*10和20*20</t>
-  </si>
-  <si>
     <t>10*10,20*20</t>
   </si>
   <si>
@@ -709,9 +706,6 @@
     <t>RP.2.16.840.1.113669.2.931128.451974557.20201201095105.425311.dcm</t>
   </si>
   <si>
-    <t>5 cm×5 cm ~30 cm×30 cm</t>
-  </si>
-  <si>
     <t>三个月</t>
   </si>
   <si>
@@ -724,9 +718,6 @@
     <t>get_flatness</t>
   </si>
   <si>
-    <t>大于30 cm×30 cm</t>
-  </si>
-  <si>
     <t>≤110%</t>
   </si>
   <si>
@@ -742,9 +733,6 @@
     <t>不含模体的影像，两张图比较</t>
   </si>
   <si>
-    <t>单个能量，最大或者最小，两张图10*10</t>
-  </si>
-  <si>
     <t>10*10,10*10</t>
   </si>
   <si>
@@ -772,9 +760,6 @@
     <t>6.3.3</t>
   </si>
   <si>
-    <t>两个能量，最大和最小，每个能量单张图，10*10</t>
-  </si>
-  <si>
     <t>10*10</t>
   </si>
   <si>
@@ -790,13 +775,7 @@
     <t>照射野的数字指示（单元限束）</t>
   </si>
   <si>
-    <t>5 cm×5 cm ~20 cm×20 cm</t>
-  </si>
-  <si>
     <t>6.4.1</t>
-  </si>
-  <si>
-    <t>单个能量，首选X线检测能量，单张图10*10（Jaw）</t>
   </si>
   <si>
     <t>≤3 mm</t>
@@ -809,24 +788,12 @@
     <t>RP.2.16.840.1.113669.2.931128.451974557.20201201095218.513101.dcm</t>
   </si>
   <si>
-    <t>大于20 cm×20 cm</t>
-  </si>
-  <si>
-    <t>不测</t>
-  </si>
-  <si>
-    <t>在相应的检测预置条件下，将机架旋转，轴1刻度置于零位，从等中心处向地面悬挂一铅锤，并在地面上放置慢感光胶片。在胶片上标注处铅锤的中心，使用小X射线照射野对胶片进行照射。根据标注的铅锤中心和照射野中心之间的距离，计算架角度的误差。</t>
-  </si>
-  <si>
     <t>照射野的数字指示（多元限束）</t>
   </si>
   <si>
     <t>10 cm×10 cm</t>
   </si>
   <si>
-    <t>单个能量，首选X线检测能量，两张图10*40（MLC）</t>
-  </si>
-  <si>
     <t>最大照射野</t>
   </si>
   <si>
@@ -839,29 +806,6 @@
     <t>含模体影像，无需设计Rtpaln</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单个能量，首选X线检测能量，单张图10*10，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提示拍片条件</t>
-    </r>
-  </si>
-  <si>
     <t>铅锤+影像分析</t>
   </si>
   <si>
@@ -872,29 +816,6 @@
   </si>
   <si>
     <t>6.5.1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单个能量，首选X线检测能量，分析3张图10*10，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提示拍片条件，尤其机架角的设置</t>
-    </r>
   </si>
   <si>
     <t>参考指针+影像分析</t>
@@ -927,29 +848,6 @@
     <t>6.7.1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单个能量，首选X线检测能量，两张图10*10比较，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提示第二次拍片前移动床，提示加模体负重</t>
-    </r>
-  </si>
-  <si>
     <t>将慢感光胶片置于治疗床面，用建成材料覆盖其上。将 70 kg 负载均匀分布在床面上，重心作用在等中心点上。照射野调至 10 cm×10 cm，治疗床面调至近似于等中心高度时，对慢感光胶片进行照射。然后将床面降低 20 cm 并再次照射，测出两个照射野中心的位移。</t>
   </si>
   <si>
@@ -978,9 +876,6 @@
   </si>
   <si>
     <t>扫描胶片获得的影像，分别分析两张图</t>
-  </si>
-  <si>
-    <t>两个能量，最大和最小，每个能量两张图，10*10和常用</t>
   </si>
   <si>
     <t>≤105%</t>
@@ -1305,9 +1200,6 @@
   </si>
   <si>
     <t>电子线照射野的均整度</t>
-  </si>
-  <si>
-    <t>沿两主轴方向上80%等剂量线</t>
   </si>
   <si>
     <t>≤15 mm</t>
@@ -1350,7 +1242,67 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>两个能量，最大和最小，每个能量两张图，10*10和20*20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个能量，最大和最小，每个能量单张图，10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10cm×10cm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20cm×20cm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个能量，两张图10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个能量，两张图10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10×10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20cm×20cm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个能量，单张图，10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个能量，单张图，10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个能量，首选X线检测能量，分析3张图10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*10,20*20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>10*10,10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*10,10*10,10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿两主轴方向上80%等剂量线</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1615,7 +1567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1818,9 +1770,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1832,9 +1781,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2179,11 +2125,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2341,7 +2287,7 @@
       <c r="P2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="77" t="s">
         <v>36</v>
       </c>
       <c r="R2" s="41" t="s">
@@ -2350,18 +2296,18 @@
       <c r="S2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="80" t="s">
+      <c r="T2" s="78" t="s">
         <v>39</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="81" t="s">
+      <c r="W2" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
       <c r="AA2" s="7" t="s">
         <v>40</v>
       </c>
@@ -2409,19 +2355,19 @@
       <c r="P3" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="79" t="s">
+      <c r="Q3" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="82" t="s">
+      <c r="R3" s="80" t="s">
         <v>53</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="80" t="s">
+      <c r="T3" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="80" t="s">
+      <c r="U3" s="78" t="s">
         <v>55</v>
       </c>
       <c r="V3" s="12" t="s">
@@ -2478,17 +2424,17 @@
       <c r="P4" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="82"/>
+      <c r="R4" s="80"/>
       <c r="S4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="80" t="s">
+      <c r="T4" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="78" t="s">
         <v>60</v>
       </c>
       <c r="V4" s="12" t="s">
@@ -2545,16 +2491,16 @@
       <c r="P5" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="79" t="s">
+      <c r="Q5" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="83" t="s">
+      <c r="R5" s="81" t="s">
         <v>66</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="80" t="s">
+      <c r="T5" s="78" t="s">
         <v>67</v>
       </c>
       <c r="V5" s="14" t="s">
@@ -2611,16 +2557,16 @@
       <c r="P6" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="79" t="s">
+      <c r="Q6" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="83" t="s">
+      <c r="R6" s="81" t="s">
         <v>66</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="80" t="s">
+      <c r="T6" s="78" t="s">
         <v>70</v>
       </c>
       <c r="V6" s="12" t="s">
@@ -2682,16 +2628,16 @@
       <c r="S7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="80" t="s">
+      <c r="T7" s="78" t="s">
         <v>76</v>
       </c>
       <c r="V7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
       <c r="AA7" s="7" t="s">
         <v>40</v>
       </c>
@@ -2742,13 +2688,13 @@
       <c r="Q8" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="R8" s="85" t="s">
+      <c r="R8" s="83" t="s">
         <v>66</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T8" s="80" t="s">
+      <c r="T8" s="78" t="s">
         <v>81</v>
       </c>
       <c r="V8" s="14" t="s">
@@ -2814,7 +2760,7 @@
       <c r="S9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="80" t="s">
+      <c r="T9" s="78" t="s">
         <v>93</v>
       </c>
       <c r="V9" s="7" t="s">
@@ -2875,14 +2821,14 @@
       <c r="P10" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="Q10" s="86" t="s">
+      <c r="Q10" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="R10" s="87"/>
+      <c r="R10" s="85"/>
       <c r="S10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="80" t="s">
+      <c r="T10" s="78" t="s">
         <v>104</v>
       </c>
       <c r="V10" s="7" t="s">
@@ -2943,14 +2889,14 @@
       <c r="P11" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" s="86" t="s">
+      <c r="Q11" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="R11" s="87"/>
+      <c r="R11" s="85"/>
       <c r="S11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T11" s="80" t="s">
+      <c r="T11" s="78" t="s">
         <v>111</v>
       </c>
       <c r="V11" s="7" t="s">
@@ -3013,17 +2959,17 @@
       <c r="P12" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="Q12" s="86" t="s">
+      <c r="Q12" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="R12" s="87"/>
+      <c r="R12" s="85"/>
       <c r="S12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="80" t="s">
+      <c r="T12" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="U12" s="80"/>
+      <c r="U12" s="78"/>
       <c r="V12" s="7" t="s">
         <v>94</v>
       </c>
@@ -3084,14 +3030,14 @@
       <c r="P13" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="Q13" s="86" t="s">
+      <c r="Q13" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="R13" s="87"/>
+      <c r="R13" s="85"/>
       <c r="S13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T13" s="80" t="s">
+      <c r="T13" s="78" t="s">
         <v>125</v>
       </c>
       <c r="V13" s="7" t="s">
@@ -3152,14 +3098,14 @@
       <c r="P14" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="Q14" s="86" t="s">
+      <c r="Q14" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="R14" s="87"/>
+      <c r="R14" s="85"/>
       <c r="S14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T14" s="80" t="s">
+      <c r="T14" s="78" t="s">
         <v>133</v>
       </c>
       <c r="V14" s="7" t="s">
@@ -3229,7 +3175,7 @@
       <c r="S15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T15" s="80" t="s">
+      <c r="T15" s="78" t="s">
         <v>141</v>
       </c>
       <c r="V15" s="7" t="s">
@@ -3297,7 +3243,7 @@
       <c r="S16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T16" s="80" t="s">
+      <c r="T16" s="78" t="s">
         <v>149</v>
       </c>
       <c r="V16" s="7" t="s">
@@ -3358,17 +3304,17 @@
       <c r="P17" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="Q17" s="88" t="s">
+      <c r="Q17" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="R17" s="88"/>
+      <c r="R17" s="86"/>
       <c r="S17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T17" s="80" t="s">
+      <c r="T17" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="U17" s="80"/>
+      <c r="U17" s="78"/>
       <c r="V17" s="7" t="s">
         <v>94</v>
       </c>
@@ -3436,7 +3382,7 @@
       <c r="S18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="80" t="s">
+      <c r="T18" s="78" t="s">
         <v>157</v>
       </c>
       <c r="V18" s="7" t="s">
@@ -3478,16 +3424,16 @@
         <v>161</v>
       </c>
       <c r="I19" s="62" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="J19" s="63">
         <v>1</v>
       </c>
       <c r="K19" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" s="63" t="s">
         <v>163</v>
-      </c>
-      <c r="L19" s="63" t="s">
-        <v>164</v>
       </c>
       <c r="M19" s="63" t="s">
         <v>48</v>
@@ -3496,27 +3442,27 @@
         <v>102</v>
       </c>
       <c r="O19" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="P19" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="P19" s="63" t="s">
+      <c r="Q19" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="Q19" s="63" t="s">
+      <c r="R19" s="85"/>
+      <c r="S19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="T19" s="78" t="s">
         <v>167</v>
-      </c>
-      <c r="R19" s="87"/>
-      <c r="S19" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T19" s="80" t="s">
-        <v>168</v>
       </c>
       <c r="V19" s="26"/>
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>97</v>
@@ -3527,13 +3473,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>160</v>
@@ -3548,45 +3494,45 @@
         <v>161</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="J20" s="63">
         <v>1</v>
       </c>
       <c r="K20" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" s="63" t="s">
         <v>163</v>
-      </c>
-      <c r="L20" s="63" t="s">
-        <v>164</v>
       </c>
       <c r="M20" s="63" t="s">
         <v>48</v>
       </c>
       <c r="N20" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="P20" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q20" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="R20" s="85"/>
+      <c r="S20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="T20" s="78" t="s">
         <v>171</v>
-      </c>
-      <c r="O20" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="P20" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q20" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="R20" s="87"/>
-      <c r="S20" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T20" s="80" t="s">
-        <v>173</v>
       </c>
       <c r="V20" s="26"/>
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
       <c r="Z20" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA20" s="7" t="s">
         <v>97</v>
@@ -3597,13 +3543,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>160</v>
@@ -3618,47 +3564,47 @@
         <v>161</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="J21" s="63">
         <v>1</v>
       </c>
       <c r="K21" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="L21" s="63" t="s">
         <v>163</v>
-      </c>
-      <c r="L21" s="63" t="s">
-        <v>164</v>
       </c>
       <c r="M21" s="63" t="s">
         <v>48</v>
       </c>
       <c r="N21" s="63" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O21" s="63" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P21" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q21" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="Q21" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="R21" s="87"/>
+      <c r="R21" s="85"/>
       <c r="S21" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T21" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="T21" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="Z21" s="89" t="s">
-        <v>169</v>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z21" s="87" t="s">
+        <v>168</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>97</v>
@@ -3669,14 +3615,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="E22" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F22" s="12">
         <v>0</v>
@@ -3685,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I22" s="62" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="J22" s="63">
         <v>1</v>
       </c>
       <c r="K22" s="64" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M22" s="63" t="s">
         <v>48</v>
@@ -3709,27 +3657,27 @@
         <v>34</v>
       </c>
       <c r="P22" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="Q22" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="R22" s="87"/>
+      <c r="R22" s="85"/>
       <c r="S22" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T22" s="80" t="s">
-        <v>183</v>
+        <v>163</v>
+      </c>
+      <c r="T22" s="78" t="s">
+        <v>179</v>
       </c>
       <c r="V22" s="26"/>
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
       <c r="Z22" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA22" s="94" t="s">
-        <v>249</v>
+        <v>168</v>
+      </c>
+      <c r="AA22" s="92" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3743,10 +3691,10 @@
         <v>144</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F23" s="12">
         <v>0</v>
@@ -3755,19 +3703,19 @@
         <v>0</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I23" s="62" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="J23" s="63">
         <v>1</v>
       </c>
       <c r="K23" s="64" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L23" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M23" s="63" t="s">
         <v>48</v>
@@ -3779,24 +3727,24 @@
         <v>50</v>
       </c>
       <c r="P23" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="Q23" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="R23" s="87"/>
+      <c r="R23" s="85"/>
       <c r="S23" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T23" s="80" t="s">
-        <v>187</v>
+        <v>163</v>
+      </c>
+      <c r="T23" s="78" t="s">
+        <v>183</v>
       </c>
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>57</v>
@@ -3807,16 +3755,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F24" s="12">
         <v>0</v>
@@ -3828,16 +3776,16 @@
         <v>161</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="J24" s="63">
         <v>1</v>
       </c>
       <c r="K24" s="64" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L24" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M24" s="63" t="s">
         <v>48</v>
@@ -3849,26 +3797,26 @@
         <v>40</v>
       </c>
       <c r="P24" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q24" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="Q24" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="R24" s="87"/>
+      <c r="R24" s="85"/>
       <c r="S24" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T24" s="80" t="s">
-        <v>193</v>
+        <v>163</v>
+      </c>
+      <c r="T24" s="78" t="s">
+        <v>188</v>
       </c>
       <c r="V24" s="26"/>
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Z24" s="26" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AA24" s="7" t="s">
         <v>40</v>
@@ -3879,16 +3827,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F25" s="12">
         <v>0</v>
@@ -3900,16 +3848,16 @@
         <v>161</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="J25" s="63">
         <v>1</v>
       </c>
       <c r="K25" s="64" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L25" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M25" s="63" t="s">
         <v>48</v>
@@ -3918,27 +3866,27 @@
         <v>49</v>
       </c>
       <c r="O25" s="65" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="P25" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q25" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="Q25" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="R25" s="87"/>
+      <c r="R25" s="85"/>
       <c r="S25" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T25" s="90" t="s">
-        <v>201</v>
+        <v>163</v>
+      </c>
+      <c r="T25" s="88" t="s">
+        <v>194</v>
       </c>
       <c r="V25" s="26"/>
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="26" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>40</v>
@@ -3946,7 +3894,7 @@
     </row>
     <row r="26" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>196</v>
@@ -3955,10 +3903,10 @@
         <v>144</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F26" s="12">
         <v>0</v>
@@ -3967,17 +3915,19 @@
         <v>0</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="I26" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="J26" s="67">
+        <v>240</v>
+      </c>
+      <c r="J26" s="63">
         <v>1</v>
       </c>
-      <c r="K26" s="67"/>
+      <c r="K26" s="93" t="s">
+        <v>234</v>
+      </c>
       <c r="L26" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M26" s="63" t="s">
         <v>48</v>
@@ -3985,28 +3935,28 @@
       <c r="N26" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="O26" s="65" t="s">
-        <v>69</v>
+      <c r="O26" s="63" t="s">
+        <v>193</v>
       </c>
       <c r="P26" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q26" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="Q26" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="R26" s="87"/>
+      <c r="R26" s="85"/>
       <c r="S26" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T26" s="90" t="s">
-        <v>201</v>
+        <v>163</v>
+      </c>
+      <c r="T26" s="88" t="s">
+        <v>194</v>
       </c>
       <c r="V26" s="26"/>
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
       <c r="Z26" s="26" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="AA26" s="7" t="s">
         <v>40</v>
@@ -4014,19 +3964,19 @@
     </row>
     <row r="27" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F27" s="12">
         <v>0</v>
@@ -4034,20 +3984,20 @@
       <c r="G27" s="26">
         <v>0</v>
       </c>
-      <c r="H27" s="26" t="s">
-        <v>161</v>
+      <c r="H27" s="27" t="s">
+        <v>182</v>
       </c>
       <c r="I27" s="66" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="J27" s="63">
         <v>1</v>
       </c>
-      <c r="K27" s="95" t="s">
-        <v>251</v>
+      <c r="K27" s="93" t="s">
+        <v>234</v>
       </c>
       <c r="L27" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M27" s="63" t="s">
         <v>48</v>
@@ -4055,21 +4005,21 @@
       <c r="N27" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="O27" s="63" t="s">
-        <v>200</v>
+      <c r="O27" s="65" t="s">
+        <v>69</v>
       </c>
       <c r="P27" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q27" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="Q27" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="R27" s="87"/>
+      <c r="R27" s="85"/>
       <c r="S27" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T27" s="90" t="s">
-        <v>201</v>
+        <v>163</v>
+      </c>
+      <c r="T27" s="88" t="s">
+        <v>194</v>
       </c>
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
@@ -4084,19 +4034,17 @@
     </row>
     <row r="28" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>198</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>200</v>
       </c>
       <c r="F28" s="12">
         <v>0</v>
@@ -4104,67 +4052,62 @@
       <c r="G28" s="26">
         <v>0</v>
       </c>
-      <c r="H28" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="I28" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="J28" s="63">
+      <c r="H28" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" s="68">
         <v>1</v>
       </c>
-      <c r="K28" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="L28" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="M28" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="N28" s="63" t="s">
+      <c r="K28" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="M28" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="O28" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="P28" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q28" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="R28" s="87"/>
+      <c r="O28" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="68" t="s">
+        <v>203</v>
+      </c>
       <c r="S28" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T28" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26" t="s">
-        <v>202</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
       <c r="AA28" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="C29" s="28"/>
-      <c r="D29" s="29" t="s">
-        <v>210</v>
-      </c>
+      <c r="D29" s="29"/>
       <c r="E29" s="29" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F29" s="12">
         <v>0</v>
@@ -4173,40 +4116,43 @@
         <v>0</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="I29" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="J29" s="69">
+        <v>201</v>
+      </c>
+      <c r="I29" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" s="68">
         <v>1</v>
       </c>
-      <c r="K29" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="L29" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="M29" s="70" t="s">
+      <c r="K29" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="M29" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="70" t="s">
+      <c r="N29" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="O29" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="P29" s="71" t="s">
+      <c r="O29" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="Q29" s="71" t="s">
+      <c r="Q29" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="R29" s="69" t="s">
-        <v>215</v>
+      <c r="R29" s="68" t="s">
+        <v>207</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="T29" s="78" t="s">
+        <v>208</v>
       </c>
       <c r="V29" s="29"/>
       <c r="W29" s="29"/>
@@ -4214,20 +4160,22 @@
       <c r="Y29" s="29"/>
       <c r="Z29" s="29"/>
       <c r="AA29" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29" t="s">
-        <v>217</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>211</v>
       </c>
       <c r="F30" s="12">
         <v>0</v>
@@ -4235,67 +4183,67 @@
       <c r="G30" s="26">
         <v>0</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I30" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" s="71">
+        <v>1</v>
+      </c>
+      <c r="K30" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="L30" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="M30" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="N30" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="O30" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="R30" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="T30" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="I30" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="J30" s="69">
-        <v>1</v>
-      </c>
-      <c r="K30" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="L30" s="70" t="s">
-        <v>219</v>
-      </c>
-      <c r="M30" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="N30" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="O30" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="P30" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q30" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="R30" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T30" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
       <c r="AA30" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="31" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F31" s="12">
         <v>0</v>
@@ -4304,43 +4252,43 @@
         <v>0</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="I31" s="72" t="s">
-        <v>225</v>
-      </c>
-      <c r="J31" s="73">
+        <v>201</v>
+      </c>
+      <c r="I31" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" s="71">
         <v>1</v>
       </c>
-      <c r="K31" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="L31" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="M31" s="74" t="s">
+      <c r="K31" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="L31" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="M31" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="74" t="s">
+      <c r="N31" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="O31" s="74" t="s">
+      <c r="O31" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="P31" s="75" t="s">
+      <c r="P31" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="Q31" s="74" t="s">
+      <c r="Q31" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="R31" s="83" t="s">
+      <c r="R31" s="81" t="s">
         <v>66</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T31" s="80" t="s">
-        <v>226</v>
+        <v>163</v>
+      </c>
+      <c r="T31" s="78" t="s">
+        <v>215</v>
       </c>
       <c r="V31" s="31"/>
       <c r="W31" s="31"/>
@@ -4353,17 +4301,17 @@
     </row>
     <row r="32" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="31" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F32" s="12">
         <v>0</v>
@@ -4372,43 +4320,43 @@
         <v>0</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="I32" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="J32" s="73">
+        <v>201</v>
+      </c>
+      <c r="I32" s="74" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" s="71">
         <v>1</v>
       </c>
-      <c r="K32" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="L32" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="M32" s="74" t="s">
+      <c r="K32" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="L32" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="M32" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="74" t="s">
+      <c r="N32" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="O32" s="74" t="s">
+      <c r="O32" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="P32" s="75" t="s">
+      <c r="P32" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="Q32" s="74" t="s">
+      <c r="Q32" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="R32" s="83" t="s">
+      <c r="R32" s="81" t="s">
         <v>66</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T32" s="80" t="s">
-        <v>229</v>
+        <v>163</v>
+      </c>
+      <c r="T32" s="78" t="s">
+        <v>218</v>
       </c>
       <c r="V32" s="31"/>
       <c r="W32" s="31"/>
@@ -4421,85 +4369,90 @@
     </row>
     <row r="33" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
+      <c r="G33" s="26">
+        <v>0</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="I33" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L33" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="M33" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="O33" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="F33" s="12">
-        <v>0</v>
-      </c>
-      <c r="G33" s="26">
-        <v>0</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="I33" s="72" t="s">
+      <c r="P33" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q33" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="R33" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="T33" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="U33" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="J33" s="73">
-        <v>1</v>
-      </c>
-      <c r="K33" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="L33" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="M33" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="N33" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="O33" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="P33" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q33" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="R33" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T33" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="91"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
       <c r="AA33" s="7" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="33"/>
+      <c r="D34" s="33" t="s">
+        <v>249</v>
+      </c>
       <c r="E34" s="33" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="F34" s="12">
         <v>0</v>
@@ -4508,28 +4461,28 @@
         <v>0</v>
       </c>
       <c r="H34" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="I34" s="75" t="s">
         <v>235</v>
-      </c>
-      <c r="I34" s="77" t="s">
-        <v>236</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="L34" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M34" s="38" t="s">
         <v>48</v>
       </c>
       <c r="N34" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O34" s="38" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="P34" s="38" t="s">
         <v>146</v>
@@ -4537,42 +4490,42 @@
       <c r="Q34" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="R34" s="83" t="s">
-        <v>238</v>
+      <c r="R34" s="81" t="s">
+        <v>223</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T34" s="92" t="s">
-        <v>239</v>
-      </c>
-      <c r="U34" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="V34" s="93"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="93"/>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="93"/>
+        <v>163</v>
+      </c>
+      <c r="T34" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="U34" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
       <c r="AA34" s="7" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>144</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F35" s="12">
         <v>0</v>
@@ -4581,28 +4534,28 @@
         <v>0</v>
       </c>
       <c r="H35" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" s="75" t="s">
         <v>235</v>
-      </c>
-      <c r="I35" s="77" t="s">
-        <v>236</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M35" s="38" t="s">
         <v>48</v>
       </c>
       <c r="N35" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O35" s="38" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="P35" s="38" t="s">
         <v>146</v>
@@ -4610,42 +4563,42 @@
       <c r="Q35" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="R35" s="83" t="s">
-        <v>238</v>
+      <c r="R35" s="81" t="s">
+        <v>223</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T35" s="92" t="s">
-        <v>239</v>
-      </c>
-      <c r="U35" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
+        <v>163</v>
+      </c>
+      <c r="T35" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="U35" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="91"/>
       <c r="AA35" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C36" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>234</v>
+      <c r="D36" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="F36" s="12">
         <v>0</v>
@@ -4653,29 +4606,29 @@
       <c r="G36" s="26">
         <v>0</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" s="76" t="s">
         <v>235</v>
-      </c>
-      <c r="I36" s="77" t="s">
-        <v>236</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="L36" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M36" s="38" t="s">
         <v>48</v>
       </c>
       <c r="N36" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O36" s="38" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="P36" s="38" t="s">
         <v>146</v>
@@ -4683,102 +4636,29 @@
       <c r="Q36" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="R36" s="83" t="s">
-        <v>238</v>
+      <c r="R36" s="81" t="s">
+        <v>223</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T36" s="92" t="s">
-        <v>239</v>
-      </c>
-      <c r="U36" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="V36" s="93"/>
-      <c r="W36" s="93"/>
-      <c r="X36" s="93"/>
-      <c r="Y36" s="93"/>
-      <c r="Z36" s="93"/>
+        <v>163</v>
+      </c>
+      <c r="T36" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="U36" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
       <c r="AA36" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="F37" s="12">
-        <v>0</v>
-      </c>
-      <c r="G37" s="26">
-        <v>0</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="I37" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="J37" s="3">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="L37" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="M37" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="N37" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="O37" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="P37" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q37" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="R37" s="83" t="s">
-        <v>238</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="T37" s="92" t="s">
-        <v>239</v>
-      </c>
-      <c r="U37" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H38" s="38"/>
+      <c r="H37" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/src/extraResources/qcs项目目录.xlsx
+++ b/src/extraResources/qcs项目目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="255">
   <si>
     <t>ID</t>
   </si>
@@ -703,9 +703,6 @@
     <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件照射野大小分别为 10 cm×10 cm 和临床常用照射野，典型放射治疗条件的吸收剂量率，分别在最大和最小标称能量档等条件下， 将辐射探测器置于体模内的标准检测深度为 10 cm 上（能量小于 6 MV 时可在 5 cm 上），并位于正常治疗距离处，沿照射野的两条主轴线方向连续或逐点测量。</t>
   </si>
   <si>
-    <t>RP.2.16.840.1.113669.2.931128.451974557.20201201095105.425311.dcm</t>
-  </si>
-  <si>
     <t>三个月</t>
   </si>
   <si>
@@ -767,9 +764,6 @@
   </si>
   <si>
     <t>get_penumbra</t>
-  </si>
-  <si>
-    <t>RP.2.16.840.1.113669.2.931128.451974557.20201201095149.699646.dcm</t>
   </si>
   <si>
     <t>照射野的数字指示（单元限束）</t>
@@ -783,9 +777,6 @@
   <si>
     <t>设置机架角度为0°，限束系统为0°，使用X射线典型放射治疗条件的吸收剂量率条件下，对应于机架角位0°，使用电子射野影像装置（EPID）检测。使用数字野指示分别确定10cm×10cm与20cm×20cm的X射线照射野，沿两个主轴对辐射束测出吸收剂量等于辐射束轴上吸收剂量的50%的点的位置。
 对于多元限束装置（多叶光栅，MLC），使用数字野指示确定10cm×40cm的照射野，使用电子射野影像装置（EPID）分别拍摄枪侧及靶侧的照射野影像，沿每对限束装置中心轴测出吸收剂量等于辐射束轴上吸收剂量的50%的点的位置距离。</t>
-  </si>
-  <si>
-    <t>RP.2.16.840.1.113669.2.931128.451974557.20201201095218.513101.dcm</t>
   </si>
   <si>
     <t>照射野的数字指示（多元限束）</t>
@@ -1303,6 +1294,34 @@
   </si>
   <si>
     <t>6.3.2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.631</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.642</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像分析</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.662</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.641</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.651</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2129,7 +2148,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3424,7 +3443,7 @@
         <v>161</v>
       </c>
       <c r="I19" s="62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J19" s="63">
         <v>1</v>
@@ -3462,7 +3481,7 @@
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="26" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>97</v>
@@ -3473,13 +3492,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>160</v>
@@ -3494,7 +3513,7 @@
         <v>161</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J20" s="63">
         <v>1</v>
@@ -3509,10 +3528,10 @@
         <v>48</v>
       </c>
       <c r="N20" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" s="63" t="s">
         <v>169</v>
-      </c>
-      <c r="O20" s="63" t="s">
-        <v>170</v>
       </c>
       <c r="P20" s="63" t="s">
         <v>165</v>
@@ -3525,14 +3544,14 @@
         <v>163</v>
       </c>
       <c r="T20" s="78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V20" s="26"/>
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
       <c r="Z20" s="26" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="AA20" s="7" t="s">
         <v>97</v>
@@ -3543,13 +3562,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>160</v>
@@ -3564,7 +3583,7 @@
         <v>161</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J21" s="63">
         <v>1</v>
@@ -3579,10 +3598,10 @@
         <v>48</v>
       </c>
       <c r="N21" s="63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O21" s="63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P21" s="63" t="s">
         <v>165</v>
@@ -3595,16 +3614,16 @@
         <v>163</v>
       </c>
       <c r="T21" s="78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V21" s="87"/>
       <c r="W21" s="87"/>
       <c r="X21" s="87"/>
       <c r="Y21" s="87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z21" s="87" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>97</v>
@@ -3615,34 +3634,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E22" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>177</v>
-      </c>
       <c r="I22" s="62" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J22" s="63">
         <v>1</v>
       </c>
       <c r="K22" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L22" s="63" t="s">
         <v>163</v>
@@ -3667,17 +3686,17 @@
         <v>163</v>
       </c>
       <c r="T22" s="78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V22" s="26"/>
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
       <c r="Z22" s="26" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="AA22" s="92" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3691,31 +3710,31 @@
         <v>144</v>
       </c>
       <c r="D23" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>182</v>
-      </c>
       <c r="I23" s="62" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J23" s="63">
         <v>1</v>
       </c>
       <c r="K23" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L23" s="63" t="s">
-        <v>163</v>
+        <v>250</v>
       </c>
       <c r="M23" s="63" t="s">
         <v>48</v>
@@ -3737,14 +3756,14 @@
         <v>163</v>
       </c>
       <c r="T23" s="78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26" t="s">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>57</v>
@@ -3755,16 +3774,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D24" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>185</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>186</v>
       </c>
       <c r="F24" s="12">
         <v>0</v>
@@ -3776,13 +3795,13 @@
         <v>161</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J24" s="63">
         <v>1</v>
       </c>
       <c r="K24" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L24" s="63" t="s">
         <v>163</v>
@@ -3793,9 +3812,7 @@
       <c r="N24" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="O24" s="63" t="s">
-        <v>40</v>
-      </c>
+      <c r="O24" s="63"/>
       <c r="P24" s="63" t="s">
         <v>165</v>
       </c>
@@ -3807,17 +3824,15 @@
         <v>163</v>
       </c>
       <c r="T24" s="78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V24" s="26"/>
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z24" s="26" t="s">
-        <v>190</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Z24" s="26"/>
       <c r="AA24" s="7" t="s">
         <v>40</v>
       </c>
@@ -3827,16 +3842,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F25" s="12">
         <v>0</v>
@@ -3848,13 +3863,13 @@
         <v>161</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J25" s="63">
         <v>1</v>
       </c>
       <c r="K25" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L25" s="63" t="s">
         <v>163</v>
@@ -3866,7 +3881,7 @@
         <v>49</v>
       </c>
       <c r="O25" s="65" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P25" s="63" t="s">
         <v>165</v>
@@ -3879,14 +3894,14 @@
         <v>163</v>
       </c>
       <c r="T25" s="88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="V25" s="26"/>
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="26" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>40</v>
@@ -3897,16 +3912,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F26" s="12">
         <v>0</v>
@@ -3918,13 +3933,13 @@
         <v>161</v>
       </c>
       <c r="I26" s="66" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J26" s="63">
         <v>1</v>
       </c>
       <c r="K26" s="93" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L26" s="63" t="s">
         <v>163</v>
@@ -3936,7 +3951,7 @@
         <v>49</v>
       </c>
       <c r="O26" s="63" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P26" s="63" t="s">
         <v>165</v>
@@ -3949,14 +3964,14 @@
         <v>163</v>
       </c>
       <c r="T26" s="88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="V26" s="26"/>
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
       <c r="Z26" s="26" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="AA26" s="7" t="s">
         <v>40</v>
@@ -3967,16 +3982,16 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F27" s="12">
         <v>0</v>
@@ -3985,16 +4000,16 @@
         <v>0</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I27" s="66" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J27" s="63">
         <v>1</v>
       </c>
       <c r="K27" s="93" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L27" s="63" t="s">
         <v>163</v>
@@ -4019,14 +4034,14 @@
         <v>163</v>
       </c>
       <c r="T27" s="88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
       <c r="Z27" s="26" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>40</v>
@@ -4039,12 +4054,14 @@
       <c r="B28" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="28" t="s">
+        <v>254</v>
+      </c>
       <c r="D28" s="29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F28" s="12">
         <v>0</v>
@@ -4053,19 +4070,19 @@
         <v>0</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I28" s="67" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J28" s="68">
         <v>1</v>
       </c>
       <c r="K28" s="68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L28" s="69" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M28" s="69" t="s">
         <v>32</v>
@@ -4083,7 +4100,7 @@
         <v>36</v>
       </c>
       <c r="R28" s="68" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S28" s="4" t="s">
         <v>163</v>
@@ -4102,12 +4119,14 @@
         <v>29</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="28"/>
+        <v>201</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>254</v>
+      </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F29" s="12">
         <v>0</v>
@@ -4116,19 +4135,19 @@
         <v>0</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I29" s="67" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J29" s="68">
         <v>1</v>
       </c>
       <c r="K29" s="68" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L29" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M29" s="69" t="s">
         <v>32</v>
@@ -4146,19 +4165,21 @@
         <v>36</v>
       </c>
       <c r="R29" s="68" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S29" s="4" t="s">
         <v>163</v>
       </c>
       <c r="T29" s="78" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="V29" s="29"/>
       <c r="W29" s="29"/>
       <c r="X29" s="29"/>
       <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
+      <c r="Z29" s="29" t="s">
+        <v>253</v>
+      </c>
       <c r="AA29" s="7" t="s">
         <v>40</v>
       </c>
@@ -4168,14 +4189,16 @@
         <v>30</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="30"/>
+        <v>206</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>254</v>
+      </c>
       <c r="D30" s="31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F30" s="12">
         <v>0</v>
@@ -4184,16 +4207,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I30" s="74" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J30" s="71">
         <v>1</v>
       </c>
       <c r="K30" s="71" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L30" s="72" t="s">
         <v>163</v>
@@ -4220,7 +4243,7 @@
         <v>163</v>
       </c>
       <c r="T30" s="78" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="V30" s="31"/>
       <c r="W30" s="31"/>
@@ -4236,14 +4259,16 @@
         <v>31</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" s="30"/>
+        <v>206</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>254</v>
+      </c>
       <c r="D31" s="31" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F31" s="12">
         <v>0</v>
@@ -4252,16 +4277,16 @@
         <v>0</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I31" s="74" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J31" s="71">
         <v>1</v>
       </c>
       <c r="K31" s="71" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L31" s="72" t="s">
         <v>163</v>
@@ -4288,7 +4313,7 @@
         <v>163</v>
       </c>
       <c r="T31" s="78" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="V31" s="31"/>
       <c r="W31" s="31"/>
@@ -4304,14 +4329,16 @@
         <v>32</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="30"/>
+        <v>206</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>254</v>
+      </c>
       <c r="D32" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F32" s="12">
         <v>0</v>
@@ -4320,16 +4347,16 @@
         <v>0</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I32" s="74" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J32" s="71">
         <v>1</v>
       </c>
       <c r="K32" s="71" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L32" s="72" t="s">
         <v>163</v>
@@ -4356,7 +4383,7 @@
         <v>163</v>
       </c>
       <c r="T32" s="78" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="V32" s="31"/>
       <c r="W32" s="31"/>
@@ -4372,14 +4399,14 @@
         <v>33</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>144</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F33" s="12">
         <v>0</v>
@@ -4388,16 +4415,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I33" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L33" s="38" t="s">
         <v>163</v>
@@ -4406,10 +4433,10 @@
         <v>48</v>
       </c>
       <c r="N33" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O33" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P33" s="38" t="s">
         <v>146</v>
@@ -4418,16 +4445,16 @@
         <v>147</v>
       </c>
       <c r="R33" s="81" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>163</v>
       </c>
       <c r="T33" s="90" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="U33" s="78" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="V33" s="91"/>
       <c r="W33" s="91"/>
@@ -4443,16 +4470,16 @@
         <v>34</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>144</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F34" s="12">
         <v>0</v>
@@ -4461,16 +4488,16 @@
         <v>0</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I34" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L34" s="38" t="s">
         <v>163</v>
@@ -4479,10 +4506,10 @@
         <v>48</v>
       </c>
       <c r="N34" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O34" s="38" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P34" s="38" t="s">
         <v>146</v>
@@ -4491,16 +4518,16 @@
         <v>147</v>
       </c>
       <c r="R34" s="81" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>163</v>
       </c>
       <c r="T34" s="90" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="U34" s="78" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="V34" s="33"/>
       <c r="W34" s="33"/>
@@ -4516,16 +4543,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>144</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F35" s="12">
         <v>0</v>
@@ -4534,16 +4561,16 @@
         <v>0</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I35" s="75" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L35" s="38" t="s">
         <v>163</v>
@@ -4552,10 +4579,10 @@
         <v>48</v>
       </c>
       <c r="N35" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O35" s="38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P35" s="38" t="s">
         <v>146</v>
@@ -4564,16 +4591,16 @@
         <v>147</v>
       </c>
       <c r="R35" s="81" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S35" s="4" t="s">
         <v>163</v>
       </c>
       <c r="T35" s="90" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="U35" s="78" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="V35" s="91"/>
       <c r="W35" s="91"/>
@@ -4589,16 +4616,16 @@
         <v>36</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>144</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F36" s="12">
         <v>0</v>
@@ -4607,16 +4634,16 @@
         <v>0</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I36" s="76" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L36" s="38" t="s">
         <v>163</v>
@@ -4625,10 +4652,10 @@
         <v>48</v>
       </c>
       <c r="N36" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O36" s="38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P36" s="38" t="s">
         <v>146</v>
@@ -4637,16 +4664,16 @@
         <v>147</v>
       </c>
       <c r="R36" s="81" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S36" s="4" t="s">
         <v>163</v>
       </c>
       <c r="T36" s="90" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="U36" s="78" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="V36" s="33"/>
       <c r="W36" s="33"/>

--- a/src/extraResources/qcs项目目录.xlsx
+++ b/src/extraResources/qcs项目目录.xlsx
@@ -153,9 +153,6 @@
     <t>数值分析</t>
   </si>
   <si>
-    <t xml:space="preserve">    找出装配在墙壁上和屋顶上光野指示器光束的交点，测量该点相对于6.5.1中所述（注：先机械校准后射野校准）参考指针所确定的等中心之间的偏移。                                                         对于安装在机架上的等中心指示器，在各组检测条件，测量指示点相对于参考指示针所确定的等中心点之间的偏移。</t>
-  </si>
-  <si>
     <t>mm</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
   </si>
   <si>
     <t>简单模体</t>
-  </si>
-  <si>
-    <t>将机架角位调至 0°，床面处于等中心高度，将床面的一端置于光野中心。治疗床在 70 kg 负载承载情况（负载重心均作用于等中心点），分别测出床面缩回和伸出情况下床面上光野中心处的高度。</t>
   </si>
   <si>
     <t>剂量偏差</t>
@@ -335,9 +329,6 @@
     <t>在中轴线上，模体要能替代10cm及5cm水，能支持0.6cc电离室</t>
   </si>
   <si>
-    <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率（注：治疗时的剂量率），分别对 X 射线和电子线，在临床常用标称能量档等条件下（注：治疗用的能量），预置大约2Gy的吸收剂量（注：200MU）进行照射和测量。</t>
-  </si>
-  <si>
     <t>Gy</t>
   </si>
   <si>
@@ -386,9 +377,6 @@
   </si>
   <si>
     <t>≤0.5%</t>
-  </si>
-  <si>
-    <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率（注：治疗时的剂量率），分别对 X 射线和电子线，在临床常用标称能量档等条件下（注：治疗用的能量），预置大约2Gy的吸收剂量（注：200MU），一般进行连续 5 次照射，记录每次测量的 Ri（注：剂量计读数），由系统计算变异系数。</t>
   </si>
   <si>
     <t>输入框上方写“对应能量, 10cm*10cm,””，左侧写“200MU”</t>
@@ -1322,6 +1310,22 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    找出装配在墙壁上和屋顶上光野指示器光束的交点，测量该点相对于6.5.1中所述（注：先机械校准后射野校准）参考指针所确定的等中心之间的偏移。                                                         对于安装在机架上的等中心指示器，在各组检测条件，测量指示点相对于参考指示针所确定的等中心点之间的偏移。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率（注：治疗时的剂量率），分别对 X 射线和电子线，在临床常用标称能量档等条件下（注：治疗用的能量），预置大约2Gy的吸收剂量（注：200MU），一般进行连续 5 次照射，记录每次测量的 Ri（注：剂量计读数），由系统计算变异系数。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>将机架角位调至 0°，床面处于等中心高度，将床面的一端置于光野中心。治疗床在 70 kg 负载承载情况（负载重心均作用于等中心点），分别测出床面缩回和伸出情况下床面上光野中心处的高度。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                             设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率（注：治疗时的剂量率），分别对 X 射线和电子线，在临床常用标称能量档等条件下（注：治疗用的能量），预置大约2Gy的吸收剂量（注：200MU）进行照射和测量。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2146,9 +2150,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2316,19 +2320,19 @@
         <v>38</v>
       </c>
       <c r="T2" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="V2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="W2" s="79" t="s">
         <v>40</v>
-      </c>
-      <c r="W2" s="79" t="s">
-        <v>41</v>
       </c>
       <c r="X2" s="79"/>
       <c r="Y2" s="79"/>
       <c r="Z2" s="79"/>
       <c r="AA2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2336,14 +2340,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="F3" s="12">
         <v>0</v>
@@ -2352,52 +2356,52 @@
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="44" t="s">
         <v>45</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>46</v>
       </c>
       <c r="J3" s="45"/>
       <c r="K3" s="45"/>
       <c r="L3" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="N3" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="O3" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="P3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="Q3" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="77" t="s">
+      <c r="R3" s="80" t="s">
         <v>52</v>
-      </c>
-      <c r="R3" s="80" t="s">
-        <v>53</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T3" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="78" t="s">
+      <c r="V3" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
       <c r="AA3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2405,14 +2409,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="12">
         <v>0</v>
@@ -2421,50 +2425,50 @@
         <v>1</v>
       </c>
       <c r="H4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="44" t="s">
         <v>45</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>46</v>
       </c>
       <c r="J4" s="45"/>
       <c r="K4" s="45"/>
       <c r="L4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="N4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="O4" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="P4" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="Q4" s="77" t="s">
         <v>51</v>
-      </c>
-      <c r="Q4" s="77" t="s">
-        <v>52</v>
       </c>
       <c r="R4" s="80"/>
       <c r="S4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T4" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="U4" s="78" t="s">
-        <v>60</v>
-      </c>
       <c r="V4" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2472,14 +2476,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="F5" s="12">
         <v>0</v>
@@ -2488,49 +2492,49 @@
         <v>1</v>
       </c>
       <c r="H5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="44" t="s">
         <v>45</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>46</v>
       </c>
       <c r="J5" s="45"/>
       <c r="K5" s="45"/>
       <c r="L5" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M5" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="O5" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="81" t="s">
         <v>65</v>
-      </c>
-      <c r="O5" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="81" t="s">
-        <v>66</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T5" s="78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
       <c r="AA5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2538,14 +2542,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="12">
         <v>0</v>
@@ -2554,49 +2558,49 @@
         <v>1</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="44" t="s">
         <v>45</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>46</v>
       </c>
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M6" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="O6" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="81" t="s">
         <v>65</v>
-      </c>
-      <c r="O6" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="81" t="s">
-        <v>66</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T6" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2604,7 +2608,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -2618,19 +2622,19 @@
         <v>2</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="47"/>
       <c r="K7" s="47"/>
       <c r="L7" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="48" t="s">
-        <v>74</v>
-      </c>
       <c r="N7" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="47" t="s">
         <v>34</v>
@@ -2642,23 +2646,23 @@
         <v>36</v>
       </c>
       <c r="R7" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T7" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W7" s="82"/>
       <c r="X7" s="82"/>
       <c r="Y7" s="82"/>
       <c r="Z7" s="82"/>
       <c r="AA7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2666,14 +2670,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="F8" s="12">
         <v>0</v>
@@ -2682,49 +2686,49 @@
         <v>1</v>
       </c>
       <c r="H8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="50" t="s">
         <v>45</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>46</v>
       </c>
       <c r="J8" s="51"/>
       <c r="K8" s="51"/>
       <c r="L8" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M8" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="O8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="83" t="s">
         <v>65</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="83" t="s">
-        <v>66</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T8" s="78" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2732,14 +2736,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F9" s="12">
         <v>0</v>
@@ -2748,53 +2752,53 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
       <c r="L9" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="19" t="s">
+      <c r="P9" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="Q9" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="54" t="s">
+      <c r="R9" s="58" t="s">
         <v>90</v>
-      </c>
-      <c r="Q9" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="R9" s="58" t="s">
-        <v>92</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T9" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X9" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2802,14 +2806,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F10" s="12">
         <v>0</v>
@@ -2818,51 +2822,51 @@
         <v>5</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
       <c r="L10" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P10" s="54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="84" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R10" s="85"/>
       <c r="S10" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T10" s="78" t="s">
-        <v>104</v>
+        <v>252</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2870,14 +2874,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F11" s="12">
         <v>2</v>
@@ -2886,51 +2890,51 @@
         <v>3</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J11" s="53"/>
       <c r="K11" s="53"/>
       <c r="L11" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P11" s="54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="84" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R11" s="85"/>
       <c r="S11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T11" s="78" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W11" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
       <c r="AA11" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2938,16 +2942,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F12" s="12">
         <v>4</v>
@@ -2956,52 +2960,52 @@
         <v>5</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
       <c r="L12" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P12" s="54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="84" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R12" s="85"/>
       <c r="S12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T12" s="78" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="U12" s="78"/>
       <c r="V12" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="X12" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
       <c r="AA12" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3009,16 +3013,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F13" s="12">
         <v>4</v>
@@ -3027,51 +3031,51 @@
         <v>5</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
       <c r="L13" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P13" s="54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="84" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R13" s="85"/>
       <c r="S13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T13" s="78" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="X13" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
       <c r="AA13" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3079,14 +3083,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F14" s="12">
         <v>3</v>
@@ -3095,51 +3099,51 @@
         <v>3</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I14" s="52" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J14" s="53"/>
       <c r="K14" s="53"/>
       <c r="L14" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="M14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="O14" s="19" t="s">
+      <c r="P14" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="84" t="s">
         <v>89</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q14" s="84" t="s">
-        <v>91</v>
       </c>
       <c r="R14" s="85"/>
       <c r="S14" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T14" s="78" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W14" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="X14" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Y14" s="22"/>
       <c r="Z14" s="22"/>
       <c r="AA14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3147,14 +3151,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F15" s="12">
         <v>0</v>
@@ -3163,51 +3167,51 @@
         <v>1</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J15" s="53"/>
       <c r="K15" s="53"/>
       <c r="L15" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O15" s="57" t="s">
-        <v>89</v>
-      </c>
       <c r="P15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="Q15" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="R15" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T15" s="78" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W15" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3215,14 +3219,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F16" s="12">
         <v>0</v>
@@ -3231,51 +3235,51 @@
         <v>1</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
       <c r="L16" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="O16" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="M16" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" s="57" t="s">
-        <v>89</v>
-      </c>
       <c r="P16" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T16" s="78" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
       <c r="AA16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3283,16 +3287,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F17" s="12">
         <v>4</v>
@@ -3301,52 +3305,52 @@
         <v>3</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J17" s="60"/>
       <c r="K17" s="60"/>
       <c r="L17" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="O17" s="23" t="s">
+      <c r="P17" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="86" t="s">
         <v>89</v>
-      </c>
-      <c r="P17" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="86" t="s">
-        <v>91</v>
       </c>
       <c r="R17" s="86"/>
       <c r="S17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T17" s="78" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="U17" s="78"/>
       <c r="V17" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3354,16 +3358,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F18" s="12">
         <v>4</v>
@@ -3372,51 +3376,51 @@
         <v>3</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J18" s="60"/>
       <c r="K18" s="60"/>
       <c r="L18" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R18" s="23"/>
       <c r="S18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T18" s="78" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3424,14 +3428,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F19" s="12">
         <v>0</v>
@@ -3440,51 +3444,51 @@
         <v>0</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I19" s="62" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J19" s="63">
         <v>1</v>
       </c>
       <c r="K19" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="O19" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="P19" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q19" s="63" t="s">
         <v>162</v>
-      </c>
-      <c r="L19" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="M19" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="O19" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="P19" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q19" s="63" t="s">
-        <v>166</v>
       </c>
       <c r="R19" s="85"/>
       <c r="S19" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="T19" s="78" t="s">
         <v>163</v>
-      </c>
-      <c r="T19" s="78" t="s">
-        <v>167</v>
       </c>
       <c r="V19" s="26"/>
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="26" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3492,16 +3496,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F20" s="12">
         <v>0</v>
@@ -3510,51 +3514,51 @@
         <v>0</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J20" s="63">
         <v>1</v>
       </c>
       <c r="K20" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="P20" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q20" s="63" t="s">
         <v>162</v>
-      </c>
-      <c r="L20" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="M20" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="O20" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="P20" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q20" s="63" t="s">
-        <v>166</v>
       </c>
       <c r="R20" s="85"/>
       <c r="S20" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T20" s="78" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="V20" s="26"/>
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
       <c r="Z20" s="26" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AA20" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3562,16 +3566,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F21" s="12">
         <v>0</v>
@@ -3580,53 +3584,53 @@
         <v>0</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J21" s="63">
         <v>1</v>
       </c>
       <c r="K21" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="P21" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q21" s="63" t="s">
         <v>162</v>
-      </c>
-      <c r="L21" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="M21" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="N21" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="O21" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="P21" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q21" s="63" t="s">
-        <v>166</v>
       </c>
       <c r="R21" s="85"/>
       <c r="S21" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T21" s="78" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="V21" s="87"/>
       <c r="W21" s="87"/>
       <c r="X21" s="87"/>
       <c r="Y21" s="87" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Z21" s="87" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3634,16 +3638,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F22" s="12">
         <v>0</v>
@@ -3652,51 +3656,51 @@
         <v>0</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I22" s="62" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J22" s="63">
         <v>1</v>
       </c>
       <c r="K22" s="64" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M22" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="63" t="s">
         <v>48</v>
-      </c>
-      <c r="N22" s="63" t="s">
-        <v>49</v>
       </c>
       <c r="O22" s="63" t="s">
         <v>34</v>
       </c>
       <c r="P22" s="63" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="63" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="R22" s="85"/>
       <c r="S22" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T22" s="78" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="V22" s="26"/>
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
       <c r="Z22" s="26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AA22" s="92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3704,16 +3708,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F23" s="12">
         <v>0</v>
@@ -3722,51 +3726,51 @@
         <v>0</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I23" s="62" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J23" s="63">
         <v>1</v>
       </c>
       <c r="K23" s="64" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L23" s="63" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M23" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="63" t="s">
+      <c r="O23" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="O23" s="63" t="s">
-        <v>50</v>
-      </c>
       <c r="P23" s="63" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="63" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="R23" s="85"/>
       <c r="S23" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T23" s="78" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3774,16 +3778,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F24" s="12">
         <v>0</v>
@@ -3792,49 +3796,49 @@
         <v>0</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J24" s="63">
         <v>1</v>
       </c>
       <c r="K24" s="64" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L24" s="63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M24" s="63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N24" s="63" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O24" s="63"/>
       <c r="P24" s="63" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="63" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="R24" s="85"/>
       <c r="S24" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T24" s="78" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="V24" s="26"/>
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Z24" s="26"/>
       <c r="AA24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3842,16 +3846,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F25" s="12">
         <v>0</v>
@@ -3860,51 +3864,51 @@
         <v>0</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J25" s="63">
         <v>1</v>
       </c>
       <c r="K25" s="64" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L25" s="63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M25" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="N25" s="63" t="s">
-        <v>49</v>
-      </c>
       <c r="O25" s="65" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P25" s="63" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="63" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="R25" s="85"/>
       <c r="S25" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T25" s="88" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="V25" s="26"/>
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3912,16 +3916,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F26" s="12">
         <v>0</v>
@@ -3930,51 +3934,51 @@
         <v>0</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I26" s="66" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J26" s="63">
         <v>1</v>
       </c>
       <c r="K26" s="93" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L26" s="63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M26" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="N26" s="63" t="s">
-        <v>49</v>
-      </c>
       <c r="O26" s="63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P26" s="63" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="63" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="R26" s="85"/>
       <c r="S26" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T26" s="88" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="V26" s="26"/>
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
       <c r="Z26" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3982,16 +3986,16 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F27" s="12">
         <v>0</v>
@@ -4000,51 +4004,51 @@
         <v>0</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I27" s="66" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J27" s="63">
         <v>1</v>
       </c>
       <c r="K27" s="93" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L27" s="63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M27" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="N27" s="63" t="s">
-        <v>49</v>
-      </c>
       <c r="O27" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P27" s="63" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q27" s="63" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="R27" s="85"/>
       <c r="S27" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T27" s="88" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
       <c r="Z27" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4052,16 +4056,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F28" s="12">
         <v>0</v>
@@ -4070,28 +4074,28 @@
         <v>0</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I28" s="67" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J28" s="68">
         <v>1</v>
       </c>
       <c r="K28" s="68" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L28" s="69" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M28" s="69" t="s">
         <v>32</v>
       </c>
       <c r="N28" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="O28" s="69" t="s">
         <v>49</v>
-      </c>
-      <c r="O28" s="69" t="s">
-        <v>50</v>
       </c>
       <c r="P28" s="70" t="s">
         <v>35</v>
@@ -4100,10 +4104,10 @@
         <v>36</v>
       </c>
       <c r="R28" s="68" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V28" s="29"/>
       <c r="W28" s="29"/>
@@ -4111,7 +4115,7 @@
       <c r="Y28" s="29"/>
       <c r="Z28" s="29"/>
       <c r="AA28" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4119,14 +4123,14 @@
         <v>29</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F29" s="12">
         <v>0</v>
@@ -4135,25 +4139,25 @@
         <v>0</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I29" s="67" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J29" s="68">
         <v>1</v>
       </c>
       <c r="K29" s="68" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L29" s="69" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M29" s="69" t="s">
         <v>32</v>
       </c>
       <c r="N29" s="69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O29" s="69" t="s">
         <v>34</v>
@@ -4165,23 +4169,23 @@
         <v>36</v>
       </c>
       <c r="R29" s="68" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T29" s="78" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="V29" s="29"/>
       <c r="W29" s="29"/>
       <c r="X29" s="29"/>
       <c r="Y29" s="29"/>
       <c r="Z29" s="29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4189,16 +4193,16 @@
         <v>30</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F30" s="12">
         <v>0</v>
@@ -4207,43 +4211,43 @@
         <v>0</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I30" s="74" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J30" s="71">
         <v>1</v>
       </c>
       <c r="K30" s="71" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L30" s="72" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M30" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N30" s="72" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O30" s="72" t="s">
         <v>34</v>
       </c>
       <c r="P30" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="Q30" s="72" t="s">
-        <v>80</v>
-      </c>
       <c r="R30" s="81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T30" s="78" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="V30" s="31"/>
       <c r="W30" s="31"/>
@@ -4251,7 +4255,7 @@
       <c r="Y30" s="31"/>
       <c r="Z30" s="31"/>
       <c r="AA30" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4259,16 +4263,16 @@
         <v>31</v>
       </c>
       <c r="B31" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>210</v>
-      </c>
       <c r="E31" s="31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F31" s="12">
         <v>0</v>
@@ -4277,43 +4281,43 @@
         <v>0</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I31" s="74" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J31" s="71">
         <v>1</v>
       </c>
       <c r="K31" s="71" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L31" s="72" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M31" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N31" s="72" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O31" s="72" t="s">
         <v>34</v>
       </c>
       <c r="P31" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q31" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="Q31" s="72" t="s">
-        <v>80</v>
-      </c>
       <c r="R31" s="81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T31" s="78" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="V31" s="31"/>
       <c r="W31" s="31"/>
@@ -4321,7 +4325,7 @@
       <c r="Y31" s="31"/>
       <c r="Z31" s="31"/>
       <c r="AA31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4329,16 +4333,16 @@
         <v>32</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F32" s="12">
         <v>0</v>
@@ -4347,43 +4351,43 @@
         <v>0</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I32" s="74" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J32" s="71">
         <v>1</v>
       </c>
       <c r="K32" s="71" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L32" s="72" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M32" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N32" s="72" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O32" s="72" t="s">
         <v>34</v>
       </c>
       <c r="P32" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q32" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="Q32" s="72" t="s">
-        <v>80</v>
-      </c>
       <c r="R32" s="81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T32" s="78" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="V32" s="31"/>
       <c r="W32" s="31"/>
@@ -4391,7 +4395,7 @@
       <c r="Y32" s="31"/>
       <c r="Z32" s="31"/>
       <c r="AA32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4399,14 +4403,14 @@
         <v>33</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F33" s="12">
         <v>0</v>
@@ -4415,46 +4419,46 @@
         <v>0</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I33" s="75" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M33" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N33" s="38" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O33" s="38" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P33" s="38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q33" s="38" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R33" s="81" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T33" s="90" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="U33" s="78" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V33" s="91"/>
       <c r="W33" s="91"/>
@@ -4462,7 +4466,7 @@
       <c r="Y33" s="91"/>
       <c r="Z33" s="91"/>
       <c r="AA33" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4470,16 +4474,16 @@
         <v>34</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F34" s="12">
         <v>0</v>
@@ -4488,46 +4492,46 @@
         <v>0</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I34" s="75" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L34" s="38" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M34" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N34" s="38" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O34" s="38" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P34" s="38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q34" s="38" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R34" s="81" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T34" s="90" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="U34" s="78" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V34" s="33"/>
       <c r="W34" s="33"/>
@@ -4535,7 +4539,7 @@
       <c r="Y34" s="33"/>
       <c r="Z34" s="33"/>
       <c r="AA34" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4543,16 +4547,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F35" s="12">
         <v>0</v>
@@ -4561,46 +4565,46 @@
         <v>0</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I35" s="75" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M35" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N35" s="38" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O35" s="38" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P35" s="38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q35" s="38" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R35" s="81" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T35" s="90" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="U35" s="78" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V35" s="91"/>
       <c r="W35" s="91"/>
@@ -4608,7 +4612,7 @@
       <c r="Y35" s="91"/>
       <c r="Z35" s="91"/>
       <c r="AA35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4616,16 +4620,16 @@
         <v>36</v>
       </c>
       <c r="B36" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="C36" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>227</v>
-      </c>
       <c r="E36" s="36" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F36" s="12">
         <v>0</v>
@@ -4634,46 +4638,46 @@
         <v>0</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I36" s="76" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L36" s="38" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M36" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N36" s="38" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O36" s="38" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P36" s="38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q36" s="38" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R36" s="81" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T36" s="90" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="U36" s="78" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V36" s="33"/>
       <c r="W36" s="33"/>
@@ -4681,7 +4685,7 @@
       <c r="Y36" s="33"/>
       <c r="Z36" s="33"/>
       <c r="AA36" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/extraResources/qcs项目目录.xlsx
+++ b/src/extraResources/qcs项目目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="257">
   <si>
     <t>ID</t>
   </si>
@@ -1285,30 +1285,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>RP.631</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>RP.642</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>影像分析</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>RP.662</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>RP.641</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>RP.651</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1326,6 +1306,34 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                             设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率（注：治疗时的剂量率），分别对 X 射线和电子线，在临床常用标称能量档等条件下（注：治疗用的能量），预置大约2Gy的吸收剂量（注：200MU）进行照射和测量。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.631.dcm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.631.dcm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.642.dcm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.641.dcm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.651.dcm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.662.dcm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.662.dcm</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2150,9 +2158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2320,7 +2328,7 @@
         <v>38</v>
       </c>
       <c r="T2" s="78" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>39</v>
@@ -2718,7 +2726,7 @@
         <v>38</v>
       </c>
       <c r="T8" s="78" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="V8" s="14" t="s">
         <v>39</v>
@@ -2784,7 +2792,7 @@
         <v>38</v>
       </c>
       <c r="T9" s="78" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>91</v>
@@ -2852,7 +2860,7 @@
         <v>38</v>
       </c>
       <c r="T10" s="78" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>91</v>
@@ -3485,7 +3493,7 @@
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="26" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>94</v>
@@ -3555,7 +3563,7 @@
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
       <c r="Z20" s="26" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AA20" s="7" t="s">
         <v>94</v>
@@ -3627,7 +3635,7 @@
         <v>167</v>
       </c>
       <c r="Z21" s="87" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>94</v>
@@ -3697,7 +3705,7 @@
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
       <c r="Z22" s="26" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AA22" s="92" t="s">
         <v>226</v>
@@ -3738,7 +3746,7 @@
         <v>173</v>
       </c>
       <c r="L23" s="63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M23" s="63" t="s">
         <v>47</v>
@@ -3767,7 +3775,7 @@
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>56</v>
@@ -3836,7 +3844,9 @@
       <c r="Y24" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="Z24" s="26"/>
+      <c r="Z24" s="26" t="s">
+        <v>256</v>
+      </c>
       <c r="AA24" s="7" t="s">
         <v>39</v>
       </c>
@@ -3905,7 +3915,7 @@
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="26" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>39</v>
@@ -3975,7 +3985,7 @@
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
       <c r="Z26" s="26" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AA26" s="7" t="s">
         <v>39</v>
@@ -4045,7 +4055,7 @@
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
       <c r="Z27" s="26" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>39</v>
@@ -4059,7 +4069,7 @@
         <v>41</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>192</v>
@@ -4126,7 +4136,7 @@
         <v>197</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29" t="s">
@@ -4182,7 +4192,7 @@
       <c r="X29" s="29"/>
       <c r="Y29" s="29"/>
       <c r="Z29" s="29" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>39</v>
@@ -4196,7 +4206,7 @@
         <v>202</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>203</v>
@@ -4266,7 +4276,7 @@
         <v>202</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>206</v>
@@ -4336,7 +4346,7 @@
         <v>202</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>209</v>

--- a/src/extraResources/qcs项目目录.xlsx
+++ b/src/extraResources/qcs项目目录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="265">
   <si>
     <t>ID</t>
   </si>
@@ -463,9 +463,6 @@
     </r>
   </si>
   <si>
-    <t>验收</t>
-  </si>
-  <si>
     <t>对于某一剂量率档，设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，分别对 X 射线和电子线，在临床常用标称能量档等条件下，在标称吸收剂量范围内，以近似相等的间隔选取4个不同吸收剂量预置值，进行 5 次辐照并测量。</t>
   </si>
   <si>
@@ -520,9 +517,6 @@
       </rPr>
       <t>需要显示测量条件及标准对应值2Gy</t>
     </r>
-  </si>
-  <si>
-    <t>推荐</t>
   </si>
   <si>
     <t>设置机架角度分别为 0°、180°和 270°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率，分别对 X 射线和电子线，在临床常用标称能量档等条件下，以 2 Gy 的吸收剂量照射，进行 3 次测量，确定其中最大值最小值，并求其平均值。</t>
@@ -716,9 +710,6 @@
   </si>
   <si>
     <t>不含模体的影像，两张图比较</t>
-  </si>
-  <si>
-    <t>10*10,10*10</t>
   </si>
   <si>
     <t>设置机架角度为 0°，限束系统为 0°，使用 X 射线典型放射治疗条件的吸收剂量率条件下，将照射野的指示值固定在 20 cm×20 cm，分别从大于和小于 20 cm×20 cm 的位置交替六次设置 到 20 cm×20 cm，并按 6.4.1.3 的方法检测照射野尺寸之间的偏差以及照射野与光野之间的偏差。</t>
@@ -1245,95 +1236,139 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>10×10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20cm×20cm</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>单个能量，单张图，10*10</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>单个能量，首选X线检测能量，分析3张图10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*10,20*20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*10,10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*10,10*10,10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿两主轴方向上80%等剂量线</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像分析</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    找出装配在墙壁上和屋顶上光野指示器光束的交点，测量该点相对于6.5.1中所述（注：先机械校准后射野校准）参考指针所确定的等中心之间的偏移。                                                         对于安装在机架上的等中心指示器，在各组检测条件，测量指示点相对于参考指示针所确定的等中心点之间的偏移。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率（注：治疗时的剂量率），分别对 X 射线和电子线，在临床常用标称能量档等条件下（注：治疗用的能量），预置大约2Gy的吸收剂量（注：200MU），一般进行连续 5 次照射，记录每次测量的 Ri（注：剂量计读数），由系统计算变异系数。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>将机架角位调至 0°，床面处于等中心高度，将床面的一端置于光野中心。治疗床在 70 kg 负载承载情况（负载重心均作用于等中心点），分别测出床面缩回和伸出情况下床面上光野中心处的高度。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                             设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率（注：治疗时的剂量率），分别对 X 射线和电子线，在临床常用标称能量档等条件下（注：治疗用的能量），预置大约2Gy的吸收剂量（注：200MU）进行照射和测量。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.631.dcm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.631.dcm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.642.dcm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.641.dcm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.651.dcm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.662.dcm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP.662.dcm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*20,10*20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个能量，两张图10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*20,20*20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*10,10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>X射线方形照射野的单元线束</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>21cm×21cm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个能量，两张图10*10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>单个能量，单张图，10*10</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>单个能量，首选X线检测能量，分析3张图10*10</t>
+    <t>10*10</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>10*10,20*20</t>
+    <t>21*21</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>10*10,10*10</t>
+    <t>一年</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>10*10,10*10,10*10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沿两主轴方向上80%等剂量线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.3.2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>影像分析</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    找出装配在墙壁上和屋顶上光野指示器光束的交点，测量该点相对于6.5.1中所述（注：先机械校准后射野校准）参考指针所确定的等中心之间的偏移。                                                         对于安装在机架上的等中心指示器，在各组检测条件，测量指示点相对于参考指示针所确定的等中心点之间的偏移。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率（注：治疗时的剂量率），分别对 X 射线和电子线，在临床常用标称能量档等条件下（注：治疗用的能量），预置大约2Gy的吸收剂量（注：200MU），一般进行连续 5 次照射，记录每次测量的 Ri（注：剂量计读数），由系统计算变异系数。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>将机架角位调至 0°，床面处于等中心高度，将床面的一端置于光野中心。治疗床在 70 kg 负载承载情况（负载重心均作用于等中心点），分别测出床面缩回和伸出情况下床面上光野中心处的高度。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                             设置机架角度为 0°，限束系统为 0°，在正常治疗距离条件（注：X线为等中心处，电子线为源皮距100cm时最大剂量点处）照射野大小为 10 cm×10 cm，典型放射治疗条件的吸收剂量率（注：治疗时的剂量率），分别对 X 射线和电子线，在临床常用标称能量档等条件下（注：治疗用的能量），预置大约2Gy的吸收剂量（注：200MU）进行照射和测量。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>RP.631.dcm</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>RP.631.dcm</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>RP.642.dcm</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>RP.641.dcm</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>RP.651.dcm</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>RP.662.dcm</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>RP.662.dcm</t>
+    <t>一年</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2158,9 +2193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z24" sqref="Z24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2328,7 +2363,7 @@
         <v>38</v>
       </c>
       <c r="T2" s="78" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>39</v>
@@ -2708,7 +2743,7 @@
         <v>63</v>
       </c>
       <c r="N8" s="47" t="s">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="O8" s="47" t="s">
         <v>68</v>
@@ -2726,7 +2761,7 @@
         <v>38</v>
       </c>
       <c r="T8" s="78" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="V8" s="14" t="s">
         <v>39</v>
@@ -2792,7 +2827,7 @@
         <v>38</v>
       </c>
       <c r="T9" s="78" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>91</v>
@@ -2860,7 +2895,7 @@
         <v>38</v>
       </c>
       <c r="T10" s="78" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>91</v>
@@ -2885,7 +2920,7 @@
         <v>102</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
@@ -2982,7 +3017,7 @@
         <v>47</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="O12" s="19" t="s">
         <v>106</v>
@@ -2998,17 +3033,17 @@
         <v>38</v>
       </c>
       <c r="T12" s="78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U12" s="78"/>
       <c r="V12" s="7" t="s">
         <v>91</v>
       </c>
       <c r="W12" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="X12" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="X12" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
@@ -3027,10 +3062,10 @@
         <v>81</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="F13" s="12">
         <v>4</v>
@@ -3053,7 +3088,7 @@
         <v>47</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>106</v>
@@ -3069,16 +3104,16 @@
         <v>38</v>
       </c>
       <c r="T13" s="78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>91</v>
       </c>
       <c r="W13" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="X13" s="17" t="s">
-        <v>123</v>
       </c>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
@@ -3091,14 +3126,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="12">
         <v>3</v>
@@ -3107,10 +3142,10 @@
         <v>3</v>
       </c>
       <c r="H14" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="52" t="s">
         <v>126</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>127</v>
       </c>
       <c r="J14" s="53"/>
       <c r="K14" s="53"/>
@@ -3121,7 +3156,7 @@
         <v>47</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="O14" s="19" t="s">
         <v>87</v>
@@ -3137,16 +3172,16 @@
         <v>38</v>
       </c>
       <c r="T14" s="78" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="V14" s="7" t="s">
         <v>91</v>
       </c>
       <c r="W14" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X14" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y14" s="22"/>
       <c r="Z14" s="22"/>
@@ -3159,14 +3194,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F15" s="12">
         <v>0</v>
@@ -3175,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J15" s="53"/>
       <c r="K15" s="53"/>
@@ -3201,19 +3236,19 @@
         <v>51</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T15" s="78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>94</v>
       </c>
       <c r="W15" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -3227,14 +3262,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F16" s="12">
         <v>0</v>
@@ -3243,10 +3278,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
@@ -3263,25 +3298,25 @@
         <v>87</v>
       </c>
       <c r="P16" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="R16" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="R16" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T16" s="78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V16" s="7" t="s">
         <v>94</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
@@ -3295,16 +3330,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F17" s="12">
         <v>4</v>
@@ -3313,10 +3348,10 @@
         <v>3</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J17" s="60"/>
       <c r="K17" s="60"/>
@@ -3327,7 +3362,7 @@
         <v>47</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>128</v>
+        <v>263</v>
       </c>
       <c r="O17" s="23" t="s">
         <v>87</v>
@@ -3343,17 +3378,17 @@
         <v>38</v>
       </c>
       <c r="T17" s="78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U17" s="78"/>
       <c r="V17" s="7" t="s">
         <v>91</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
@@ -3366,16 +3401,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F18" s="12">
         <v>4</v>
@@ -3384,10 +3419,10 @@
         <v>3</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J18" s="60"/>
       <c r="K18" s="60"/>
@@ -3398,32 +3433,32 @@
         <v>47</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="O18" s="23" t="s">
         <v>106</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R18" s="23"/>
       <c r="S18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T18" s="78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>91</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
@@ -3436,14 +3471,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F19" s="12">
         <v>0</v>
@@ -3452,19 +3487,19 @@
         <v>0</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I19" s="62" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J19" s="63">
         <v>1</v>
       </c>
       <c r="K19" s="64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L19" s="63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M19" s="63" t="s">
         <v>47</v>
@@ -3473,27 +3508,27 @@
         <v>99</v>
       </c>
       <c r="O19" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="P19" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q19" s="63" t="s">
         <v>160</v>
-      </c>
-      <c r="P19" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q19" s="63" t="s">
-        <v>162</v>
       </c>
       <c r="R19" s="85"/>
       <c r="S19" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T19" s="78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V19" s="26"/>
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="26" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>94</v>
@@ -3504,16 +3539,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F20" s="12">
         <v>0</v>
@@ -3522,48 +3557,48 @@
         <v>0</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J20" s="63">
         <v>1</v>
       </c>
       <c r="K20" s="64" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="L20" s="63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M20" s="63" t="s">
         <v>47</v>
       </c>
       <c r="N20" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O20" s="63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P20" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q20" s="63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R20" s="85"/>
       <c r="S20" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T20" s="78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V20" s="26"/>
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
       <c r="Z20" s="26" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AA20" s="7" t="s">
         <v>94</v>
@@ -3574,16 +3609,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F21" s="12">
         <v>0</v>
@@ -3592,50 +3627,50 @@
         <v>0</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J21" s="63">
         <v>1</v>
       </c>
       <c r="K21" s="64" t="s">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="L21" s="63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M21" s="63" t="s">
         <v>47</v>
       </c>
       <c r="N21" s="63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O21" s="63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P21" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R21" s="85"/>
       <c r="S21" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T21" s="78" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V21" s="87"/>
       <c r="W21" s="87"/>
       <c r="X21" s="87"/>
       <c r="Y21" s="87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Z21" s="87" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>94</v>
@@ -3646,16 +3681,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F22" s="12">
         <v>0</v>
@@ -3664,19 +3699,19 @@
         <v>0</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I22" s="62" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="J22" s="63">
         <v>1</v>
       </c>
       <c r="K22" s="64" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M22" s="63" t="s">
         <v>47</v>
@@ -3688,27 +3723,27 @@
         <v>34</v>
       </c>
       <c r="P22" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R22" s="85"/>
       <c r="S22" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T22" s="78" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="V22" s="26"/>
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
       <c r="Z22" s="26" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AA22" s="92" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3719,13 +3754,13 @@
         <v>41</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F23" s="12">
         <v>0</v>
@@ -3734,19 +3769,19 @@
         <v>0</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I23" s="62" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J23" s="63">
         <v>1</v>
       </c>
       <c r="K23" s="64" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="L23" s="63" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M23" s="63" t="s">
         <v>47</v>
@@ -3758,24 +3793,24 @@
         <v>49</v>
       </c>
       <c r="P23" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R23" s="85"/>
       <c r="S23" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T23" s="78" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>56</v>
@@ -3786,16 +3821,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F24" s="12">
         <v>0</v>
@@ -3804,48 +3839,48 @@
         <v>0</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J24" s="63">
         <v>1</v>
       </c>
       <c r="K24" s="64" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="L24" s="63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M24" s="63" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="63" t="s">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="O24" s="63"/>
       <c r="P24" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R24" s="85"/>
       <c r="S24" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T24" s="78" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="V24" s="26"/>
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Z24" s="26" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AA24" s="7" t="s">
         <v>39</v>
@@ -3856,16 +3891,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F25" s="12">
         <v>0</v>
@@ -3874,19 +3909,19 @@
         <v>0</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J25" s="63">
         <v>1</v>
       </c>
       <c r="K25" s="64" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L25" s="63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M25" s="63" t="s">
         <v>47</v>
@@ -3895,27 +3930,27 @@
         <v>48</v>
       </c>
       <c r="O25" s="65" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P25" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R25" s="85"/>
       <c r="S25" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T25" s="88" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="V25" s="26"/>
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="26" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>39</v>
@@ -3926,16 +3961,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F26" s="12">
         <v>0</v>
@@ -3944,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I26" s="66" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="J26" s="63">
         <v>1</v>
       </c>
       <c r="K26" s="93" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="L26" s="63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M26" s="63" t="s">
         <v>47</v>
@@ -3965,27 +4000,27 @@
         <v>48</v>
       </c>
       <c r="O26" s="63" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P26" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R26" s="85"/>
       <c r="S26" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T26" s="88" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="V26" s="26"/>
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
       <c r="Z26" s="26" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AA26" s="7" t="s">
         <v>39</v>
@@ -3996,16 +4031,16 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F27" s="12">
         <v>0</v>
@@ -4014,19 +4049,19 @@
         <v>0</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I27" s="66" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J27" s="63">
         <v>1</v>
       </c>
       <c r="K27" s="93" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L27" s="63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M27" s="63" t="s">
         <v>47</v>
@@ -4038,24 +4073,24 @@
         <v>68</v>
       </c>
       <c r="P27" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q27" s="63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R27" s="85"/>
       <c r="S27" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T27" s="88" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
       <c r="Z27" s="26" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>39</v>
@@ -4069,13 +4104,13 @@
         <v>41</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F28" s="12">
         <v>0</v>
@@ -4084,19 +4119,19 @@
         <v>0</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I28" s="67" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="J28" s="68">
         <v>1</v>
       </c>
       <c r="K28" s="68" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L28" s="69" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M28" s="69" t="s">
         <v>32</v>
@@ -4114,10 +4149,10 @@
         <v>36</v>
       </c>
       <c r="R28" s="68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V28" s="29"/>
       <c r="W28" s="29"/>
@@ -4133,14 +4168,14 @@
         <v>29</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F29" s="12">
         <v>0</v>
@@ -4149,19 +4184,19 @@
         <v>0</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I29" s="67" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J29" s="68">
         <v>1</v>
       </c>
       <c r="K29" s="68" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L29" s="69" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M29" s="69" t="s">
         <v>32</v>
@@ -4179,20 +4214,20 @@
         <v>36</v>
       </c>
       <c r="R29" s="68" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T29" s="78" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="V29" s="29"/>
       <c r="W29" s="29"/>
       <c r="X29" s="29"/>
       <c r="Y29" s="29"/>
       <c r="Z29" s="29" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>39</v>
@@ -4203,16 +4238,16 @@
         <v>30</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F30" s="12">
         <v>0</v>
@@ -4221,19 +4256,19 @@
         <v>0</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I30" s="74" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J30" s="71">
         <v>1</v>
       </c>
       <c r="K30" s="71" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L30" s="72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M30" s="72" t="s">
         <v>63</v>
@@ -4254,10 +4289,10 @@
         <v>65</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T30" s="78" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="V30" s="31"/>
       <c r="W30" s="31"/>
@@ -4273,16 +4308,16 @@
         <v>31</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F31" s="12">
         <v>0</v>
@@ -4291,19 +4326,19 @@
         <v>0</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I31" s="74" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J31" s="71">
         <v>1</v>
       </c>
       <c r="K31" s="71" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L31" s="72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M31" s="72" t="s">
         <v>63</v>
@@ -4324,10 +4359,10 @@
         <v>65</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T31" s="78" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="V31" s="31"/>
       <c r="W31" s="31"/>
@@ -4343,16 +4378,16 @@
         <v>32</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F32" s="12">
         <v>0</v>
@@ -4361,19 +4396,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I32" s="74" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J32" s="71">
         <v>1</v>
       </c>
       <c r="K32" s="71" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L32" s="72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M32" s="72" t="s">
         <v>63</v>
@@ -4394,10 +4429,10 @@
         <v>65</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T32" s="78" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="V32" s="31"/>
       <c r="W32" s="31"/>
@@ -4413,14 +4448,14 @@
         <v>33</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F33" s="12">
         <v>0</v>
@@ -4429,46 +4464,46 @@
         <v>0</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I33" s="75" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M33" s="38" t="s">
         <v>47</v>
       </c>
       <c r="N33" s="38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O33" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="P33" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q33" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="R33" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="T33" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="U33" s="78" t="s">
         <v>215</v>
-      </c>
-      <c r="P33" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q33" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="R33" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="T33" s="90" t="s">
-        <v>217</v>
-      </c>
-      <c r="U33" s="78" t="s">
-        <v>218</v>
       </c>
       <c r="V33" s="91"/>
       <c r="W33" s="91"/>
@@ -4484,16 +4519,16 @@
         <v>34</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F34" s="12">
         <v>0</v>
@@ -4502,46 +4537,46 @@
         <v>0</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I34" s="75" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L34" s="38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M34" s="38" t="s">
         <v>47</v>
       </c>
       <c r="N34" s="38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O34" s="38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P34" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q34" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R34" s="81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T34" s="90" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="U34" s="78" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="V34" s="33"/>
       <c r="W34" s="33"/>
@@ -4557,16 +4592,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F35" s="12">
         <v>0</v>
@@ -4575,46 +4610,46 @@
         <v>0</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I35" s="75" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M35" s="38" t="s">
         <v>47</v>
       </c>
       <c r="N35" s="38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O35" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P35" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q35" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R35" s="81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T35" s="90" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="U35" s="78" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="V35" s="91"/>
       <c r="W35" s="91"/>
@@ -4630,16 +4665,16 @@
         <v>36</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F36" s="12">
         <v>0</v>
@@ -4648,46 +4683,46 @@
         <v>0</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I36" s="76" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L36" s="38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M36" s="38" t="s">
         <v>47</v>
       </c>
       <c r="N36" s="38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O36" s="38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P36" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q36" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R36" s="81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T36" s="90" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="U36" s="78" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="V36" s="33"/>
       <c r="W36" s="33"/>
